--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V94"/>
+  <dimension ref="A1:V96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2873,19 +2873,19 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
         <v>1.65</v>
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.6</v>
+        <v>2.11</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.54</v>
+        <v>3.69</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.12</v>
+        <v>3.19</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="R27" t="n">
-        <v>6.41</v>
+        <v>6.35</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>6.2</v>
+        <v>4.16</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-villarreal/xhbExxW6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-alcorcon/h25rKBVo/</t>
         </is>
       </c>
     </row>
@@ -2965,19 +2965,19 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Villarreal B</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Alcorcon</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>2</v>
       </c>
       <c r="J28" t="n">
         <v>1.65</v>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.11</v>
+        <v>1.6</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.69</v>
+        <v>3.54</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.19</v>
+        <v>4.12</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="R28" t="n">
-        <v>6.35</v>
+        <v>6.41</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.16</v>
+        <v>6.2</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-alcorcon/h25rKBVo/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-villarreal/xhbExxW6/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Levante</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
       <c r="J59" t="n">
-        <v>3.14</v>
+        <v>1.93</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.46</v>
+        <v>1.78</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:29</t>
+          <t>16/09/2023 18:24</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.07</v>
+        <v>3.57</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2.96</v>
+        <v>3.71</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:28</t>
+          <t>16/09/2023 18:24</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.53</v>
+        <v>4.16</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.53</v>
+        <v>5.02</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:29</t>
+          <t>16/09/2023 18:27</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-levante/tUzfzOLq/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-fc-cartagena-sad/lhXkfqDF/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.93</v>
+        <v>3.14</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.78</v>
+        <v>2.46</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:24</t>
+          <t>16/09/2023 18:29</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.57</v>
+        <v>3.07</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.71</v>
+        <v>2.96</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:24</t>
+          <t>16/09/2023 18:28</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.16</v>
+        <v>2.53</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>5.02</v>
+        <v>3.53</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:27</t>
+          <t>16/09/2023 18:29</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-fc-cartagena-sad/lhXkfqDF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-levante/tUzfzOLq/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1.81</v>
+        <v>2.38</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.87</v>
+        <v>2.72</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 18:29</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.61</v>
+        <v>3.24</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.43</v>
+        <v>3.09</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 18:06</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.86</v>
+        <v>3.23</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.95</v>
+        <v>2.98</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 18:29</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-cartagena-sad/2yRCnhB6/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.38</v>
+        <v>1.81</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.72</v>
+        <v>1.87</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:29</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.24</v>
+        <v>3.61</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.09</v>
+        <v>3.43</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:06</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.23</v>
+        <v>4.86</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.98</v>
+        <v>4.95</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:29</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-cartagena-sad/2yRCnhB6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
         </is>
       </c>
     </row>
@@ -9102,6 +9102,190 @@
       <c r="V94" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-huesca/2BsMDU95/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45203.89583333334</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>1</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>04/10/2023 21:28</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>04/10/2023 21:28</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>04/10/2023 21:29</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-leganes/xfueaVfC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45203.89583333334</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>2</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>04/10/2023 21:26</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>04/10/2023 21:26</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>01/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>04/10/2023 21:26</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-elche/OKrIEAfa/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V96"/>
+  <dimension ref="A1:V98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,63 +3985,63 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.37</v>
+        <v>1.65</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:56</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.33</v>
+        <v>3.82</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.47</v>
+        <v>3.51</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:52</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.15</v>
+        <v>5.66</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.75</v>
+        <v>4.46</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:59</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-cartagena-sad/2FXXUSq4/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-racing-santander/CWkCDRET/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,63 +4077,63 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>1.65</v>
+        <v>2.37</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:56</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.82</v>
+        <v>3.33</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.51</v>
+        <v>3.47</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:52</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>5.66</v>
+        <v>3.15</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.46</v>
+        <v>3.75</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:59</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-racing-santander/CWkCDRET/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-cartagena-sad/2FXXUSq4/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,63 +4905,63 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2.22</v>
+        <v>1.93</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>03/09/2023 13:12</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>09/09/2023 20:47</t>
+          <t>09/09/2023 20:57</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.18</v>
+        <v>3.25</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>03/09/2023 13:12</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.18</v>
+        <v>3.12</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>09/09/2023 20:47</t>
+          <t>09/09/2023 20:57</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.64</v>
+        <v>4.86</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>03/09/2023 13:12</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.07</v>
+        <v>4.58</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>09/09/2023 20:47</t>
+          <t>09/09/2023 20:57</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-albacete/2Fg3p8qi/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-huesca/pbkOupbM/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,63 +4997,63 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.93</v>
+        <v>2.22</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 13:12</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>09/09/2023 20:57</t>
+          <t>09/09/2023 20:47</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.25</v>
+        <v>3.18</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 13:12</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.12</v>
+        <v>3.18</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>09/09/2023 20:57</t>
+          <t>09/09/2023 20:47</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>4.86</v>
+        <v>3.64</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 13:12</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.58</v>
+        <v>4.07</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>09/09/2023 20:57</t>
+          <t>09/09/2023 20:47</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-huesca/pbkOupbM/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-albacete/2Fg3p8qi/</t>
         </is>
       </c>
     </row>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.31</v>
+        <v>2.66</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:55</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>2.95</v>
+        <v>3.12</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>2.91</v>
+        <v>3</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:56</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.54</v>
+        <v>3.12</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.98</v>
+        <v>3.15</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:56</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-huesca/2aDQmsjq/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-albacete/l6CO8rS8/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
         <v>2</v>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Albacete</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
       <c r="J73" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.66</v>
+        <v>2.31</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:55</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.12</v>
+        <v>2.95</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:56</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.12</v>
+        <v>3.54</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.15</v>
+        <v>3.98</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:56</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-albacete/l6CO8rS8/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-huesca/2aDQmsjq/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.51</v>
+        <v>1.96</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.59</v>
+        <v>1.93</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>30/09/2023 20:40</t>
+          <t>30/09/2023 20:41</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.15</v>
+        <v>3.52</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>30/09/2023 20:46</t>
+          <t>30/09/2023 20:59</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.18</v>
+        <v>4.07</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.02</v>
+        <v>4.55</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>30/09/2023 20:41</t>
+          <t>30/09/2023 20:54</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>1.96</v>
+        <v>2.51</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>23/09/2023 20:12</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.93</v>
+        <v>2.59</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
+          <t>30/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:46</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
           <t>30/09/2023 20:41</t>
         </is>
       </c>
-      <c r="N83" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P83" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:59</t>
-        </is>
-      </c>
-      <c r="R83" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T83" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:54</t>
-        </is>
-      </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>3</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Mirandes</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
       <c r="J85" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.38</v>
+        <v>3.61</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.97</v>
+        <v>4.86</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.97</v>
+        <v>4.95</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,63 +8309,63 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.38</v>
+        <v>1.88</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.72</v>
+        <v>1.88</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>01/10/2023 18:29</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.24</v>
+        <v>3.38</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.09</v>
+        <v>3.38</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>01/10/2023 18:06</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>3.23</v>
+        <v>4.97</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.98</v>
+        <v>4.97</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>01/10/2023 18:29</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-cartagena-sad/2yRCnhB6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1.81</v>
+        <v>2.38</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.87</v>
+        <v>2.72</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 18:29</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.61</v>
+        <v>3.24</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.43</v>
+        <v>3.09</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 18:06</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.86</v>
+        <v>3.23</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>4.95</v>
+        <v>2.98</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 18:29</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-cartagena-sad/2yRCnhB6/</t>
         </is>
       </c>
     </row>
@@ -9286,6 +9286,190 @@
       <c r="V96" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/gijon-elche/OKrIEAfa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45204.79166666666</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Andorra</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>05/10/2023 18:52</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>05/10/2023 18:52</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>05/10/2023 18:52</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-zaragoza/69uu7ptM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45204.79166666666</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Mirandes</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>3</v>
+      </c>
+      <c r="J98" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>05/10/2023 18:57</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>05/10/2023 18:53</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>05/10/2023 18:57</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-eibar/dbCLFjug/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V98"/>
+  <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2873,19 +2873,19 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Villarreal B</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Alcorcon</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>2</v>
       </c>
       <c r="J27" t="n">
         <v>1.65</v>
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.11</v>
+        <v>1.6</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.69</v>
+        <v>3.54</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.19</v>
+        <v>4.12</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="R27" t="n">
-        <v>6.35</v>
+        <v>6.41</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>4.16</v>
+        <v>6.2</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-alcorcon/h25rKBVo/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-villarreal/xhbExxW6/</t>
         </is>
       </c>
     </row>
@@ -2965,19 +2965,19 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
         <v>1.65</v>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.6</v>
+        <v>2.11</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.54</v>
+        <v>3.69</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4.12</v>
+        <v>3.19</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="R28" t="n">
-        <v>6.41</v>
+        <v>6.35</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>6.2</v>
+        <v>4.16</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-villarreal/xhbExxW6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-alcorcon/h25rKBVo/</t>
         </is>
       </c>
     </row>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,63 +3985,63 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>1.65</v>
+        <v>2.37</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:56</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.82</v>
+        <v>3.33</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.51</v>
+        <v>3.47</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:52</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>5.66</v>
+        <v>3.15</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.46</v>
+        <v>3.75</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:59</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-racing-santander/CWkCDRET/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-cartagena-sad/2FXXUSq4/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,63 +4077,63 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.37</v>
+        <v>1.65</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:56</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.33</v>
+        <v>3.82</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.47</v>
+        <v>3.51</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:52</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.15</v>
+        <v>5.66</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.75</v>
+        <v>4.46</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:59</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-cartagena-sad/2FXXUSq4/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-racing-santander/CWkCDRET/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.22</v>
+        <v>1.85</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.13</v>
+        <v>3.44</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.53</v>
+        <v>3.47</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.71</v>
+        <v>4.79</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>4.63</v>
+        <v>5.36</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-villarreal/lzCGM4ip/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-amorebieta/AucBrnE3/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>1.85</v>
+        <v>2.22</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.44</v>
+        <v>3.13</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.79</v>
+        <v>3.71</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>5.36</v>
+        <v>4.63</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-amorebieta/AucBrnE3/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-villarreal/lzCGM4ip/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>1.93</v>
+        <v>3.14</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.78</v>
+        <v>2.46</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:24</t>
+          <t>16/09/2023 18:29</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.57</v>
+        <v>3.07</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.71</v>
+        <v>2.96</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:24</t>
+          <t>16/09/2023 18:28</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4.16</v>
+        <v>2.53</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>5.02</v>
+        <v>3.53</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:27</t>
+          <t>16/09/2023 18:29</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-fc-cartagena-sad/lhXkfqDF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-levante/tUzfzOLq/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Levante</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>2</v>
-      </c>
       <c r="J60" t="n">
-        <v>3.14</v>
+        <v>1.93</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.46</v>
+        <v>1.78</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:29</t>
+          <t>16/09/2023 18:24</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.07</v>
+        <v>3.57</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>2.96</v>
+        <v>3.71</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:28</t>
+          <t>16/09/2023 18:24</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.53</v>
+        <v>4.16</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.53</v>
+        <v>5.02</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:29</t>
+          <t>16/09/2023 18:27</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-levante/tUzfzOLq/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-fc-cartagena-sad/lhXkfqDF/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>1.88</v>
+        <v>1.46</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.88</v>
+        <v>1.56</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:28</t>
+          <t>17/09/2023 18:04</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.33</v>
+        <v>4.23</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.31</v>
+        <v>4.04</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:29</t>
+          <t>17/09/2023 18:26</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.97</v>
+        <v>8.23</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>5.07</v>
+        <v>6.99</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:29</t>
+          <t>17/09/2023 18:09</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-leganes/EZvwcoTd/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-eldense/IRyfg3SL/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1.46</v>
+        <v>1.88</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.56</v>
+        <v>1.88</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:04</t>
+          <t>17/09/2023 18:28</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>4.23</v>
+        <v>3.33</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>4.04</v>
+        <v>3.31</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:26</t>
+          <t>17/09/2023 18:29</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>8.23</v>
+        <v>4.97</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>6.99</v>
+        <v>5.07</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:09</t>
+          <t>17/09/2023 18:29</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-eldense/IRyfg3SL/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-leganes/EZvwcoTd/</t>
         </is>
       </c>
     </row>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
         <v>2</v>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Albacete</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
       <c r="J72" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.66</v>
+        <v>2.31</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:55</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.12</v>
+        <v>2.95</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:56</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.12</v>
+        <v>3.54</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.15</v>
+        <v>3.98</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:56</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-albacete/l6CO8rS8/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-huesca/2aDQmsjq/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.31</v>
+        <v>2.66</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:55</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>2.95</v>
+        <v>3.12</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>2.91</v>
+        <v>3</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:56</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.54</v>
+        <v>3.12</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.98</v>
+        <v>3.15</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:56</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-huesca/2aDQmsjq/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-albacete/l6CO8rS8/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,63 +7481,63 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.69</v>
+        <v>2.62</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.26</v>
+        <v>2.73</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>25/09/2023 20:59</t>
+          <t>25/09/2023 20:20</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.01</v>
+        <v>3.07</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="P77" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>25/09/2023 20:20</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
         <v>3.06</v>
       </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>25/09/2023 20:59</t>
-        </is>
-      </c>
-      <c r="R77" t="n">
-        <v>3</v>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>18/09/2023 11:42</t>
-        </is>
-      </c>
-      <c r="T77" t="n">
-        <v>3.85</v>
-      </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>25/09/2023 20:59</t>
+          <t>25/09/2023 20:20</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-zaragoza/YcUyouz2/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-espanyol/xUT0kfRm/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,63 +7573,63 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.62</v>
+        <v>2.69</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.73</v>
+        <v>2.26</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>25/09/2023 20:20</t>
+          <t>25/09/2023 20:59</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.07</v>
+        <v>3.01</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>2.99</v>
+        <v>3.06</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>25/09/2023 20:20</t>
+          <t>25/09/2023 20:59</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.02</v>
+        <v>3</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.06</v>
+        <v>3.85</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>25/09/2023 20:20</t>
+          <t>25/09/2023 20:59</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-espanyol/xUT0kfRm/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-zaragoza/YcUyouz2/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>1.96</v>
+        <v>2.51</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>23/09/2023 20:12</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.93</v>
+        <v>2.59</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
+          <t>30/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:46</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
           <t>30/09/2023 20:41</t>
         </is>
       </c>
-      <c r="N82" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P82" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:59</t>
-        </is>
-      </c>
-      <c r="R82" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T82" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:54</t>
-        </is>
-      </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.51</v>
+        <v>1.96</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.59</v>
+        <v>1.93</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>30/09/2023 20:40</t>
+          <t>30/09/2023 20:41</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.15</v>
+        <v>3.52</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>30/09/2023 20:46</t>
+          <t>30/09/2023 20:59</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.18</v>
+        <v>4.07</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>3.02</v>
+        <v>4.55</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>30/09/2023 20:41</t>
+          <t>30/09/2023 20:54</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.81</v>
+        <v>2.38</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.87</v>
+        <v>2.72</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 18:29</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.61</v>
+        <v>3.24</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.43</v>
+        <v>3.09</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 18:06</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.86</v>
+        <v>3.23</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.95</v>
+        <v>2.98</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 18:29</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-cartagena-sad/2yRCnhB6/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G86" t="n">
+        <v>3</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Mirandes</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
       <c r="J86" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.38</v>
+        <v>3.61</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.97</v>
+        <v>4.86</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.97</v>
+        <v>4.95</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,63 +8401,63 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.38</v>
+        <v>1.88</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.72</v>
+        <v>1.88</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:29</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.24</v>
+        <v>3.38</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.09</v>
+        <v>3.38</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:06</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.23</v>
+        <v>4.97</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.98</v>
+        <v>4.97</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:29</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-cartagena-sad/2yRCnhB6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
         </is>
       </c>
     </row>
@@ -9470,6 +9470,190 @@
       <c r="V98" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-eibar/dbCLFjug/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45204.89583333334</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>2</v>
+      </c>
+      <c r="J99" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>02/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>05/10/2023 21:28</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>02/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>05/10/2023 21:28</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>02/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>05/10/2023 21:26</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-espanyol/6TqabkAI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45204.89583333334</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Ferrol</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>02/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>05/10/2023 21:21</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>02/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>05/10/2023 21:28</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>02/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>05/10/2023 21:28</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-amorebieta/I7DHGWPn/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Espanyol</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>2</v>
-      </c>
       <c r="J99" t="n">
-        <v>4.05</v>
+        <v>1.74</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,48 +9520,48 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>3.73</v>
+        <v>1.71</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
+          <t>05/10/2023 21:21</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>02/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
           <t>05/10/2023 21:28</t>
         </is>
       </c>
-      <c r="N99" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O99" t="inlineStr">
+      <c r="R99" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="S99" t="inlineStr">
         <is>
           <t>02/10/2023 20:12</t>
         </is>
       </c>
-      <c r="P99" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q99" t="inlineStr">
+      <c r="T99" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="U99" t="inlineStr">
         <is>
           <t>05/10/2023 21:28</t>
         </is>
       </c>
-      <c r="R99" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>02/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T99" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>05/10/2023 21:26</t>
-        </is>
-      </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-espanyol/6TqabkAI/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-amorebieta/I7DHGWPn/</t>
         </is>
       </c>
     </row>
@@ -9589,71 +9589,163 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J100" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>02/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>05/10/2023 21:28</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>02/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>05/10/2023 21:28</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>02/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>05/10/2023 21:26</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-espanyol/6TqabkAI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45205.875</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Albacete</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>02/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>05/10/2023 21:21</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>02/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P100" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>05/10/2023 21:28</t>
-        </is>
-      </c>
-      <c r="R100" t="n">
-        <v>5.24</v>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>02/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T100" t="n">
-        <v>5.95</v>
-      </c>
-      <c r="U100" t="inlineStr">
-        <is>
-          <t>05/10/2023 21:28</t>
-        </is>
-      </c>
-      <c r="V100" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-amorebieta/I7DHGWPn/</t>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>2</v>
+      </c>
+      <c r="J101" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>03/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:52</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>03/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:57</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>03/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>06/10/2023 20:52</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-levante/AyoUB8vI/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:V104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5265,30 +5265,30 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>2.76</v>
+        <v>2.85</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>03/09/2023 17:43</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -5296,40 +5296,40 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.17</v>
+        <v>3.16</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>03/09/2023 17:43</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>2.96</v>
+        <v>3.12</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>10/09/2023 17:10</t>
+          <t>10/09/2023 17:08</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>03/09/2023 17:43</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.7</v>
+        <v>2.79</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>10/09/2023 18:22</t>
+          <t>10/09/2023 18:27</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-zaragoza/WfPlRpqT/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-fc-andorra/xUmOAStc/</t>
         </is>
       </c>
     </row>
@@ -5357,30 +5357,30 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>2.85</v>
+        <v>2.76</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 17:43</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5388,40 +5388,40 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.16</v>
+        <v>3.17</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 17:43</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.12</v>
+        <v>2.96</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>10/09/2023 17:08</t>
+          <t>10/09/2023 17:10</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 17:43</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.79</v>
+        <v>2.7</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>10/09/2023 18:27</t>
+          <t>10/09/2023 18:22</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-fc-andorra/xUmOAStc/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-zaragoza/WfPlRpqT/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.46</v>
+        <v>1.88</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.56</v>
+        <v>1.88</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:04</t>
+          <t>17/09/2023 18:28</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.23</v>
+        <v>3.33</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.04</v>
+        <v>3.31</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:26</t>
+          <t>17/09/2023 18:29</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>8.23</v>
+        <v>4.97</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>6.99</v>
+        <v>5.07</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:09</t>
+          <t>17/09/2023 18:29</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-eldense/IRyfg3SL/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-leganes/EZvwcoTd/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J65" t="n">
-        <v>1.88</v>
+        <v>1.46</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.88</v>
+        <v>1.56</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:28</t>
+          <t>17/09/2023 18:04</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.33</v>
+        <v>4.23</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.31</v>
+        <v>4.04</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:29</t>
+          <t>17/09/2023 18:26</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.97</v>
+        <v>8.23</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>5.07</v>
+        <v>6.99</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:29</t>
+          <t>17/09/2023 18:09</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-leganes/EZvwcoTd/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-eldense/IRyfg3SL/</t>
         </is>
       </c>
     </row>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.31</v>
+        <v>2.66</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:55</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>2.95</v>
+        <v>3.12</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>2.91</v>
+        <v>3</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:56</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.54</v>
+        <v>3.12</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.98</v>
+        <v>3.15</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:56</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-huesca/2aDQmsjq/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-albacete/l6CO8rS8/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
         <v>2</v>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Albacete</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
       <c r="J73" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.66</v>
+        <v>2.31</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:55</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.12</v>
+        <v>2.95</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:56</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.12</v>
+        <v>3.54</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.15</v>
+        <v>3.98</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:56</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-albacete/l6CO8rS8/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-huesca/2aDQmsjq/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,63 +7481,63 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.62</v>
+        <v>2.69</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.73</v>
+        <v>2.26</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>25/09/2023 20:20</t>
+          <t>25/09/2023 20:59</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.07</v>
+        <v>3.01</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>2.99</v>
+        <v>3.06</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>25/09/2023 20:20</t>
+          <t>25/09/2023 20:59</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.02</v>
+        <v>3</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.06</v>
+        <v>3.85</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>25/09/2023 20:20</t>
+          <t>25/09/2023 20:59</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-espanyol/xUT0kfRm/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-zaragoza/YcUyouz2/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,63 +7573,63 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.69</v>
+        <v>2.62</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.26</v>
+        <v>2.73</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>25/09/2023 20:59</t>
+          <t>25/09/2023 20:20</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.01</v>
+        <v>3.07</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="P78" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>25/09/2023 20:20</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
         <v>3.06</v>
       </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>25/09/2023 20:59</t>
-        </is>
-      </c>
-      <c r="R78" t="n">
-        <v>3</v>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>18/09/2023 11:42</t>
-        </is>
-      </c>
-      <c r="T78" t="n">
-        <v>3.85</v>
-      </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>25/09/2023 20:59</t>
+          <t>25/09/2023 20:20</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-zaragoza/YcUyouz2/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-espanyol/xUT0kfRm/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.51</v>
+        <v>1.96</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.59</v>
+        <v>1.93</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>30/09/2023 20:40</t>
+          <t>30/09/2023 20:41</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.15</v>
+        <v>3.52</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>30/09/2023 20:46</t>
+          <t>30/09/2023 20:59</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.18</v>
+        <v>4.07</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.02</v>
+        <v>4.55</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>30/09/2023 20:41</t>
+          <t>30/09/2023 20:54</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>1.96</v>
+        <v>2.51</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>23/09/2023 20:12</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.93</v>
+        <v>2.59</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
+          <t>30/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:46</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
           <t>30/09/2023 20:41</t>
         </is>
       </c>
-      <c r="N83" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P83" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:59</t>
-        </is>
-      </c>
-      <c r="R83" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T83" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:54</t>
-        </is>
-      </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>1.74</v>
+        <v>4.05</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.71</v>
+        <v>3.73</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>05/10/2023 21:21</t>
+          <t>05/10/2023 21:28</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.61</v>
+        <v>3.6</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.58</v>
+        <v>3.45</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         </is>
       </c>
       <c r="R99" t="n">
-        <v>5.24</v>
+        <v>1.94</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>5.95</v>
+        <v>2.13</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>05/10/2023 21:28</t>
+          <t>05/10/2023 21:26</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-amorebieta/I7DHGWPn/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-espanyol/6TqabkAI/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Espanyol</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
-        <v>2</v>
-      </c>
       <c r="J100" t="n">
-        <v>4.05</v>
+        <v>1.74</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,48 +9612,48 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>3.73</v>
+        <v>1.71</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
+          <t>05/10/2023 21:21</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>02/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
           <t>05/10/2023 21:28</t>
         </is>
       </c>
-      <c r="N100" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O100" t="inlineStr">
+      <c r="R100" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="S100" t="inlineStr">
         <is>
           <t>02/10/2023 20:12</t>
         </is>
       </c>
-      <c r="P100" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q100" t="inlineStr">
+      <c r="T100" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="U100" t="inlineStr">
         <is>
           <t>05/10/2023 21:28</t>
         </is>
       </c>
-      <c r="R100" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>02/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T100" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="U100" t="inlineStr">
-        <is>
-          <t>05/10/2023 21:26</t>
-        </is>
-      </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-espanyol/6TqabkAI/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-amorebieta/I7DHGWPn/</t>
         </is>
       </c>
     </row>
@@ -9746,6 +9746,282 @@
       <c r="V101" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/albacete-levante/AyoUB8vI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45206.67708333334</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>05/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:07</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>05/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>07/10/2023 15:54</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>05/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>07/10/2023 16:07</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/huesca-eldense/Ay7aRmv5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45206.77083333334</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>3</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>2</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:22</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:11</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>07/10/2023 18:22</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-gijon/rPFrVVvt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45206.875</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>R. Oviedo</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:51</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:57</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-r-oviedo/WjZxAn9U/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V104"/>
+  <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10025,6 +10025,98 @@
         </is>
       </c>
     </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45207.58333333334</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>2</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>05/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>05/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>05/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>08/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-eibar/h0zZASgO/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V105"/>
+  <dimension ref="A1:V109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2873,19 +2873,19 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
         <v>1.65</v>
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.6</v>
+        <v>2.11</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.54</v>
+        <v>3.69</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.12</v>
+        <v>3.19</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="R27" t="n">
-        <v>6.41</v>
+        <v>6.35</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>6.2</v>
+        <v>4.16</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-villarreal/xhbExxW6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-alcorcon/h25rKBVo/</t>
         </is>
       </c>
     </row>
@@ -2965,19 +2965,19 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Villarreal B</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Alcorcon</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>2</v>
       </c>
       <c r="J28" t="n">
         <v>1.65</v>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.11</v>
+        <v>1.6</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.69</v>
+        <v>3.54</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.19</v>
+        <v>4.12</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="R28" t="n">
-        <v>6.35</v>
+        <v>6.41</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.16</v>
+        <v>6.2</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-alcorcon/h25rKBVo/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-villarreal/xhbExxW6/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.43</v>
+        <v>1.68</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.54</v>
+        <v>1.83</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:25</t>
+          <t>03/09/2023 18:16</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4.54</v>
+        <v>3.54</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.99</v>
+        <v>3.28</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:28</t>
+          <t>03/09/2023 18:24</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>7.98</v>
+        <v>6.01</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>7.65</v>
+        <v>5.59</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:28</t>
+          <t>03/09/2023 18:16</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-amorebieta/6mvPWlFi/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-eldense/dxXyUnaA/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>2</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Eldense</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
       <c r="J44" t="n">
-        <v>1.68</v>
+        <v>1.43</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:16</t>
+          <t>03/09/2023 18:25</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.54</v>
+        <v>4.54</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.28</v>
+        <v>3.99</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:24</t>
+          <t>03/09/2023 18:28</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>6.01</v>
+        <v>7.98</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>5.59</v>
+        <v>7.65</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:16</t>
+          <t>03/09/2023 18:28</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-eldense/dxXyUnaA/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-amorebieta/6mvPWlFi/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>1.85</v>
+        <v>2.22</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.44</v>
+        <v>3.13</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>4.79</v>
+        <v>3.71</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>5.36</v>
+        <v>4.63</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-amorebieta/AucBrnE3/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-villarreal/lzCGM4ip/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.22</v>
+        <v>1.85</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.13</v>
+        <v>3.44</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.53</v>
+        <v>3.47</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.71</v>
+        <v>4.79</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.63</v>
+        <v>5.36</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-villarreal/lzCGM4ip/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-amorebieta/AucBrnE3/</t>
         </is>
       </c>
     </row>
@@ -5265,30 +5265,30 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>2.85</v>
+        <v>2.76</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 17:43</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -5296,40 +5296,40 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.16</v>
+        <v>3.17</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 17:43</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.12</v>
+        <v>2.96</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>10/09/2023 17:08</t>
+          <t>10/09/2023 17:10</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 17:43</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.79</v>
+        <v>2.7</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>10/09/2023 18:27</t>
+          <t>10/09/2023 18:22</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-fc-andorra/xUmOAStc/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-zaragoza/WfPlRpqT/</t>
         </is>
       </c>
     </row>
@@ -5357,30 +5357,30 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>2.76</v>
+        <v>2.85</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>03/09/2023 17:43</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5388,40 +5388,40 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.17</v>
+        <v>3.16</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>03/09/2023 17:43</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>2.96</v>
+        <v>3.12</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>10/09/2023 17:10</t>
+          <t>10/09/2023 17:08</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>03/09/2023 17:43</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.7</v>
+        <v>2.79</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>10/09/2023 18:22</t>
+          <t>10/09/2023 18:27</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-zaragoza/WfPlRpqT/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-fc-andorra/xUmOAStc/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>1.88</v>
+        <v>1.46</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.88</v>
+        <v>1.56</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:28</t>
+          <t>17/09/2023 18:04</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.33</v>
+        <v>4.23</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.31</v>
+        <v>4.04</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:29</t>
+          <t>17/09/2023 18:26</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.97</v>
+        <v>8.23</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>5.07</v>
+        <v>6.99</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:29</t>
+          <t>17/09/2023 18:09</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-leganes/EZvwcoTd/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-eldense/IRyfg3SL/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1.46</v>
+        <v>1.88</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.56</v>
+        <v>1.88</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:04</t>
+          <t>17/09/2023 18:28</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>4.23</v>
+        <v>3.33</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>4.04</v>
+        <v>3.31</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:26</t>
+          <t>17/09/2023 18:29</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>8.23</v>
+        <v>4.97</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>6.99</v>
+        <v>5.07</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:09</t>
+          <t>17/09/2023 18:29</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-eldense/IRyfg3SL/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-leganes/EZvwcoTd/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>1.96</v>
+        <v>2.51</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>23/09/2023 20:12</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.93</v>
+        <v>2.59</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
+          <t>30/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:46</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
           <t>30/09/2023 20:41</t>
         </is>
       </c>
-      <c r="N82" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P82" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:59</t>
-        </is>
-      </c>
-      <c r="R82" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T82" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:54</t>
-        </is>
-      </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.51</v>
+        <v>1.96</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.59</v>
+        <v>1.93</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>30/09/2023 20:40</t>
+          <t>30/09/2023 20:41</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.15</v>
+        <v>3.52</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>30/09/2023 20:46</t>
+          <t>30/09/2023 20:59</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.18</v>
+        <v>4.07</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>3.02</v>
+        <v>4.55</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>30/09/2023 20:41</t>
+          <t>30/09/2023 20:54</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Espanyol</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>2</v>
-      </c>
       <c r="J99" t="n">
-        <v>4.05</v>
+        <v>1.74</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,48 +9520,48 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>3.73</v>
+        <v>1.71</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
+          <t>05/10/2023 21:21</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>02/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
           <t>05/10/2023 21:28</t>
         </is>
       </c>
-      <c r="N99" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O99" t="inlineStr">
+      <c r="R99" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="S99" t="inlineStr">
         <is>
           <t>02/10/2023 20:12</t>
         </is>
       </c>
-      <c r="P99" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q99" t="inlineStr">
+      <c r="T99" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="U99" t="inlineStr">
         <is>
           <t>05/10/2023 21:28</t>
         </is>
       </c>
-      <c r="R99" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>02/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T99" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>05/10/2023 21:26</t>
-        </is>
-      </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-espanyol/6TqabkAI/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-amorebieta/I7DHGWPn/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>1.74</v>
+        <v>4.05</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1.71</v>
+        <v>3.73</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>05/10/2023 21:21</t>
+          <t>05/10/2023 21:28</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.61</v>
+        <v>3.6</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.58</v>
+        <v>3.45</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         </is>
       </c>
       <c r="R100" t="n">
-        <v>5.24</v>
+        <v>1.94</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>5.95</v>
+        <v>2.13</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>05/10/2023 21:28</t>
+          <t>05/10/2023 21:26</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-amorebieta/I7DHGWPn/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-espanyol/6TqabkAI/</t>
         </is>
       </c>
     </row>
@@ -10114,6 +10114,374 @@
       <c r="V105" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-eibar/h0zZASgO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45207.67708333334</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>3</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Mirandes</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>2</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>05/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:37</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>05/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:37</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>05/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>6.57</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>08/10/2023 15:37</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-mirandes/6308PR8H/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45207.77083333334</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Ferrol</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>05/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>05/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>05/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:28</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-fc-cartagena-sad/GE7eSTOb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45207.77083333334</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>2</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>1</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>04/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>08/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-burgos-cf/4v4iT99h/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45207.875</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Alcorcon</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>2</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>05/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:52</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>05/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:52</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>05/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:56</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-alcorcon/MFEnUkfn/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V109"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.22</v>
+        <v>1.85</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.13</v>
+        <v>3.44</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.53</v>
+        <v>3.47</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.71</v>
+        <v>4.79</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>4.63</v>
+        <v>5.36</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-villarreal/lzCGM4ip/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-amorebieta/AucBrnE3/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>1.85</v>
+        <v>2.22</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.44</v>
+        <v>3.13</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.79</v>
+        <v>3.71</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>5.36</v>
+        <v>4.63</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-amorebieta/AucBrnE3/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-villarreal/lzCGM4ip/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,63 +8217,63 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.38</v>
+        <v>1.88</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.72</v>
+        <v>1.88</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:29</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.24</v>
+        <v>3.38</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.09</v>
+        <v>3.38</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:06</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.23</v>
+        <v>4.97</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.98</v>
+        <v>4.97</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:29</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-cartagena-sad/2yRCnhB6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,63 +8401,63 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1.88</v>
+        <v>2.38</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.88</v>
+        <v>2.72</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:29</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.38</v>
+        <v>3.24</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.38</v>
+        <v>3.09</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:06</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.97</v>
+        <v>3.23</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>4.97</v>
+        <v>2.98</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:29</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-cartagena-sad/2yRCnhB6/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J97" t="n">
-        <v>2.21</v>
+        <v>3.33</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,48 +9336,48 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.57</v>
+        <v>4.05</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>05/10/2023 18:52</t>
+          <t>05/10/2023 18:57</t>
         </is>
       </c>
       <c r="N97" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
         <v>3.17</v>
       </c>
-      <c r="O97" t="inlineStr">
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>05/10/2023 18:53</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S97" t="inlineStr">
         <is>
           <t>01/10/2023 15:42</t>
         </is>
       </c>
-      <c r="P97" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>05/10/2023 18:52</t>
-        </is>
-      </c>
-      <c r="R97" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>01/10/2023 15:42</t>
-        </is>
-      </c>
       <c r="T97" t="n">
-        <v>3.23</v>
+        <v>2.15</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>05/10/2023 18:52</t>
+          <t>05/10/2023 18:57</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-zaragoza/69uu7ptM/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-eibar/dbCLFjug/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
         <v>1</v>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Eibar</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
-        <v>3</v>
-      </c>
       <c r="J98" t="n">
-        <v>3.33</v>
+        <v>2.21</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>4.05</v>
+        <v>2.57</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>05/10/2023 18:57</t>
+          <t>05/10/2023 18:52</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.15</v>
+        <v>3.17</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.17</v>
+        <v>3.05</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>05/10/2023 18:53</t>
+          <t>05/10/2023 18:52</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>2.42</v>
+        <v>3.79</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.15</v>
+        <v>3.23</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>05/10/2023 18:57</t>
+          <t>05/10/2023 18:52</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-eibar/dbCLFjug/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-zaragoza/69uu7ptM/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>1.74</v>
+        <v>4.05</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.71</v>
+        <v>3.73</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>05/10/2023 21:21</t>
+          <t>05/10/2023 21:28</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.61</v>
+        <v>3.6</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.58</v>
+        <v>3.45</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         </is>
       </c>
       <c r="R99" t="n">
-        <v>5.24</v>
+        <v>1.94</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>5.95</v>
+        <v>2.13</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>05/10/2023 21:28</t>
+          <t>05/10/2023 21:26</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-amorebieta/I7DHGWPn/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-espanyol/6TqabkAI/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Espanyol</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
-        <v>2</v>
-      </c>
       <c r="J100" t="n">
-        <v>4.05</v>
+        <v>1.74</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,48 +9612,48 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>3.73</v>
+        <v>1.71</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
+          <t>05/10/2023 21:21</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>02/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
           <t>05/10/2023 21:28</t>
         </is>
       </c>
-      <c r="N100" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O100" t="inlineStr">
+      <c r="R100" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="S100" t="inlineStr">
         <is>
           <t>02/10/2023 20:12</t>
         </is>
       </c>
-      <c r="P100" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q100" t="inlineStr">
+      <c r="T100" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="U100" t="inlineStr">
         <is>
           <t>05/10/2023 21:28</t>
         </is>
       </c>
-      <c r="R100" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>02/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T100" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="U100" t="inlineStr">
-        <is>
-          <t>05/10/2023 21:26</t>
-        </is>
-      </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-espanyol/6TqabkAI/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-amorebieta/I7DHGWPn/</t>
         </is>
       </c>
     </row>
@@ -10482,6 +10482,190 @@
       <c r="V109" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-alcorcon/MFEnUkfn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45208.79166666666</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>2</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Andorra</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>1</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>05/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>09/10/2023 18:17</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>05/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>09/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>05/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>09/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-fc-andorra/Iqqq64eS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45208.875</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Villarreal B</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>3</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>05/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>09/10/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>05/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>09/10/2023 20:55</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>05/10/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>09/10/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-espanyol/lS53Q7gB/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:V112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,63 +3985,63 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.37</v>
+        <v>1.65</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:56</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.33</v>
+        <v>3.82</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.47</v>
+        <v>3.51</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:52</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.15</v>
+        <v>5.66</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.75</v>
+        <v>4.46</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:59</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-cartagena-sad/2FXXUSq4/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-racing-santander/CWkCDRET/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,63 +4077,63 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>1.65</v>
+        <v>2.37</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:56</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.82</v>
+        <v>3.33</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.51</v>
+        <v>3.47</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:52</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>5.66</v>
+        <v>3.15</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.46</v>
+        <v>3.75</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:59</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-racing-santander/CWkCDRET/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-cartagena-sad/2FXXUSq4/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,63 +4905,63 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.93</v>
+        <v>2.22</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 13:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>09/09/2023 20:57</t>
+          <t>09/09/2023 20:47</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.25</v>
+        <v>3.18</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 13:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.12</v>
+        <v>3.18</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>09/09/2023 20:57</t>
+          <t>09/09/2023 20:47</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>4.86</v>
+        <v>3.64</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 13:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.58</v>
+        <v>4.07</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>09/09/2023 20:57</t>
+          <t>09/09/2023 20:47</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-huesca/pbkOupbM/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-albacete/2Fg3p8qi/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,63 +4997,63 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2.22</v>
+        <v>1.93</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>03/09/2023 13:12</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>09/09/2023 20:47</t>
+          <t>09/09/2023 20:57</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.18</v>
+        <v>3.25</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>03/09/2023 13:12</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.18</v>
+        <v>3.12</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>09/09/2023 20:47</t>
+          <t>09/09/2023 20:57</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.64</v>
+        <v>4.86</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>03/09/2023 13:12</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.07</v>
+        <v>4.58</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>09/09/2023 20:47</t>
+          <t>09/09/2023 20:57</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-albacete/2Fg3p8qi/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-huesca/pbkOupbM/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>1.85</v>
+        <v>2.22</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.44</v>
+        <v>3.13</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>4.79</v>
+        <v>3.71</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>5.36</v>
+        <v>4.63</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-amorebieta/AucBrnE3/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-villarreal/lzCGM4ip/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.22</v>
+        <v>1.85</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.13</v>
+        <v>3.44</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.53</v>
+        <v>3.47</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.71</v>
+        <v>4.79</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.63</v>
+        <v>5.36</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-villarreal/lzCGM4ip/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-amorebieta/AucBrnE3/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.46</v>
+        <v>1.88</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.56</v>
+        <v>1.88</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:04</t>
+          <t>17/09/2023 18:28</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.23</v>
+        <v>3.33</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.04</v>
+        <v>3.31</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:26</t>
+          <t>17/09/2023 18:29</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>8.23</v>
+        <v>4.97</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>6.99</v>
+        <v>5.07</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:09</t>
+          <t>17/09/2023 18:29</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-eldense/IRyfg3SL/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-leganes/EZvwcoTd/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J65" t="n">
-        <v>1.88</v>
+        <v>1.46</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.88</v>
+        <v>1.56</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:28</t>
+          <t>17/09/2023 18:04</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.33</v>
+        <v>4.23</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.31</v>
+        <v>4.04</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:29</t>
+          <t>17/09/2023 18:26</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.97</v>
+        <v>8.23</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>5.07</v>
+        <v>6.99</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:29</t>
+          <t>17/09/2023 18:09</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-leganes/EZvwcoTd/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-eldense/IRyfg3SL/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.51</v>
+        <v>1.96</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.59</v>
+        <v>1.93</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>30/09/2023 20:40</t>
+          <t>30/09/2023 20:41</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.15</v>
+        <v>3.52</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>30/09/2023 20:46</t>
+          <t>30/09/2023 20:59</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.18</v>
+        <v>4.07</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.02</v>
+        <v>4.55</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>30/09/2023 20:41</t>
+          <t>30/09/2023 20:54</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>1.96</v>
+        <v>2.51</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>23/09/2023 20:12</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.93</v>
+        <v>2.59</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
+          <t>30/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:46</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
           <t>30/09/2023 20:41</t>
         </is>
       </c>
-      <c r="N83" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P83" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:59</t>
-        </is>
-      </c>
-      <c r="R83" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T83" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:54</t>
-        </is>
-      </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>3</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Mirandes</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
       <c r="J85" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.38</v>
+        <v>3.61</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.97</v>
+        <v>4.86</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.97</v>
+        <v>4.95</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.61</v>
+        <v>3.38</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.86</v>
+        <v>4.97</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.95</v>
+        <v>4.97</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
         </is>
       </c>
     </row>
@@ -10666,6 +10666,98 @@
       <c r="V111" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-espanyol/lS53Q7gB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45212.875</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>R. Oviedo</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>3</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Albacete</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>13/10/2023 20:50</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>13/10/2023 20:57</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>07/10/2023 20:13</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>13/10/2023 20:50</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-albacete/rkRxu784/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V112"/>
+  <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>3</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>2</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Eldense</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
       <c r="J43" t="n">
-        <v>1.68</v>
+        <v>1.43</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:16</t>
+          <t>03/09/2023 18:25</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.54</v>
+        <v>4.54</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.28</v>
+        <v>3.99</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:24</t>
+          <t>03/09/2023 18:28</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>6.01</v>
+        <v>7.98</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>5.59</v>
+        <v>7.65</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:16</t>
+          <t>03/09/2023 18:28</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-eldense/dxXyUnaA/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-amorebieta/6mvPWlFi/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.43</v>
+        <v>1.68</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.54</v>
+        <v>1.83</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:25</t>
+          <t>03/09/2023 18:16</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>4.54</v>
+        <v>3.54</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.99</v>
+        <v>3.28</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:28</t>
+          <t>03/09/2023 18:24</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>7.98</v>
+        <v>6.01</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>7.65</v>
+        <v>5.59</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:28</t>
+          <t>03/09/2023 18:16</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-amorebieta/6mvPWlFi/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-eldense/dxXyUnaA/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Levante</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
       <c r="J59" t="n">
-        <v>3.14</v>
+        <v>1.93</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.46</v>
+        <v>1.78</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:29</t>
+          <t>16/09/2023 18:24</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.07</v>
+        <v>3.57</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2.96</v>
+        <v>3.71</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:28</t>
+          <t>16/09/2023 18:24</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.53</v>
+        <v>4.16</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.53</v>
+        <v>5.02</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:29</t>
+          <t>16/09/2023 18:27</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-levante/tUzfzOLq/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-fc-cartagena-sad/lhXkfqDF/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.93</v>
+        <v>3.14</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.78</v>
+        <v>2.46</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:24</t>
+          <t>16/09/2023 18:29</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.57</v>
+        <v>3.07</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.71</v>
+        <v>2.96</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:24</t>
+          <t>16/09/2023 18:28</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.16</v>
+        <v>2.53</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>5.02</v>
+        <v>3.53</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:27</t>
+          <t>16/09/2023 18:29</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-fc-cartagena-sad/lhXkfqDF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-levante/tUzfzOLq/</t>
         </is>
       </c>
     </row>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
         <v>2</v>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Albacete</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
       <c r="J72" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.66</v>
+        <v>2.31</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:55</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.12</v>
+        <v>2.95</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:56</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.12</v>
+        <v>3.54</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.15</v>
+        <v>3.98</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:56</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-albacete/l6CO8rS8/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-huesca/2aDQmsjq/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.31</v>
+        <v>2.66</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:55</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>2.95</v>
+        <v>3.12</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>2.91</v>
+        <v>3</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:56</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.54</v>
+        <v>3.12</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.98</v>
+        <v>3.15</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:56</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-huesca/2aDQmsjq/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-albacete/l6CO8rS8/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>1.96</v>
+        <v>2.51</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>23/09/2023 20:12</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.93</v>
+        <v>2.59</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
+          <t>30/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:46</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
           <t>30/09/2023 20:41</t>
         </is>
       </c>
-      <c r="N82" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P82" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:59</t>
-        </is>
-      </c>
-      <c r="R82" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T82" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:54</t>
-        </is>
-      </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.51</v>
+        <v>1.96</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.59</v>
+        <v>1.93</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>30/09/2023 20:40</t>
+          <t>30/09/2023 20:41</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.15</v>
+        <v>3.52</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>30/09/2023 20:46</t>
+          <t>30/09/2023 20:59</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.18</v>
+        <v>4.07</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>3.02</v>
+        <v>4.55</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>30/09/2023 20:41</t>
+          <t>30/09/2023 20:54</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.61</v>
+        <v>3.38</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.86</v>
+        <v>4.97</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.95</v>
+        <v>4.97</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G86" t="n">
+        <v>3</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Mirandes</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
       <c r="J86" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.38</v>
+        <v>3.61</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.97</v>
+        <v>4.86</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.97</v>
+        <v>4.95</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
         </is>
       </c>
     </row>
@@ -10758,6 +10758,374 @@
       <c r="V112" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-albacete/rkRxu784/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45213.67708333334</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Mirandes</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>1</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>14/10/2023 16:13</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>14/10/2023 16:10</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>14/10/2023 16:13</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-tenerife/dYSUtTwh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45213.77083333334</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>2</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>3</v>
+      </c>
+      <c r="J114" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>14/10/2023 18:22</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>14/10/2023 18:22</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>14/10/2023 18:26</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-racing-santander/vHbGN5wU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45213.77083333334</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>2</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>2</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>14/10/2023 18:21</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>14/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>14/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-zaragoza/4bSYumgb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45213.875</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>2</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>09/10/2023 20:11</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>14/10/2023 20:57</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>09/10/2023 20:11</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>14/10/2023 20:57</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>09/10/2023 20:11</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>14/10/2023 20:57</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-valladolid/IsUQs9Oo/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V116"/>
+  <dimension ref="A1:V117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11129,6 +11129,98 @@
         </is>
       </c>
     </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45214.58333333334</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>3</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Villarreal B</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>2</v>
+      </c>
+      <c r="J117" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>09/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>15/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>09/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>15/10/2023 13:32</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>09/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>15/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-villarreal/pfaCOoON/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V117"/>
+  <dimension ref="A1:V121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,63 +3985,63 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>1.65</v>
+        <v>2.37</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:56</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.82</v>
+        <v>3.33</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.51</v>
+        <v>3.47</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:52</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>5.66</v>
+        <v>3.15</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.46</v>
+        <v>3.75</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:59</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-racing-santander/CWkCDRET/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-cartagena-sad/2FXXUSq4/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,63 +4077,63 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.37</v>
+        <v>1.65</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:56</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.33</v>
+        <v>3.82</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.47</v>
+        <v>3.51</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:52</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.15</v>
+        <v>5.66</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.75</v>
+        <v>4.46</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:59</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-cartagena-sad/2FXXUSq4/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-racing-santander/CWkCDRET/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.43</v>
+        <v>1.68</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.54</v>
+        <v>1.83</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:25</t>
+          <t>03/09/2023 18:16</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4.54</v>
+        <v>3.54</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.99</v>
+        <v>3.28</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:28</t>
+          <t>03/09/2023 18:24</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>7.98</v>
+        <v>6.01</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>7.65</v>
+        <v>5.59</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:28</t>
+          <t>03/09/2023 18:16</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-amorebieta/6mvPWlFi/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-eldense/dxXyUnaA/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>2</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Eldense</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
       <c r="J44" t="n">
-        <v>1.68</v>
+        <v>1.43</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:16</t>
+          <t>03/09/2023 18:25</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.54</v>
+        <v>4.54</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.28</v>
+        <v>3.99</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:24</t>
+          <t>03/09/2023 18:28</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>6.01</v>
+        <v>7.98</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>5.59</v>
+        <v>7.65</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:16</t>
+          <t>03/09/2023 18:28</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-eldense/dxXyUnaA/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-amorebieta/6mvPWlFi/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,63 +4905,63 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2.22</v>
+        <v>1.93</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>03/09/2023 13:12</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>09/09/2023 20:47</t>
+          <t>09/09/2023 20:57</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.18</v>
+        <v>3.25</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>03/09/2023 13:12</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.18</v>
+        <v>3.12</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>09/09/2023 20:47</t>
+          <t>09/09/2023 20:57</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.64</v>
+        <v>4.86</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>03/09/2023 13:12</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.07</v>
+        <v>4.58</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>09/09/2023 20:47</t>
+          <t>09/09/2023 20:57</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-albacete/2Fg3p8qi/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-huesca/pbkOupbM/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,63 +4997,63 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.93</v>
+        <v>2.22</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 13:12</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>09/09/2023 20:57</t>
+          <t>09/09/2023 20:47</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.25</v>
+        <v>3.18</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 13:12</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.12</v>
+        <v>3.18</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>09/09/2023 20:57</t>
+          <t>09/09/2023 20:47</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>4.86</v>
+        <v>3.64</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 13:12</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.58</v>
+        <v>4.07</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>09/09/2023 20:57</t>
+          <t>09/09/2023 20:47</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-huesca/pbkOupbM/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-albacete/2Fg3p8qi/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>1.93</v>
+        <v>3.14</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.78</v>
+        <v>2.46</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:24</t>
+          <t>16/09/2023 18:29</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.57</v>
+        <v>3.07</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.71</v>
+        <v>2.96</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:24</t>
+          <t>16/09/2023 18:28</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4.16</v>
+        <v>2.53</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>5.02</v>
+        <v>3.53</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:27</t>
+          <t>16/09/2023 18:29</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-fc-cartagena-sad/lhXkfqDF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-levante/tUzfzOLq/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Levante</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>2</v>
-      </c>
       <c r="J60" t="n">
-        <v>3.14</v>
+        <v>1.93</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.46</v>
+        <v>1.78</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:29</t>
+          <t>16/09/2023 18:24</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.07</v>
+        <v>3.57</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>2.96</v>
+        <v>3.71</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:28</t>
+          <t>16/09/2023 18:24</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.53</v>
+        <v>4.16</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.53</v>
+        <v>5.02</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:29</t>
+          <t>16/09/2023 18:27</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-levante/tUzfzOLq/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-fc-cartagena-sad/lhXkfqDF/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.51</v>
+        <v>1.96</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.59</v>
+        <v>1.93</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>30/09/2023 20:40</t>
+          <t>30/09/2023 20:41</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.15</v>
+        <v>3.52</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>30/09/2023 20:46</t>
+          <t>30/09/2023 20:59</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.18</v>
+        <v>4.07</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.02</v>
+        <v>4.55</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>30/09/2023 20:41</t>
+          <t>30/09/2023 20:54</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>1.96</v>
+        <v>2.51</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>23/09/2023 20:12</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.93</v>
+        <v>2.59</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
+          <t>30/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:46</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
           <t>30/09/2023 20:41</t>
         </is>
       </c>
-      <c r="N83" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P83" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:59</t>
-        </is>
-      </c>
-      <c r="R83" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T83" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:54</t>
-        </is>
-      </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,63 +8217,63 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.88</v>
+        <v>2.38</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.88</v>
+        <v>2.72</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:29</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.38</v>
+        <v>3.24</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.38</v>
+        <v>3.09</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:06</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.97</v>
+        <v>3.23</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.97</v>
+        <v>2.98</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:29</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-cartagena-sad/2yRCnhB6/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,63 +8401,63 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.38</v>
+        <v>1.88</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.72</v>
+        <v>1.88</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:29</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.24</v>
+        <v>3.38</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.09</v>
+        <v>3.38</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:06</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.23</v>
+        <v>4.97</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.98</v>
+        <v>4.97</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:29</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-cartagena-sad/2yRCnhB6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
         <v>1</v>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Eibar</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
-        <v>3</v>
-      </c>
       <c r="J97" t="n">
-        <v>3.33</v>
+        <v>2.21</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>4.05</v>
+        <v>2.57</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>05/10/2023 18:57</t>
+          <t>05/10/2023 18:52</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.15</v>
+        <v>3.17</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.17</v>
+        <v>3.05</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>05/10/2023 18:53</t>
+          <t>05/10/2023 18:52</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>2.42</v>
+        <v>3.79</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2.15</v>
+        <v>3.23</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>05/10/2023 18:57</t>
+          <t>05/10/2023 18:52</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-eibar/dbCLFjug/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-zaragoza/69uu7ptM/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J98" t="n">
-        <v>2.21</v>
+        <v>3.33</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,48 +9428,48 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.57</v>
+        <v>4.05</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>05/10/2023 18:52</t>
+          <t>05/10/2023 18:57</t>
         </is>
       </c>
       <c r="N98" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
         <v>3.17</v>
       </c>
-      <c r="O98" t="inlineStr">
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>05/10/2023 18:53</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S98" t="inlineStr">
         <is>
           <t>01/10/2023 15:42</t>
         </is>
       </c>
-      <c r="P98" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>05/10/2023 18:52</t>
-        </is>
-      </c>
-      <c r="R98" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>01/10/2023 15:42</t>
-        </is>
-      </c>
       <c r="T98" t="n">
-        <v>3.23</v>
+        <v>2.15</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>05/10/2023 18:52</t>
+          <t>05/10/2023 18:57</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-zaragoza/69uu7ptM/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-eibar/dbCLFjug/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Espanyol</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>2</v>
-      </c>
       <c r="J99" t="n">
-        <v>4.05</v>
+        <v>1.74</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,48 +9520,48 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>3.73</v>
+        <v>1.71</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
+          <t>05/10/2023 21:21</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>02/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
           <t>05/10/2023 21:28</t>
         </is>
       </c>
-      <c r="N99" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O99" t="inlineStr">
+      <c r="R99" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="S99" t="inlineStr">
         <is>
           <t>02/10/2023 20:12</t>
         </is>
       </c>
-      <c r="P99" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q99" t="inlineStr">
+      <c r="T99" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="U99" t="inlineStr">
         <is>
           <t>05/10/2023 21:28</t>
         </is>
       </c>
-      <c r="R99" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>02/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T99" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>05/10/2023 21:26</t>
-        </is>
-      </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-espanyol/6TqabkAI/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-amorebieta/I7DHGWPn/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>1.74</v>
+        <v>4.05</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1.71</v>
+        <v>3.73</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>05/10/2023 21:21</t>
+          <t>05/10/2023 21:28</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.61</v>
+        <v>3.6</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.58</v>
+        <v>3.45</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         </is>
       </c>
       <c r="R100" t="n">
-        <v>5.24</v>
+        <v>1.94</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>5.95</v>
+        <v>2.13</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>05/10/2023 21:28</t>
+          <t>05/10/2023 21:26</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-amorebieta/I7DHGWPn/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-espanyol/6TqabkAI/</t>
         </is>
       </c>
     </row>
@@ -11218,6 +11218,374 @@
       <c r="V117" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-villarreal/pfaCOoON/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45214.67708333334</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>09/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>15/10/2023 16:14</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>09/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>15/10/2023 16:10</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>09/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>15/10/2023 16:14</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-elche/vHKowowH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45214.67708333334</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Andorra</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>2</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Alcorcon</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>09/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>15/10/2023 16:14</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>09/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>15/10/2023 16:09</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>09/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>15/10/2023 16:14</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-alcorcon/zPVA1O3q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45214.77083333334</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>1</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>15/10/2023 18:22</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>15/10/2023 18:22</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>7.53</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>15/10/2023 18:24</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eibar-huesca/GxjrJPoo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45214.77083333334</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>6</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>09/10/2023 11:11</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>15/10/2023 18:23</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>09/10/2023 11:11</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>15/10/2023 18:23</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>09/10/2023 11:11</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>15/10/2023 18:23</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-amorebieta/QDGsvRNA/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V121"/>
+  <dimension ref="A1:V122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,63 +3985,63 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.37</v>
+        <v>1.65</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:56</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.33</v>
+        <v>3.82</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.47</v>
+        <v>3.51</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:52</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.15</v>
+        <v>5.66</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.75</v>
+        <v>4.46</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:59</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-cartagena-sad/2FXXUSq4/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-racing-santander/CWkCDRET/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,63 +4077,63 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>1.65</v>
+        <v>2.37</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:56</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.82</v>
+        <v>3.33</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.51</v>
+        <v>3.47</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:52</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>5.66</v>
+        <v>3.15</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.46</v>
+        <v>3.75</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:59</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-racing-santander/CWkCDRET/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-cartagena-sad/2FXXUSq4/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>3</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>2</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Eldense</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
       <c r="J43" t="n">
-        <v>1.68</v>
+        <v>1.43</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:16</t>
+          <t>03/09/2023 18:25</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.54</v>
+        <v>4.54</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.28</v>
+        <v>3.99</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:24</t>
+          <t>03/09/2023 18:28</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>6.01</v>
+        <v>7.98</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>5.59</v>
+        <v>7.65</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:16</t>
+          <t>03/09/2023 18:28</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-eldense/dxXyUnaA/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-amorebieta/6mvPWlFi/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.43</v>
+        <v>1.68</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.54</v>
+        <v>1.83</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:25</t>
+          <t>03/09/2023 18:16</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>4.54</v>
+        <v>3.54</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.99</v>
+        <v>3.28</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:28</t>
+          <t>03/09/2023 18:24</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>7.98</v>
+        <v>6.01</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>7.65</v>
+        <v>5.59</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:28</t>
+          <t>03/09/2023 18:16</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-amorebieta/6mvPWlFi/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-eldense/dxXyUnaA/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,63 +4905,63 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.93</v>
+        <v>2.22</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 13:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>09/09/2023 20:57</t>
+          <t>09/09/2023 20:47</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.25</v>
+        <v>3.18</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 13:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.12</v>
+        <v>3.18</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>09/09/2023 20:57</t>
+          <t>09/09/2023 20:47</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>4.86</v>
+        <v>3.64</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 13:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.58</v>
+        <v>4.07</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>09/09/2023 20:57</t>
+          <t>09/09/2023 20:47</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-huesca/pbkOupbM/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-albacete/2Fg3p8qi/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,63 +4997,63 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2.22</v>
+        <v>1.93</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>03/09/2023 13:12</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>09/09/2023 20:47</t>
+          <t>09/09/2023 20:57</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.18</v>
+        <v>3.25</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>03/09/2023 13:12</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.18</v>
+        <v>3.12</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>09/09/2023 20:47</t>
+          <t>09/09/2023 20:57</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.64</v>
+        <v>4.86</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>03/09/2023 13:12</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.07</v>
+        <v>4.58</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>09/09/2023 20:47</t>
+          <t>09/09/2023 20:57</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-albacete/2Fg3p8qi/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-huesca/pbkOupbM/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,63 +7481,63 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.69</v>
+        <v>2.62</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.26</v>
+        <v>2.73</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>25/09/2023 20:59</t>
+          <t>25/09/2023 20:20</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.01</v>
+        <v>3.07</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="P77" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>25/09/2023 20:20</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
         <v>3.06</v>
       </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>25/09/2023 20:59</t>
-        </is>
-      </c>
-      <c r="R77" t="n">
-        <v>3</v>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>18/09/2023 11:42</t>
-        </is>
-      </c>
-      <c r="T77" t="n">
-        <v>3.85</v>
-      </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>25/09/2023 20:59</t>
+          <t>25/09/2023 20:20</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-zaragoza/YcUyouz2/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-espanyol/xUT0kfRm/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,63 +7573,63 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.62</v>
+        <v>2.69</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.73</v>
+        <v>2.26</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>25/09/2023 20:20</t>
+          <t>25/09/2023 20:59</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.07</v>
+        <v>3.01</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>2.99</v>
+        <v>3.06</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>25/09/2023 20:20</t>
+          <t>25/09/2023 20:59</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.02</v>
+        <v>3</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.06</v>
+        <v>3.85</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>25/09/2023 20:20</t>
+          <t>25/09/2023 20:59</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-espanyol/xUT0kfRm/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-zaragoza/YcUyouz2/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>1.74</v>
+        <v>4.05</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.71</v>
+        <v>3.73</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>05/10/2023 21:21</t>
+          <t>05/10/2023 21:28</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.61</v>
+        <v>3.6</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.58</v>
+        <v>3.45</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         </is>
       </c>
       <c r="R99" t="n">
-        <v>5.24</v>
+        <v>1.94</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>5.95</v>
+        <v>2.13</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>05/10/2023 21:28</t>
+          <t>05/10/2023 21:26</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-amorebieta/I7DHGWPn/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-espanyol/6TqabkAI/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Espanyol</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
-        <v>2</v>
-      </c>
       <c r="J100" t="n">
-        <v>4.05</v>
+        <v>1.74</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,48 +9612,48 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>3.73</v>
+        <v>1.71</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
+          <t>05/10/2023 21:21</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>02/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
           <t>05/10/2023 21:28</t>
         </is>
       </c>
-      <c r="N100" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O100" t="inlineStr">
+      <c r="R100" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="S100" t="inlineStr">
         <is>
           <t>02/10/2023 20:12</t>
         </is>
       </c>
-      <c r="P100" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q100" t="inlineStr">
+      <c r="T100" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="U100" t="inlineStr">
         <is>
           <t>05/10/2023 21:28</t>
         </is>
       </c>
-      <c r="R100" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>02/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T100" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="U100" t="inlineStr">
-        <is>
-          <t>05/10/2023 21:26</t>
-        </is>
-      </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-espanyol/6TqabkAI/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-amorebieta/I7DHGWPn/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>05/10/2023 20:42</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>08/10/2023 18:28</t>
+          <t>08/10/2023 18:29</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.51</v>
+        <v>3.35</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>05/10/2023 20:42</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.32</v>
+        <v>3.21</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>08/10/2023 18:28</t>
+          <t>08/10/2023 18:29</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>4.24</v>
+        <v>4.99</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>05/10/2023 20:42</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>4.98</v>
+        <v>5.81</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>08/10/2023 18:28</t>
+          <t>08/10/2023 18:29</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-fc-cartagena-sad/GE7eSTOb/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-burgos-cf/4v4iT99h/</t>
         </is>
       </c>
     </row>
@@ -10325,71 +10325,71 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>05/10/2023 20:42</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>08/10/2023 18:29</t>
+          <t>08/10/2023 18:28</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.35</v>
+        <v>3.51</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>05/10/2023 20:42</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.21</v>
+        <v>3.32</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>08/10/2023 18:29</t>
+          <t>08/10/2023 18:28</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>4.99</v>
+        <v>4.24</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>05/10/2023 20:42</t>
         </is>
       </c>
       <c r="T108" t="n">
-        <v>5.81</v>
+        <v>4.98</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>08/10/2023 18:29</t>
+          <t>08/10/2023 18:28</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-burgos-cf/4v4iT99h/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-fc-cartagena-sad/GE7eSTOb/</t>
         </is>
       </c>
     </row>
@@ -11586,6 +11586,98 @@
       <c r="V121" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/leganes-amorebieta/QDGsvRNA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45215.875</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Ferrol</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>09/10/2023 11:11</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>16/10/2023 20:57</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>09/10/2023 11:11</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>16/10/2023 20:57</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>4.69</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>09/10/2023 11:11</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>16/10/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/levante-ferrol/WCrFLI7q/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V122"/>
+  <dimension ref="A1:V123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8945,62 +8945,62 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Valladolid</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
       <c r="J93" t="n">
-        <v>2.92</v>
+        <v>2.17</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>3.61</v>
+        <v>1.85</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>04/10/2023 18:59</t>
+          <t>04/10/2023 18:54</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.21</v>
+        <v>3.1</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.32</v>
+        <v>3.15</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>04/10/2023 18:17</t>
+          <t>04/10/2023 18:55</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.6</v>
+        <v>3.92</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.23</v>
+        <v>5.82</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-valladolid/pKr3c9PO/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-huesca/2BsMDU95/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>1</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Huesca</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
       <c r="J94" t="n">
-        <v>2.17</v>
+        <v>2.92</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.85</v>
+        <v>3.61</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>04/10/2023 18:54</t>
+          <t>04/10/2023 18:59</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.1</v>
+        <v>3.21</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.15</v>
+        <v>3.32</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
+          <t>04/10/2023 18:17</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
           <t>04/10/2023 18:55</t>
         </is>
       </c>
-      <c r="R94" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>01/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T94" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>04/10/2023 18:55</t>
-        </is>
-      </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-huesca/2BsMDU95/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-valladolid/pKr3c9PO/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>05/10/2023 20:42</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>08/10/2023 18:29</t>
+          <t>08/10/2023 18:28</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.35</v>
+        <v>3.51</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>05/10/2023 20:42</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.21</v>
+        <v>3.32</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>08/10/2023 18:29</t>
+          <t>08/10/2023 18:28</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>4.99</v>
+        <v>4.24</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>05/10/2023 20:42</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>5.81</v>
+        <v>4.98</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>08/10/2023 18:29</t>
+          <t>08/10/2023 18:28</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-burgos-cf/4v4iT99h/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-fc-cartagena-sad/GE7eSTOb/</t>
         </is>
       </c>
     </row>
@@ -10325,71 +10325,71 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>05/10/2023 20:42</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>08/10/2023 18:28</t>
+          <t>08/10/2023 18:29</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.51</v>
+        <v>3.35</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>05/10/2023 20:42</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.32</v>
+        <v>3.21</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>08/10/2023 18:28</t>
+          <t>08/10/2023 18:29</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>4.24</v>
+        <v>4.99</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>05/10/2023 20:42</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="T108" t="n">
-        <v>4.98</v>
+        <v>5.81</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>08/10/2023 18:28</t>
+          <t>08/10/2023 18:29</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-fc-cartagena-sad/GE7eSTOb/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-burgos-cf/4v4iT99h/</t>
         </is>
       </c>
     </row>
@@ -11678,6 +11678,98 @@
       <c r="V122" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/levante-ferrol/WCrFLI7q/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45219.875</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:56</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:56</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>6.67</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>20/10/2023 20:56</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-leganes/KYO9s0U2/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V123"/>
+  <dimension ref="A1:V127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>3.24</v>
+        <v>3.23</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>3.18</v>
+        <v>3.54</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>2.97</v>
+        <v>3.11</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.02</v>
+        <v>3.12</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.54</v>
+        <v>2.49</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.62</v>
+        <v>2.35</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-andorra/ML5ymPlj/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-espanyol/QF3jIk0b/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Andorra</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Espanyol</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
       <c r="J31" t="n">
-        <v>3.23</v>
+        <v>3.24</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3.54</v>
+        <v>3.18</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.11</v>
+        <v>2.97</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.12</v>
+        <v>3.02</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.49</v>
+        <v>2.54</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.35</v>
+        <v>2.62</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-espanyol/QF3jIk0b/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-andorra/ML5ymPlj/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>1.88</v>
+        <v>1.46</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.88</v>
+        <v>1.56</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:28</t>
+          <t>17/09/2023 18:04</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.33</v>
+        <v>4.23</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.31</v>
+        <v>4.04</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:29</t>
+          <t>17/09/2023 18:26</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.97</v>
+        <v>8.23</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>5.07</v>
+        <v>6.99</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:29</t>
+          <t>17/09/2023 18:09</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-leganes/EZvwcoTd/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-eldense/IRyfg3SL/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1.46</v>
+        <v>1.88</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.56</v>
+        <v>1.88</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:04</t>
+          <t>17/09/2023 18:28</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>4.23</v>
+        <v>3.33</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>4.04</v>
+        <v>3.31</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:26</t>
+          <t>17/09/2023 18:29</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>8.23</v>
+        <v>4.97</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>6.99</v>
+        <v>5.07</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:09</t>
+          <t>17/09/2023 18:29</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-eldense/IRyfg3SL/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-leganes/EZvwcoTd/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,63 +7481,63 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.62</v>
+        <v>2.69</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.73</v>
+        <v>2.26</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>25/09/2023 20:20</t>
+          <t>25/09/2023 20:59</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.07</v>
+        <v>3.01</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>2.99</v>
+        <v>3.06</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>25/09/2023 20:20</t>
+          <t>25/09/2023 20:59</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.02</v>
+        <v>3</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.06</v>
+        <v>3.85</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>25/09/2023 20:20</t>
+          <t>25/09/2023 20:59</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-espanyol/xUT0kfRm/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-zaragoza/YcUyouz2/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,63 +7573,63 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.69</v>
+        <v>2.62</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.26</v>
+        <v>2.73</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>25/09/2023 20:59</t>
+          <t>25/09/2023 20:20</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.01</v>
+        <v>3.07</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="P78" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>25/09/2023 20:20</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
         <v>3.06</v>
       </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>25/09/2023 20:59</t>
-        </is>
-      </c>
-      <c r="R78" t="n">
-        <v>3</v>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>18/09/2023 11:42</t>
-        </is>
-      </c>
-      <c r="T78" t="n">
-        <v>3.85</v>
-      </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>25/09/2023 20:59</t>
+          <t>25/09/2023 20:20</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-zaragoza/YcUyouz2/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-espanyol/xUT0kfRm/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>1.96</v>
+        <v>2.51</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>23/09/2023 20:12</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.93</v>
+        <v>2.59</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
+          <t>30/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:46</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
           <t>30/09/2023 20:41</t>
         </is>
       </c>
-      <c r="N82" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P82" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:59</t>
-        </is>
-      </c>
-      <c r="R82" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T82" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:54</t>
-        </is>
-      </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.51</v>
+        <v>1.96</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.59</v>
+        <v>1.93</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>30/09/2023 20:40</t>
+          <t>30/09/2023 20:41</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.15</v>
+        <v>3.52</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>30/09/2023 20:46</t>
+          <t>30/09/2023 20:59</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.18</v>
+        <v>4.07</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>3.02</v>
+        <v>4.55</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>30/09/2023 20:41</t>
+          <t>30/09/2023 20:54</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
         </is>
       </c>
     </row>
@@ -8945,71 +8945,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
         <v>1</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Huesca</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
       <c r="J93" t="n">
-        <v>2.17</v>
+        <v>2.92</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.85</v>
+        <v>3.61</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>04/10/2023 18:54</t>
+          <t>04/10/2023 18:59</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.1</v>
+        <v>3.21</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.15</v>
+        <v>3.32</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
+          <t>04/10/2023 18:17</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
           <t>04/10/2023 18:55</t>
         </is>
       </c>
-      <c r="R93" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>01/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T93" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>04/10/2023 18:55</t>
-        </is>
-      </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-huesca/2BsMDU95/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-valladolid/pKr3c9PO/</t>
         </is>
       </c>
     </row>
@@ -9037,62 +9037,62 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Valladolid</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
       <c r="J94" t="n">
-        <v>2.92</v>
+        <v>2.17</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>3.61</v>
+        <v>1.85</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>04/10/2023 18:59</t>
+          <t>04/10/2023 18:54</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.21</v>
+        <v>3.1</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.32</v>
+        <v>3.15</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>04/10/2023 18:17</t>
+          <t>04/10/2023 18:55</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.6</v>
+        <v>3.92</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.23</v>
+        <v>5.82</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-valladolid/pKr3c9PO/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-huesca/2BsMDU95/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2.23</v>
+        <v>2.47</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.29</v>
+        <v>2.39</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>04/10/2023 21:28</t>
+          <t>04/10/2023 21:26</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.14</v>
+        <v>3.29</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>2.9</v>
+        <v>3.09</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>04/10/2023 21:28</t>
+          <t>04/10/2023 21:26</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.68</v>
+        <v>3.1</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>4.04</v>
+        <v>3.5</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>04/10/2023 21:29</t>
+          <t>04/10/2023 21:26</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-leganes/xfueaVfC/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-elche/OKrIEAfa/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2.47</v>
+        <v>2.23</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.39</v>
+        <v>2.29</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>04/10/2023 21:26</t>
+          <t>04/10/2023 21:28</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.29</v>
+        <v>3.14</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.09</v>
+        <v>2.9</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>04/10/2023 21:26</t>
+          <t>04/10/2023 21:28</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.1</v>
+        <v>3.68</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.5</v>
+        <v>4.04</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>04/10/2023 21:26</t>
+          <t>04/10/2023 21:29</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-elche/OKrIEAfa/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-leganes/xfueaVfC/</t>
         </is>
       </c>
     </row>
@@ -11770,6 +11770,374 @@
       <c r="V123" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-leganes/KYO9s0U2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45220.67708333334</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Villarreal B</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Mirandes</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>3</v>
+      </c>
+      <c r="J124" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>15/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:56</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>15/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>15/10/2023 13:12</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:00</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-mirandes/htCdYeik/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45220.67708333334</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>R. Oviedo</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:13</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>21/10/2023 15:53</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>21/10/2023 16:13</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-r-oviedo/6VzSIGi2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45220.77083333334</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>15/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>15/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:18</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>15/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>21/10/2023 18:28</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-levante/AHMiZyxq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45220.875</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>2</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>3</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:52</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:52</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>21/10/2023 20:52</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-eibar/0rXHuvaF/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V127"/>
+  <dimension ref="A1:V133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3149,22 +3149,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Andorra</t>
+        </is>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Espanyol</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>1</v>
-      </c>
       <c r="J30" t="n">
-        <v>3.23</v>
+        <v>3.24</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>3.54</v>
+        <v>3.18</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.11</v>
+        <v>2.97</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.12</v>
+        <v>3.02</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.49</v>
+        <v>2.54</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.35</v>
+        <v>2.62</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-espanyol/QF3jIk0b/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-andorra/ML5ymPlj/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>3.24</v>
+        <v>3.23</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,7 +3264,7 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>3.18</v>
+        <v>3.54</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="N31" t="n">
-        <v>2.97</v>
+        <v>3.11</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,7 +3280,7 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.02</v>
+        <v>3.12</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3288,7 +3288,7 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.54</v>
+        <v>2.49</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.62</v>
+        <v>2.35</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
@@ -3305,7 +3305,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-andorra/ML5ymPlj/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-espanyol/QF3jIk0b/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,63 +4905,63 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2.22</v>
+        <v>1.93</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>03/09/2023 13:12</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>09/09/2023 20:47</t>
+          <t>09/09/2023 20:57</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.18</v>
+        <v>3.25</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>03/09/2023 13:12</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.18</v>
+        <v>3.12</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>09/09/2023 20:47</t>
+          <t>09/09/2023 20:57</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.64</v>
+        <v>4.86</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>03/09/2023 13:12</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.07</v>
+        <v>4.58</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>09/09/2023 20:47</t>
+          <t>09/09/2023 20:57</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-albacete/2Fg3p8qi/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-huesca/pbkOupbM/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,63 +4997,63 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.93</v>
+        <v>2.22</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 13:12</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>09/09/2023 20:57</t>
+          <t>09/09/2023 20:47</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.25</v>
+        <v>3.18</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 13:12</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.12</v>
+        <v>3.18</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>09/09/2023 20:57</t>
+          <t>09/09/2023 20:47</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>4.86</v>
+        <v>3.64</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 13:12</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.58</v>
+        <v>4.07</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>09/09/2023 20:57</t>
+          <t>09/09/2023 20:47</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-huesca/pbkOupbM/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-albacete/2Fg3p8qi/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.46</v>
+        <v>1.88</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.56</v>
+        <v>1.88</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:04</t>
+          <t>17/09/2023 18:28</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.23</v>
+        <v>3.33</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.04</v>
+        <v>3.31</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:26</t>
+          <t>17/09/2023 18:29</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>8.23</v>
+        <v>4.97</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>6.99</v>
+        <v>5.07</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:09</t>
+          <t>17/09/2023 18:29</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-eldense/IRyfg3SL/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-leganes/EZvwcoTd/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J65" t="n">
-        <v>1.88</v>
+        <v>1.46</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.88</v>
+        <v>1.56</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:28</t>
+          <t>17/09/2023 18:04</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.33</v>
+        <v>4.23</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.31</v>
+        <v>4.04</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:29</t>
+          <t>17/09/2023 18:26</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.97</v>
+        <v>8.23</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>5.07</v>
+        <v>6.99</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:29</t>
+          <t>17/09/2023 18:09</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-leganes/EZvwcoTd/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-eldense/IRyfg3SL/</t>
         </is>
       </c>
     </row>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.31</v>
+        <v>2.66</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:55</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>2.95</v>
+        <v>3.12</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>2.91</v>
+        <v>3</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:56</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.54</v>
+        <v>3.12</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.98</v>
+        <v>3.15</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:56</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-huesca/2aDQmsjq/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-albacete/l6CO8rS8/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
         <v>2</v>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Albacete</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
       <c r="J73" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.66</v>
+        <v>2.31</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:55</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.12</v>
+        <v>2.95</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:56</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.12</v>
+        <v>3.54</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.15</v>
+        <v>3.98</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:56</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-albacete/l6CO8rS8/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-huesca/2aDQmsjq/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>2.38</v>
+        <v>1.81</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.72</v>
+        <v>1.87</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:29</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.24</v>
+        <v>3.61</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.09</v>
+        <v>3.43</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:06</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.23</v>
+        <v>4.86</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.98</v>
+        <v>4.95</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:29</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-cartagena-sad/2yRCnhB6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1.81</v>
+        <v>2.38</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.87</v>
+        <v>2.72</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 18:29</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.61</v>
+        <v>3.24</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.43</v>
+        <v>3.09</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 18:06</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.86</v>
+        <v>3.23</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.95</v>
+        <v>2.98</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 18:29</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-cartagena-sad/2yRCnhB6/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2.47</v>
+        <v>2.23</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.39</v>
+        <v>2.29</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>04/10/2023 21:26</t>
+          <t>04/10/2023 21:28</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.29</v>
+        <v>3.14</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.09</v>
+        <v>2.9</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>04/10/2023 21:26</t>
+          <t>04/10/2023 21:28</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.1</v>
+        <v>3.68</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>3.5</v>
+        <v>4.04</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>04/10/2023 21:26</t>
+          <t>04/10/2023 21:29</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-elche/OKrIEAfa/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-leganes/xfueaVfC/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2.23</v>
+        <v>2.47</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.29</v>
+        <v>2.39</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>04/10/2023 21:28</t>
+          <t>04/10/2023 21:26</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.14</v>
+        <v>3.29</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>2.9</v>
+        <v>3.09</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>04/10/2023 21:28</t>
+          <t>04/10/2023 21:26</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.68</v>
+        <v>3.1</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>4.04</v>
+        <v>3.5</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>04/10/2023 21:29</t>
+          <t>04/10/2023 21:26</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-leganes/xfueaVfC/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-elche/OKrIEAfa/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Espanyol</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>2</v>
-      </c>
       <c r="J99" t="n">
-        <v>4.05</v>
+        <v>1.74</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,48 +9520,48 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>3.73</v>
+        <v>1.71</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
+          <t>05/10/2023 21:21</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>02/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
           <t>05/10/2023 21:28</t>
         </is>
       </c>
-      <c r="N99" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O99" t="inlineStr">
+      <c r="R99" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="S99" t="inlineStr">
         <is>
           <t>02/10/2023 20:12</t>
         </is>
       </c>
-      <c r="P99" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q99" t="inlineStr">
+      <c r="T99" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="U99" t="inlineStr">
         <is>
           <t>05/10/2023 21:28</t>
         </is>
       </c>
-      <c r="R99" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>02/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T99" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>05/10/2023 21:26</t>
-        </is>
-      </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-espanyol/6TqabkAI/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-amorebieta/I7DHGWPn/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>1.74</v>
+        <v>4.05</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1.71</v>
+        <v>3.73</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>05/10/2023 21:21</t>
+          <t>05/10/2023 21:28</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.61</v>
+        <v>3.6</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.58</v>
+        <v>3.45</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         </is>
       </c>
       <c r="R100" t="n">
-        <v>5.24</v>
+        <v>1.94</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>5.95</v>
+        <v>2.13</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>05/10/2023 21:28</t>
+          <t>05/10/2023 21:26</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-amorebieta/I7DHGWPn/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-espanyol/6TqabkAI/</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -10885,63 +10885,63 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J114" t="n">
-        <v>2.31</v>
+        <v>2.32</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.39</v>
+        <v>1.99</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:22</t>
+          <t>14/10/2023 18:21</t>
         </is>
       </c>
       <c r="N114" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
         <v>3.31</v>
       </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>08/10/2023 17:43</t>
-        </is>
-      </c>
-      <c r="P114" t="n">
-        <v>3.1</v>
-      </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:22</t>
+          <t>14/10/2023 18:29</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.38</v>
+        <v>3.59</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="T114" t="n">
-        <v>3.48</v>
+        <v>4.49</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:26</t>
+          <t>14/10/2023 18:29</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-racing-santander/vHbGN5wU/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-zaragoza/4bSYumgb/</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -10977,63 +10977,63 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J115" t="n">
-        <v>2.32</v>
+        <v>2.31</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.99</v>
+        <v>2.39</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:21</t>
+          <t>14/10/2023 18:22</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.03</v>
+        <v>3.31</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.31</v>
+        <v>3.1</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:29</t>
+          <t>14/10/2023 18:22</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>3.59</v>
+        <v>3.38</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>4.49</v>
+        <v>3.48</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:29</t>
+          <t>14/10/2023 18:26</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-zaragoza/4bSYumgb/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-racing-santander/vHbGN5wU/</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -11805,38 +11805,38 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>2.13</v>
+        <v>2.86</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>15/10/2023 17:42</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.02</v>
+        <v>3.78</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 16:13</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.48</v>
+        <v>2.87</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>15/10/2023 17:42</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.51</v>
+        <v>2.93</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -11844,24 +11844,24 @@
         </is>
       </c>
       <c r="R124" t="n">
-        <v>3.54</v>
+        <v>3.01</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>15/10/2023 17:42</t>
         </is>
       </c>
       <c r="T124" t="n">
-        <v>4.02</v>
+        <v>2.37</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>21/10/2023 16:00</t>
+          <t>21/10/2023 16:13</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-mirandes/htCdYeik/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-r-oviedo/6VzSIGi2/</t>
         </is>
       </c>
     </row>
@@ -11889,7 +11889,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -11897,38 +11897,38 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J125" t="n">
-        <v>2.86</v>
+        <v>2.13</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>15/10/2023 17:42</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>3.78</v>
+        <v>2.02</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>21/10/2023 16:13</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>2.87</v>
+        <v>3.48</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>15/10/2023 17:42</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>2.93</v>
+        <v>3.51</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -11936,24 +11936,24 @@
         </is>
       </c>
       <c r="R125" t="n">
-        <v>3.01</v>
+        <v>3.54</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>15/10/2023 17:42</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="T125" t="n">
-        <v>2.37</v>
+        <v>4.02</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>21/10/2023 16:13</t>
+          <t>21/10/2023 16:00</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-r-oviedo/6VzSIGi2/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-mirandes/htCdYeik/</t>
         </is>
       </c>
     </row>
@@ -12138,6 +12138,558 @@
       <c r="V127" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-eibar/0rXHuvaF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45221.58333333334</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Ferrol</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>16/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>16/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>16/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>22/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-eldense/88zQwITR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45221.67708333334</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>16/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>16/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>16/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/huesca-elche/vZVLvbEL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45221.77083333334</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>3</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-burgos-cf/IJsDtKq9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45221.77083333334</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Albacete</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>3</v>
+      </c>
+      <c r="J131" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:09</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:09</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>15/10/2023 17:42</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>22/10/2023 18:26</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-gijon/A3sJKxNk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45221.875</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>2</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Andorra</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:56</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:56</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>5.08</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>15/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:56</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-fc-andorra/EFUE0rJk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45222.875</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Alcorcon</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>1</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>1</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>16/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>23/10/2023 20:33</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>16/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>23/10/2023 20:33</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>16/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>23/10/2023 20:33</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-fc-cartagena-sad/SvxOJdxd/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V133"/>
+  <dimension ref="A1:V144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.22</v>
+        <v>1.85</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.13</v>
+        <v>3.44</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.53</v>
+        <v>3.47</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.71</v>
+        <v>4.79</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>4.63</v>
+        <v>5.36</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-villarreal/lzCGM4ip/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-amorebieta/AucBrnE3/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>1.85</v>
+        <v>2.22</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.44</v>
+        <v>3.13</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.79</v>
+        <v>3.71</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>5.36</v>
+        <v>4.63</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-amorebieta/AucBrnE3/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-villarreal/lzCGM4ip/</t>
         </is>
       </c>
     </row>
@@ -5265,30 +5265,30 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>2.76</v>
+        <v>2.85</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>03/09/2023 17:43</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -5296,40 +5296,40 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.17</v>
+        <v>3.16</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>03/09/2023 17:43</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>2.96</v>
+        <v>3.12</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>10/09/2023 17:10</t>
+          <t>10/09/2023 17:08</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>03/09/2023 17:43</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.7</v>
+        <v>2.79</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>10/09/2023 18:22</t>
+          <t>10/09/2023 18:27</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-zaragoza/WfPlRpqT/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-fc-andorra/xUmOAStc/</t>
         </is>
       </c>
     </row>
@@ -5357,30 +5357,30 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>2.85</v>
+        <v>2.76</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 17:43</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5388,40 +5388,40 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.16</v>
+        <v>3.17</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 17:43</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.12</v>
+        <v>2.96</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>10/09/2023 17:08</t>
+          <t>10/09/2023 17:10</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 17:43</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.79</v>
+        <v>2.7</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>10/09/2023 18:27</t>
+          <t>10/09/2023 18:22</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-fc-andorra/xUmOAStc/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-zaragoza/WfPlRpqT/</t>
         </is>
       </c>
     </row>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
         <v>2</v>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Albacete</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
       <c r="J72" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.66</v>
+        <v>2.31</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:55</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.12</v>
+        <v>2.95</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:56</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.12</v>
+        <v>3.54</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.15</v>
+        <v>3.98</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:56</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-albacete/l6CO8rS8/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-huesca/2aDQmsjq/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.31</v>
+        <v>2.66</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:55</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>2.95</v>
+        <v>3.12</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>2.91</v>
+        <v>3</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:56</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.54</v>
+        <v>3.12</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.98</v>
+        <v>3.15</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:56</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-huesca/2aDQmsjq/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-albacete/l6CO8rS8/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.51</v>
+        <v>1.96</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.59</v>
+        <v>1.93</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>30/09/2023 20:40</t>
+          <t>30/09/2023 20:41</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.15</v>
+        <v>3.52</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>30/09/2023 20:46</t>
+          <t>30/09/2023 20:59</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.18</v>
+        <v>4.07</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.02</v>
+        <v>4.55</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>30/09/2023 20:41</t>
+          <t>30/09/2023 20:54</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>1.96</v>
+        <v>2.51</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>23/09/2023 20:12</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.93</v>
+        <v>2.59</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
+          <t>30/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:46</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
           <t>30/09/2023 20:41</t>
         </is>
       </c>
-      <c r="N83" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P83" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:59</t>
-        </is>
-      </c>
-      <c r="R83" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T83" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:54</t>
-        </is>
-      </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.61</v>
+        <v>3.38</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.86</v>
+        <v>4.97</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.95</v>
+        <v>4.97</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G87" t="n">
+        <v>3</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Mirandes</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
       <c r="J87" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.38</v>
+        <v>3.61</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.97</v>
+        <v>4.86</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>4.97</v>
+        <v>4.95</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
         </is>
       </c>
     </row>
@@ -8945,62 +8945,62 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Valladolid</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
       <c r="J93" t="n">
-        <v>2.92</v>
+        <v>2.17</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>3.61</v>
+        <v>1.85</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>04/10/2023 18:59</t>
+          <t>04/10/2023 18:54</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.21</v>
+        <v>3.1</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.32</v>
+        <v>3.15</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>04/10/2023 18:17</t>
+          <t>04/10/2023 18:55</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.6</v>
+        <v>3.92</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.23</v>
+        <v>5.82</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-valladolid/pKr3c9PO/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-huesca/2BsMDU95/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>1</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Huesca</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
       <c r="J94" t="n">
-        <v>2.17</v>
+        <v>2.92</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.85</v>
+        <v>3.61</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>04/10/2023 18:54</t>
+          <t>04/10/2023 18:59</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.1</v>
+        <v>3.21</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.15</v>
+        <v>3.32</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
+          <t>04/10/2023 18:17</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
           <t>04/10/2023 18:55</t>
         </is>
       </c>
-      <c r="R94" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>01/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T94" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>04/10/2023 18:55</t>
-        </is>
-      </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-huesca/2BsMDU95/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-valladolid/pKr3c9PO/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>1.74</v>
+        <v>4.05</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.71</v>
+        <v>3.73</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>05/10/2023 21:21</t>
+          <t>05/10/2023 21:28</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.61</v>
+        <v>3.6</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.58</v>
+        <v>3.45</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         </is>
       </c>
       <c r="R99" t="n">
-        <v>5.24</v>
+        <v>1.94</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>5.95</v>
+        <v>2.13</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>05/10/2023 21:28</t>
+          <t>05/10/2023 21:26</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-amorebieta/I7DHGWPn/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-espanyol/6TqabkAI/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Espanyol</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
-        <v>2</v>
-      </c>
       <c r="J100" t="n">
-        <v>4.05</v>
+        <v>1.74</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,48 +9612,48 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>3.73</v>
+        <v>1.71</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
+          <t>05/10/2023 21:21</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>02/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
           <t>05/10/2023 21:28</t>
         </is>
       </c>
-      <c r="N100" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O100" t="inlineStr">
+      <c r="R100" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="S100" t="inlineStr">
         <is>
           <t>02/10/2023 20:12</t>
         </is>
       </c>
-      <c r="P100" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q100" t="inlineStr">
+      <c r="T100" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="U100" t="inlineStr">
         <is>
           <t>05/10/2023 21:28</t>
         </is>
       </c>
-      <c r="R100" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>02/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T100" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="U100" t="inlineStr">
-        <is>
-          <t>05/10/2023 21:26</t>
-        </is>
-      </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-espanyol/6TqabkAI/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-amorebieta/I7DHGWPn/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>05/10/2023 20:42</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>08/10/2023 18:28</t>
+          <t>08/10/2023 18:29</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.51</v>
+        <v>3.35</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>05/10/2023 20:42</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.32</v>
+        <v>3.21</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>08/10/2023 18:28</t>
+          <t>08/10/2023 18:29</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>4.24</v>
+        <v>4.99</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>05/10/2023 20:42</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>4.98</v>
+        <v>5.81</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>08/10/2023 18:28</t>
+          <t>08/10/2023 18:29</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-fc-cartagena-sad/GE7eSTOb/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-burgos-cf/4v4iT99h/</t>
         </is>
       </c>
     </row>
@@ -10325,71 +10325,71 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>05/10/2023 20:42</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>08/10/2023 18:29</t>
+          <t>08/10/2023 18:28</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.35</v>
+        <v>3.51</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>05/10/2023 20:42</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.21</v>
+        <v>3.32</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>08/10/2023 18:29</t>
+          <t>08/10/2023 18:28</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>4.99</v>
+        <v>4.24</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>05/10/2023 20:42</t>
         </is>
       </c>
       <c r="T108" t="n">
-        <v>5.81</v>
+        <v>4.98</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>08/10/2023 18:29</t>
+          <t>08/10/2023 18:28</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-burgos-cf/4v4iT99h/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-fc-cartagena-sad/GE7eSTOb/</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -10885,63 +10885,63 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J114" t="n">
-        <v>2.32</v>
+        <v>2.31</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.99</v>
+        <v>2.39</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:21</t>
+          <t>14/10/2023 18:22</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.03</v>
+        <v>3.31</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.31</v>
+        <v>3.1</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:29</t>
+          <t>14/10/2023 18:22</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.59</v>
+        <v>3.38</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="T114" t="n">
-        <v>4.49</v>
+        <v>3.48</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:29</t>
+          <t>14/10/2023 18:26</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-zaragoza/4bSYumgb/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-racing-santander/vHbGN5wU/</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -10977,63 +10977,63 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>2.31</v>
+        <v>2.32</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>2.39</v>
+        <v>1.99</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:22</t>
+          <t>14/10/2023 18:21</t>
         </is>
       </c>
       <c r="N115" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
         <v>3.31</v>
       </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>08/10/2023 17:43</t>
-        </is>
-      </c>
-      <c r="P115" t="n">
-        <v>3.1</v>
-      </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:22</t>
+          <t>14/10/2023 18:29</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>3.38</v>
+        <v>3.59</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>3.48</v>
+        <v>4.49</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:26</t>
+          <t>14/10/2023 18:29</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-racing-santander/vHbGN5wU/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-zaragoza/4bSYumgb/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G130" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
         <v>3</v>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Burgos CF</t>
-        </is>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
       <c r="J130" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>22/10/2023 18:29</t>
+          <t>22/10/2023 18:09</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.37</v>
+        <v>3.46</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.31</v>
+        <v>3.1</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>22/10/2023 18:29</t>
+          <t>22/10/2023 18:09</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>4.23</v>
+        <v>4.19</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>3.99</v>
+        <v>4.02</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>22/10/2023 18:29</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-burgos-cf/IJsDtKq9/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-gijon/A3sJKxNk/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>22/10/2023 18:09</t>
+          <t>22/10/2023 18:29</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.46</v>
+        <v>3.37</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.1</v>
+        <v>3.31</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>22/10/2023 18:09</t>
+          <t>22/10/2023 18:29</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>4.19</v>
+        <v>4.23</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>4.02</v>
+        <v>3.99</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:29</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-gijon/A3sJKxNk/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-burgos-cf/IJsDtKq9/</t>
         </is>
       </c>
     </row>
@@ -12690,6 +12690,1018 @@
       <c r="V133" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-fc-cartagena-sad/SvxOJdxd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45226.875</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>5</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>1</v>
+      </c>
+      <c r="J134" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>22/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>22/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>22/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>27/10/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eibar-valladolid/06F4WZL1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>2</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:13</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:13</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:13</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:56</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-amorebieta/SY8gypPQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45227.77083333334</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:27</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:27</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-espanyol/C6pQVNnl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45227.77083333334</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Andorra</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>2</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>22/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>22/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>22/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-levante/WjPJa2Ye/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45227.875</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>2</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>1</v>
+      </c>
+      <c r="J138" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:38</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:38</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>22/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>28/10/2023 20:38</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-tenerife/vcE8Vgy8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45228.58333333334</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Mirandes</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>2</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>23/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>23/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>23/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:52</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-fc-cartagena-sad/YFoMW3Xs/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45228.67708333334</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Albacete</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:06</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:06</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:06</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/huesca-albacete/K85ow6fE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45228.77083333334</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>1</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Villarreal B</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-villarreal/tI6svnu8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45228.77083333334</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>R. Oviedo</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>2</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Alcorcon</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>23/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:01</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>23/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:27</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>23/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>5.59</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:27</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-alcorcon/EV4kxQ9K/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45228.875</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>1</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Ferrol</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>3</v>
+      </c>
+      <c r="J143" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:13</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>29/10/2023 20:33</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:13</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>29/10/2023 20:49</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>22/10/2023 22:13</t>
+        </is>
+      </c>
+      <c r="T143" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>29/10/2023 20:56</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-ferrol/ttkUUs2f/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45229.875</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>1</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>23/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>30/10/2023 20:56</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>23/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>30/10/2023 20:55</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>23/10/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>30/10/2023 20:56</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-zaragoza/6qG0XF6e/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V144"/>
+  <dimension ref="A1:V145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -10885,63 +10885,63 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J114" t="n">
-        <v>2.31</v>
+        <v>2.32</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.39</v>
+        <v>1.99</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:22</t>
+          <t>14/10/2023 18:21</t>
         </is>
       </c>
       <c r="N114" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
         <v>3.31</v>
       </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>08/10/2023 17:43</t>
-        </is>
-      </c>
-      <c r="P114" t="n">
-        <v>3.1</v>
-      </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:22</t>
+          <t>14/10/2023 18:29</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.38</v>
+        <v>3.59</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="T114" t="n">
-        <v>3.48</v>
+        <v>4.49</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:26</t>
+          <t>14/10/2023 18:29</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-racing-santander/vHbGN5wU/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-zaragoza/4bSYumgb/</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -10977,63 +10977,63 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J115" t="n">
-        <v>2.32</v>
+        <v>2.31</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.99</v>
+        <v>2.39</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:21</t>
+          <t>14/10/2023 18:22</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.03</v>
+        <v>3.31</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.31</v>
+        <v>3.1</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:29</t>
+          <t>14/10/2023 18:22</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>3.59</v>
+        <v>3.38</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>4.49</v>
+        <v>3.48</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:29</t>
+          <t>14/10/2023 18:26</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-zaragoza/4bSYumgb/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-racing-santander/vHbGN5wU/</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -11805,38 +11805,38 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J124" t="n">
-        <v>2.86</v>
+        <v>2.13</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>15/10/2023 17:42</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>3.78</v>
+        <v>2.02</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>21/10/2023 16:13</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>2.87</v>
+        <v>3.48</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>15/10/2023 17:42</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>2.93</v>
+        <v>3.51</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -11844,24 +11844,24 @@
         </is>
       </c>
       <c r="R124" t="n">
-        <v>3.01</v>
+        <v>3.54</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>15/10/2023 17:42</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="T124" t="n">
-        <v>2.37</v>
+        <v>4.02</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>21/10/2023 16:13</t>
+          <t>21/10/2023 16:00</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-r-oviedo/6VzSIGi2/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-mirandes/htCdYeik/</t>
         </is>
       </c>
     </row>
@@ -11889,7 +11889,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -11897,38 +11897,38 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>2.13</v>
+        <v>2.86</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>15/10/2023 17:42</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>2.02</v>
+        <v>3.78</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 16:13</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>3.48</v>
+        <v>2.87</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>15/10/2023 17:42</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3.51</v>
+        <v>2.93</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -11936,24 +11936,24 @@
         </is>
       </c>
       <c r="R125" t="n">
-        <v>3.54</v>
+        <v>3.01</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>15/10/2023 17:42</t>
         </is>
       </c>
       <c r="T125" t="n">
-        <v>4.02</v>
+        <v>2.37</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>21/10/2023 16:00</t>
+          <t>21/10/2023 16:13</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-mirandes/htCdYeik/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-r-oviedo/6VzSIGi2/</t>
         </is>
       </c>
     </row>
@@ -13702,6 +13702,98 @@
       <c r="V144" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-zaragoza/6qG0XF6e/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45233.875</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>2</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>2</v>
+      </c>
+      <c r="J145" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>03/11/2023 20:54</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>03/11/2023 20:54</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>03/11/2023 20:56</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-eibar/Q9AapN1s/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V145"/>
+  <dimension ref="A1:V149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>1.96</v>
+        <v>2.51</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>23/09/2023 20:12</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.93</v>
+        <v>2.59</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
+          <t>30/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:46</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
           <t>30/09/2023 20:41</t>
         </is>
       </c>
-      <c r="N82" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P82" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:59</t>
-        </is>
-      </c>
-      <c r="R82" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T82" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:54</t>
-        </is>
-      </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.51</v>
+        <v>1.96</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.59</v>
+        <v>1.93</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>30/09/2023 20:40</t>
+          <t>30/09/2023 20:41</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.15</v>
+        <v>3.52</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>30/09/2023 20:46</t>
+          <t>30/09/2023 20:59</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.18</v>
+        <v>4.07</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>3.02</v>
+        <v>4.55</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>30/09/2023 20:41</t>
+          <t>30/09/2023 20:54</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,63 +8217,63 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.88</v>
+        <v>2.38</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.88</v>
+        <v>2.72</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:29</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.38</v>
+        <v>3.24</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.38</v>
+        <v>3.09</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:06</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.97</v>
+        <v>3.23</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.97</v>
+        <v>2.98</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:29</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-cartagena-sad/2yRCnhB6/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2.38</v>
+        <v>1.81</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.72</v>
+        <v>1.87</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>01/10/2023 18:29</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.24</v>
+        <v>3.61</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.09</v>
+        <v>3.43</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>01/10/2023 18:06</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>3.23</v>
+        <v>4.86</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.98</v>
+        <v>4.95</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>01/10/2023 18:29</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-cartagena-sad/2yRCnhB6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.61</v>
+        <v>3.38</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.86</v>
+        <v>4.97</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>4.95</v>
+        <v>4.97</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,63 +8677,63 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>2.82</v>
+        <v>1.56</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>01/10/2023 04:42</t>
+          <t>30/09/2023 20:12</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>3.14</v>
+        <v>1.66</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>03/10/2023 18:59</t>
+          <t>03/10/2023 18:54</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.11</v>
+        <v>4.32</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>01/10/2023 04:42</t>
+          <t>30/09/2023 20:12</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.04</v>
+        <v>4.17</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>03/10/2023 18:42</t>
+          <t>03/10/2023 18:54</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.77</v>
+        <v>6.06</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>01/10/2023 04:42</t>
+          <t>30/09/2023 20:12</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.63</v>
+        <v>5.31</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>03/10/2023 18:59</t>
+          <t>03/10/2023 18:54</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-albacete/OpEDHCAt/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/levante-villarreal/nPMoMh2P/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,63 +8769,63 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>1.56</v>
+        <v>2.82</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>30/09/2023 20:12</t>
+          <t>01/10/2023 04:42</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.66</v>
+        <v>3.14</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>03/10/2023 18:54</t>
+          <t>03/10/2023 18:59</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>4.32</v>
+        <v>3.11</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>30/09/2023 20:12</t>
+          <t>01/10/2023 04:42</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>4.17</v>
+        <v>3.04</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>03/10/2023 18:54</t>
+          <t>03/10/2023 18:42</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>6.06</v>
+        <v>2.77</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>30/09/2023 20:12</t>
+          <t>01/10/2023 04:42</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>5.31</v>
+        <v>2.63</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>03/10/2023 18:54</t>
+          <t>03/10/2023 18:59</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/levante-villarreal/nPMoMh2P/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-albacete/OpEDHCAt/</t>
         </is>
       </c>
     </row>
@@ -8945,71 +8945,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
         <v>1</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Huesca</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
       <c r="J93" t="n">
-        <v>2.17</v>
+        <v>2.92</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.85</v>
+        <v>3.61</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>04/10/2023 18:54</t>
+          <t>04/10/2023 18:59</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.1</v>
+        <v>3.21</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.15</v>
+        <v>3.32</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
+          <t>04/10/2023 18:17</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
           <t>04/10/2023 18:55</t>
         </is>
       </c>
-      <c r="R93" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>01/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T93" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>04/10/2023 18:55</t>
-        </is>
-      </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-huesca/2BsMDU95/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-valladolid/pKr3c9PO/</t>
         </is>
       </c>
     </row>
@@ -9037,62 +9037,62 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Valladolid</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
       <c r="J94" t="n">
-        <v>2.92</v>
+        <v>2.17</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>3.61</v>
+        <v>1.85</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>04/10/2023 18:59</t>
+          <t>04/10/2023 18:54</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.21</v>
+        <v>3.1</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.32</v>
+        <v>3.15</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>04/10/2023 18:17</t>
+          <t>04/10/2023 18:55</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.6</v>
+        <v>3.92</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.23</v>
+        <v>5.82</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-valladolid/pKr3c9PO/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-huesca/2BsMDU95/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Espanyol</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>2</v>
-      </c>
       <c r="J99" t="n">
-        <v>4.05</v>
+        <v>1.74</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,48 +9520,48 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>3.73</v>
+        <v>1.71</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
+          <t>05/10/2023 21:21</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>02/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
           <t>05/10/2023 21:28</t>
         </is>
       </c>
-      <c r="N99" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O99" t="inlineStr">
+      <c r="R99" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="S99" t="inlineStr">
         <is>
           <t>02/10/2023 20:12</t>
         </is>
       </c>
-      <c r="P99" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q99" t="inlineStr">
+      <c r="T99" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="U99" t="inlineStr">
         <is>
           <t>05/10/2023 21:28</t>
         </is>
       </c>
-      <c r="R99" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>02/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T99" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>05/10/2023 21:26</t>
-        </is>
-      </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-espanyol/6TqabkAI/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-amorebieta/I7DHGWPn/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>1.74</v>
+        <v>4.05</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1.71</v>
+        <v>3.73</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>05/10/2023 21:21</t>
+          <t>05/10/2023 21:28</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.61</v>
+        <v>3.6</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.58</v>
+        <v>3.45</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         </is>
       </c>
       <c r="R100" t="n">
-        <v>5.24</v>
+        <v>1.94</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>5.95</v>
+        <v>2.13</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>05/10/2023 21:28</t>
+          <t>05/10/2023 21:26</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-amorebieta/I7DHGWPn/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-espanyol/6TqabkAI/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I107" t="n">
         <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>05/10/2023 20:42</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>1.83</v>
+        <v>1.89</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>08/10/2023 18:29</t>
+          <t>08/10/2023 18:28</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.35</v>
+        <v>3.51</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>05/10/2023 20:42</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.21</v>
+        <v>3.32</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>08/10/2023 18:29</t>
+          <t>08/10/2023 18:28</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>4.99</v>
+        <v>4.24</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>04/10/2023 20:42</t>
+          <t>05/10/2023 20:42</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>5.81</v>
+        <v>4.98</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>08/10/2023 18:29</t>
+          <t>08/10/2023 18:28</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-burgos-cf/4v4iT99h/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-fc-cartagena-sad/GE7eSTOb/</t>
         </is>
       </c>
     </row>
@@ -10325,71 +10325,71 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>1</v>
       </c>
       <c r="J108" t="n">
-        <v>1.95</v>
+        <v>1.84</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>05/10/2023 20:42</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.89</v>
+        <v>1.83</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>08/10/2023 18:28</t>
+          <t>08/10/2023 18:29</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.51</v>
+        <v>3.35</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
-          <t>05/10/2023 20:42</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.32</v>
+        <v>3.21</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>08/10/2023 18:28</t>
+          <t>08/10/2023 18:29</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>4.24</v>
+        <v>4.99</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>05/10/2023 20:42</t>
+          <t>04/10/2023 20:42</t>
         </is>
       </c>
       <c r="T108" t="n">
-        <v>4.98</v>
+        <v>5.81</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>08/10/2023 18:28</t>
+          <t>08/10/2023 18:29</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-fc-cartagena-sad/GE7eSTOb/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-burgos-cf/4v4iT99h/</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -10885,63 +10885,63 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J114" t="n">
-        <v>2.32</v>
+        <v>2.31</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.99</v>
+        <v>2.39</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:21</t>
+          <t>14/10/2023 18:22</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.03</v>
+        <v>3.31</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.31</v>
+        <v>3.1</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:29</t>
+          <t>14/10/2023 18:22</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.59</v>
+        <v>3.38</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="T114" t="n">
-        <v>4.49</v>
+        <v>3.48</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:29</t>
+          <t>14/10/2023 18:26</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-zaragoza/4bSYumgb/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-racing-santander/vHbGN5wU/</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -10977,63 +10977,63 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>2.31</v>
+        <v>2.32</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>2.39</v>
+        <v>1.99</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:22</t>
+          <t>14/10/2023 18:21</t>
         </is>
       </c>
       <c r="N115" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
         <v>3.31</v>
       </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>08/10/2023 17:43</t>
-        </is>
-      </c>
-      <c r="P115" t="n">
-        <v>3.1</v>
-      </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:22</t>
+          <t>14/10/2023 18:29</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>3.38</v>
+        <v>3.59</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>3.48</v>
+        <v>4.49</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:26</t>
+          <t>14/10/2023 18:29</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-racing-santander/vHbGN5wU/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-zaragoza/4bSYumgb/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>2.96</v>
+        <v>1.96</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.22</v>
+        <v>3.39</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.18</v>
+        <v>3.03</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>15/10/2023 16:10</t>
+          <t>15/10/2023 16:09</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.56</v>
+        <v>4.38</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.34</v>
+        <v>3.95</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-elche/vHKowowH/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-alcorcon/zPVA1O3q/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>1.96</v>
+        <v>2.96</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.39</v>
+        <v>3.22</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.03</v>
+        <v>3.18</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>15/10/2023 16:09</t>
+          <t>15/10/2023 16:10</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>4.38</v>
+        <v>2.56</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>3.95</v>
+        <v>2.34</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-alcorcon/zPVA1O3q/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-elche/vHKowowH/</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -11805,38 +11805,38 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>2.13</v>
+        <v>2.86</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>15/10/2023 17:42</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.02</v>
+        <v>3.78</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 16:13</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.48</v>
+        <v>2.87</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>15/10/2023 17:42</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.51</v>
+        <v>2.93</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -11844,24 +11844,24 @@
         </is>
       </c>
       <c r="R124" t="n">
-        <v>3.54</v>
+        <v>3.01</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>15/10/2023 17:42</t>
         </is>
       </c>
       <c r="T124" t="n">
-        <v>4.02</v>
+        <v>2.37</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>21/10/2023 16:00</t>
+          <t>21/10/2023 16:13</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-mirandes/htCdYeik/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-r-oviedo/6VzSIGi2/</t>
         </is>
       </c>
     </row>
@@ -11889,7 +11889,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -11897,38 +11897,38 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J125" t="n">
-        <v>2.86</v>
+        <v>2.13</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>15/10/2023 17:42</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>3.78</v>
+        <v>2.02</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>21/10/2023 16:13</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>2.87</v>
+        <v>3.48</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>15/10/2023 17:42</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>2.93</v>
+        <v>3.51</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -11936,24 +11936,24 @@
         </is>
       </c>
       <c r="R125" t="n">
-        <v>3.01</v>
+        <v>3.54</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>15/10/2023 17:42</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="T125" t="n">
-        <v>2.37</v>
+        <v>4.02</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>21/10/2023 16:13</t>
+          <t>21/10/2023 16:00</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-r-oviedo/6VzSIGi2/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-mirandes/htCdYeik/</t>
         </is>
       </c>
     </row>
@@ -13361,71 +13361,71 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>1.69</v>
+        <v>2.02</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 21:12</t>
         </is>
       </c>
       <c r="L141" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>29/10/2023 18:29</t>
+          <t>29/10/2023 18:01</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.91</v>
+        <v>3.14</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 21:12</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.67</v>
+        <v>3.3</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>29/10/2023 18:29</t>
+          <t>29/10/2023 18:27</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>5.32</v>
+        <v>4.58</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 21:12</t>
         </is>
       </c>
       <c r="T141" t="n">
-        <v>4.96</v>
+        <v>5.59</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>29/10/2023 18:29</t>
+          <t>29/10/2023 18:27</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-villarreal/tI6svnu8/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-alcorcon/EV4kxQ9K/</t>
         </is>
       </c>
     </row>
@@ -13453,71 +13453,71 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>2.02</v>
+        <v>1.69</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>23/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>29/10/2023 18:01</t>
+          <t>29/10/2023 18:29</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.14</v>
+        <v>3.91</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>23/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.3</v>
+        <v>3.67</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>29/10/2023 18:27</t>
+          <t>29/10/2023 18:29</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>4.58</v>
+        <v>5.32</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>23/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T142" t="n">
-        <v>5.59</v>
+        <v>4.96</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>29/10/2023 18:27</t>
+          <t>29/10/2023 18:29</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-alcorcon/EV4kxQ9K/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-villarreal/tI6svnu8/</t>
         </is>
       </c>
     </row>
@@ -13794,6 +13794,374 @@
       <c r="V145" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-eibar/Q9AapN1s/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45234.67708333334</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Villarreal B</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>3</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>04/11/2023 15:46</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T146" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:12</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-gijon/YZD7r1Wg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45234.77083333334</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>2</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>28/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:24</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>28/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:24</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>28/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T147" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:24</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-tenerife/Gb3CsLo0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45234.77083333334</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>2</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Mirandes</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>2</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:23</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:23</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>29/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T148" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>04/11/2023 18:23</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/levante-mirandes/6PTSkqvK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45234.875</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Albacete</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:55</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:51</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T149" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>04/11/2023 20:55</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-elche/KWmYT1H0/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V149"/>
+  <dimension ref="A1:V150"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.31</v>
+        <v>2.66</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:55</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>2.95</v>
+        <v>3.12</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>2.91</v>
+        <v>3</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:56</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.54</v>
+        <v>3.12</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.98</v>
+        <v>3.15</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:56</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-huesca/2aDQmsjq/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-albacete/l6CO8rS8/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
         <v>2</v>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Albacete</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
       <c r="J73" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.66</v>
+        <v>2.31</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:55</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.12</v>
+        <v>2.95</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:56</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.12</v>
+        <v>3.54</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.15</v>
+        <v>3.98</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:56</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-albacete/l6CO8rS8/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-huesca/2aDQmsjq/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>1.96</v>
+        <v>2.96</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.39</v>
+        <v>3.22</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.03</v>
+        <v>3.18</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>15/10/2023 16:09</t>
+          <t>15/10/2023 16:10</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>4.38</v>
+        <v>2.56</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>3.95</v>
+        <v>2.34</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-alcorcon/zPVA1O3q/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-elche/vHKowowH/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>2.96</v>
+        <v>1.96</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.22</v>
+        <v>3.39</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.18</v>
+        <v>3.03</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>15/10/2023 16:10</t>
+          <t>15/10/2023 16:09</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>2.56</v>
+        <v>4.38</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>2.34</v>
+        <v>3.95</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-elche/vHKowowH/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-alcorcon/zPVA1O3q/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>09/10/2023 11:11</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>15/10/2023 18:22</t>
+          <t>15/10/2023 18:23</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.87</v>
+        <v>3.57</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>09/10/2023 11:11</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.7</v>
+        <v>3.63</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>15/10/2023 18:22</t>
+          <t>15/10/2023 18:23</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>6.75</v>
+        <v>5.98</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>09/10/2023 11:11</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>7.53</v>
+        <v>5.58</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>15/10/2023 18:24</t>
+          <t>15/10/2023 18:23</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eibar-huesca/GxjrJPoo/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-amorebieta/QDGsvRNA/</t>
         </is>
       </c>
     </row>
@@ -11521,71 +11521,71 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>09/10/2023 11:11</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1.74</v>
+        <v>1.59</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>15/10/2023 18:23</t>
+          <t>15/10/2023 18:22</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.57</v>
+        <v>3.87</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>09/10/2023 11:11</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.63</v>
+        <v>3.7</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>15/10/2023 18:23</t>
+          <t>15/10/2023 18:22</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>5.98</v>
+        <v>6.75</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>09/10/2023 11:11</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>5.58</v>
+        <v>7.53</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>15/10/2023 18:23</t>
+          <t>15/10/2023 18:24</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-amorebieta/QDGsvRNA/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eibar-huesca/GxjrJPoo/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>22/10/2023 18:09</t>
+          <t>22/10/2023 18:29</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.46</v>
+        <v>3.37</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.1</v>
+        <v>3.31</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>22/10/2023 18:09</t>
+          <t>22/10/2023 18:29</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>4.19</v>
+        <v>4.23</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>4.02</v>
+        <v>3.99</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:29</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-gijon/A3sJKxNk/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-burgos-cf/IJsDtKq9/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
         <v>3</v>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Burgos CF</t>
-        </is>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
       <c r="J131" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>22/10/2023 18:29</t>
+          <t>22/10/2023 18:09</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.37</v>
+        <v>3.46</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.31</v>
+        <v>3.1</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>22/10/2023 18:29</t>
+          <t>22/10/2023 18:09</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>4.23</v>
+        <v>4.19</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>3.99</v>
+        <v>4.02</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>22/10/2023 18:29</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-burgos-cf/IJsDtKq9/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-gijon/A3sJKxNk/</t>
         </is>
       </c>
     </row>
@@ -13913,7 +13913,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -13921,63 +13921,63 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J147" t="n">
-        <v>1.99</v>
+        <v>1.65</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>28/10/2023 21:12</t>
+          <t>29/10/2023 14:12</t>
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>04/11/2023 18:24</t>
+          <t>04/11/2023 18:23</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.32</v>
+        <v>4.24</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>28/10/2023 21:12</t>
+          <t>29/10/2023 14:12</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.03</v>
+        <v>3.53</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>04/11/2023 18:24</t>
+          <t>04/11/2023 18:23</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>4.39</v>
+        <v>4.95</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>28/10/2023 21:12</t>
+          <t>29/10/2023 14:12</t>
         </is>
       </c>
       <c r="T147" t="n">
-        <v>3.91</v>
+        <v>4.52</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>04/11/2023 18:24</t>
+          <t>04/11/2023 18:23</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-tenerife/Gb3CsLo0/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/levante-mirandes/6PTSkqvK/</t>
         </is>
       </c>
     </row>
@@ -14005,7 +14005,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G148" t="n">
@@ -14013,63 +14013,63 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>1.65</v>
+        <v>1.99</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>29/10/2023 14:12</t>
+          <t>28/10/2023 21:12</t>
         </is>
       </c>
       <c r="L148" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>04/11/2023 18:23</t>
+          <t>04/11/2023 18:24</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>4.24</v>
+        <v>3.32</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>29/10/2023 14:12</t>
+          <t>28/10/2023 21:12</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.53</v>
+        <v>3.03</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>04/11/2023 18:23</t>
+          <t>04/11/2023 18:24</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>4.95</v>
+        <v>4.39</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>29/10/2023 14:12</t>
+          <t>28/10/2023 21:12</t>
         </is>
       </c>
       <c r="T148" t="n">
-        <v>4.52</v>
+        <v>3.91</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>04/11/2023 18:23</t>
+          <t>04/11/2023 18:24</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/levante-mirandes/6PTSkqvK/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-tenerife/Gb3CsLo0/</t>
         </is>
       </c>
     </row>
@@ -14162,6 +14162,98 @@
       <c r="V149" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/albacete-elche/KWmYT1H0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45235.58333333334</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Ferrol</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Andorra</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>29/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:53</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>29/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:53</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>29/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T150" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:53</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-fc-andorra/AsONbMm2/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V150"/>
+  <dimension ref="A1:V154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,63 +3985,63 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>1.65</v>
+        <v>2.37</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:56</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.82</v>
+        <v>3.33</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.51</v>
+        <v>3.47</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:52</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>5.66</v>
+        <v>3.15</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.46</v>
+        <v>3.75</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:59</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-racing-santander/CWkCDRET/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-cartagena-sad/2FXXUSq4/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,63 +4077,63 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.37</v>
+        <v>1.65</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:56</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.33</v>
+        <v>3.82</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.47</v>
+        <v>3.51</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:52</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.15</v>
+        <v>5.66</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.75</v>
+        <v>4.46</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:59</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-cartagena-sad/2FXXUSq4/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-racing-santander/CWkCDRET/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>1.85</v>
+        <v>2.22</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.44</v>
+        <v>3.13</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>4.79</v>
+        <v>3.71</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>5.36</v>
+        <v>4.63</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-amorebieta/AucBrnE3/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-villarreal/lzCGM4ip/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.22</v>
+        <v>1.85</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.13</v>
+        <v>3.44</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.53</v>
+        <v>3.47</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.71</v>
+        <v>4.79</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.63</v>
+        <v>5.36</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-villarreal/lzCGM4ip/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-amorebieta/AucBrnE3/</t>
         </is>
       </c>
     </row>
@@ -5265,30 +5265,30 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>2.85</v>
+        <v>2.76</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 17:43</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -5296,40 +5296,40 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.16</v>
+        <v>3.17</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 17:43</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.12</v>
+        <v>2.96</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>10/09/2023 17:08</t>
+          <t>10/09/2023 17:10</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 17:43</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.79</v>
+        <v>2.7</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>10/09/2023 18:27</t>
+          <t>10/09/2023 18:22</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-fc-andorra/xUmOAStc/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-zaragoza/WfPlRpqT/</t>
         </is>
       </c>
     </row>
@@ -5357,30 +5357,30 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>2.76</v>
+        <v>2.85</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>03/09/2023 17:43</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5388,40 +5388,40 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.17</v>
+        <v>3.16</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>03/09/2023 17:43</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>2.96</v>
+        <v>3.12</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>10/09/2023 17:10</t>
+          <t>10/09/2023 17:08</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>03/09/2023 17:43</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.7</v>
+        <v>2.79</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>10/09/2023 18:22</t>
+          <t>10/09/2023 18:27</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-zaragoza/WfPlRpqT/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-fc-andorra/xUmOAStc/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Levante</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
       <c r="J59" t="n">
-        <v>3.14</v>
+        <v>1.93</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.46</v>
+        <v>1.78</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:29</t>
+          <t>16/09/2023 18:24</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.07</v>
+        <v>3.57</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2.96</v>
+        <v>3.71</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:28</t>
+          <t>16/09/2023 18:24</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.53</v>
+        <v>4.16</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.53</v>
+        <v>5.02</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:29</t>
+          <t>16/09/2023 18:27</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-levante/tUzfzOLq/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-fc-cartagena-sad/lhXkfqDF/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.93</v>
+        <v>3.14</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.78</v>
+        <v>2.46</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:24</t>
+          <t>16/09/2023 18:29</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.57</v>
+        <v>3.07</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.71</v>
+        <v>2.96</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:24</t>
+          <t>16/09/2023 18:28</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.16</v>
+        <v>2.53</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>5.02</v>
+        <v>3.53</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:27</t>
+          <t>16/09/2023 18:29</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-fc-cartagena-sad/lhXkfqDF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-levante/tUzfzOLq/</t>
         </is>
       </c>
     </row>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
         <v>2</v>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Albacete</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
       <c r="J72" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.66</v>
+        <v>2.31</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:55</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.12</v>
+        <v>2.95</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:56</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.12</v>
+        <v>3.54</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.15</v>
+        <v>3.98</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:56</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-albacete/l6CO8rS8/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-huesca/2aDQmsjq/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.31</v>
+        <v>2.66</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:55</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>2.95</v>
+        <v>3.12</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>2.91</v>
+        <v>3</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:56</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.54</v>
+        <v>3.12</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.98</v>
+        <v>3.15</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:56</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-huesca/2aDQmsjq/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-albacete/l6CO8rS8/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,63 +7481,63 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.69</v>
+        <v>2.62</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.26</v>
+        <v>2.73</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>25/09/2023 20:59</t>
+          <t>25/09/2023 20:20</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.01</v>
+        <v>3.07</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="P77" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>25/09/2023 20:20</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
         <v>3.06</v>
       </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>25/09/2023 20:59</t>
-        </is>
-      </c>
-      <c r="R77" t="n">
-        <v>3</v>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>18/09/2023 11:42</t>
-        </is>
-      </c>
-      <c r="T77" t="n">
-        <v>3.85</v>
-      </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>25/09/2023 20:59</t>
+          <t>25/09/2023 20:20</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-zaragoza/YcUyouz2/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-espanyol/xUT0kfRm/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,63 +7573,63 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.62</v>
+        <v>2.69</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.73</v>
+        <v>2.26</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>25/09/2023 20:20</t>
+          <t>25/09/2023 20:59</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.07</v>
+        <v>3.01</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="P78" t="n">
-        <v>2.99</v>
+        <v>3.06</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>25/09/2023 20:20</t>
+          <t>25/09/2023 20:59</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>3.02</v>
+        <v>3</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="T78" t="n">
-        <v>3.06</v>
+        <v>3.85</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>25/09/2023 20:20</t>
+          <t>25/09/2023 20:59</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-espanyol/xUT0kfRm/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-zaragoza/YcUyouz2/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.51</v>
+        <v>1.96</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.59</v>
+        <v>1.93</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>30/09/2023 20:40</t>
+          <t>30/09/2023 20:41</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.15</v>
+        <v>3.52</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>30/09/2023 20:46</t>
+          <t>30/09/2023 20:59</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.18</v>
+        <v>4.07</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.02</v>
+        <v>4.55</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>30/09/2023 20:41</t>
+          <t>30/09/2023 20:54</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>1.96</v>
+        <v>2.51</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>23/09/2023 20:12</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.93</v>
+        <v>2.59</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
+          <t>30/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:46</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
           <t>30/09/2023 20:41</t>
         </is>
       </c>
-      <c r="N83" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P83" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:59</t>
-        </is>
-      </c>
-      <c r="R83" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T83" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:54</t>
-        </is>
-      </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>2.38</v>
+        <v>1.81</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.72</v>
+        <v>1.87</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:29</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.24</v>
+        <v>3.61</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.09</v>
+        <v>3.43</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:06</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.23</v>
+        <v>4.86</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.98</v>
+        <v>4.95</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:29</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-cartagena-sad/2yRCnhB6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.61</v>
+        <v>3.38</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.86</v>
+        <v>4.97</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.95</v>
+        <v>4.97</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,63 +8401,63 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1.88</v>
+        <v>2.38</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.88</v>
+        <v>2.72</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:29</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.38</v>
+        <v>3.24</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.38</v>
+        <v>3.09</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:06</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.97</v>
+        <v>3.23</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>4.97</v>
+        <v>2.98</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:29</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-cartagena-sad/2yRCnhB6/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,63 +8677,63 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>1.56</v>
+        <v>2.82</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>30/09/2023 20:12</t>
+          <t>01/10/2023 04:42</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.66</v>
+        <v>3.14</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>03/10/2023 18:54</t>
+          <t>03/10/2023 18:59</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>4.32</v>
+        <v>3.11</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>30/09/2023 20:12</t>
+          <t>01/10/2023 04:42</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>4.17</v>
+        <v>3.04</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>03/10/2023 18:54</t>
+          <t>03/10/2023 18:42</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>6.06</v>
+        <v>2.77</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>30/09/2023 20:12</t>
+          <t>01/10/2023 04:42</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>5.31</v>
+        <v>2.63</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>03/10/2023 18:54</t>
+          <t>03/10/2023 18:59</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/levante-villarreal/nPMoMh2P/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-albacete/OpEDHCAt/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,63 +8769,63 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>2.82</v>
+        <v>1.56</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>01/10/2023 04:42</t>
+          <t>30/09/2023 20:12</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>3.14</v>
+        <v>1.66</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>03/10/2023 18:59</t>
+          <t>03/10/2023 18:54</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.11</v>
+        <v>4.32</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>01/10/2023 04:42</t>
+          <t>30/09/2023 20:12</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.04</v>
+        <v>4.17</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>03/10/2023 18:42</t>
+          <t>03/10/2023 18:54</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.77</v>
+        <v>6.06</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>01/10/2023 04:42</t>
+          <t>30/09/2023 20:12</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2.63</v>
+        <v>5.31</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>03/10/2023 18:59</t>
+          <t>03/10/2023 18:54</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-albacete/OpEDHCAt/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/levante-villarreal/nPMoMh2P/</t>
         </is>
       </c>
     </row>
@@ -8945,62 +8945,62 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Valladolid</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
       <c r="J93" t="n">
-        <v>2.92</v>
+        <v>2.17</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>3.61</v>
+        <v>1.85</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>04/10/2023 18:59</t>
+          <t>04/10/2023 18:54</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.21</v>
+        <v>3.1</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.32</v>
+        <v>3.15</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>04/10/2023 18:17</t>
+          <t>04/10/2023 18:55</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.6</v>
+        <v>3.92</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.23</v>
+        <v>5.82</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-valladolid/pKr3c9PO/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-huesca/2BsMDU95/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>1</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Huesca</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
       <c r="J94" t="n">
-        <v>2.17</v>
+        <v>2.92</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.85</v>
+        <v>3.61</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>04/10/2023 18:54</t>
+          <t>04/10/2023 18:59</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.1</v>
+        <v>3.21</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.15</v>
+        <v>3.32</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
+          <t>04/10/2023 18:17</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
           <t>04/10/2023 18:55</t>
         </is>
       </c>
-      <c r="R94" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>01/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T94" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>04/10/2023 18:55</t>
-        </is>
-      </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-huesca/2BsMDU95/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-valladolid/pKr3c9PO/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2.23</v>
+        <v>2.47</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.29</v>
+        <v>2.39</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>04/10/2023 21:28</t>
+          <t>04/10/2023 21:26</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.14</v>
+        <v>3.29</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>2.9</v>
+        <v>3.09</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>04/10/2023 21:28</t>
+          <t>04/10/2023 21:26</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.68</v>
+        <v>3.1</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>4.04</v>
+        <v>3.5</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>04/10/2023 21:29</t>
+          <t>04/10/2023 21:26</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-leganes/xfueaVfC/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-elche/OKrIEAfa/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2.47</v>
+        <v>2.23</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.39</v>
+        <v>2.29</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>04/10/2023 21:26</t>
+          <t>04/10/2023 21:28</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.29</v>
+        <v>3.14</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.09</v>
+        <v>2.9</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>04/10/2023 21:26</t>
+          <t>04/10/2023 21:28</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.1</v>
+        <v>3.68</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.5</v>
+        <v>4.04</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>04/10/2023 21:26</t>
+          <t>04/10/2023 21:29</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-elche/OKrIEAfa/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-leganes/xfueaVfC/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>1.74</v>
+        <v>4.05</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.71</v>
+        <v>3.73</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>05/10/2023 21:21</t>
+          <t>05/10/2023 21:28</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.61</v>
+        <v>3.6</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.58</v>
+        <v>3.45</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         </is>
       </c>
       <c r="R99" t="n">
-        <v>5.24</v>
+        <v>1.94</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>5.95</v>
+        <v>2.13</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>05/10/2023 21:28</t>
+          <t>05/10/2023 21:26</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-amorebieta/I7DHGWPn/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-espanyol/6TqabkAI/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Espanyol</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
-        <v>2</v>
-      </c>
       <c r="J100" t="n">
-        <v>4.05</v>
+        <v>1.74</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,48 +9612,48 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>3.73</v>
+        <v>1.71</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
+          <t>05/10/2023 21:21</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>02/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
           <t>05/10/2023 21:28</t>
         </is>
       </c>
-      <c r="N100" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O100" t="inlineStr">
+      <c r="R100" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="S100" t="inlineStr">
         <is>
           <t>02/10/2023 20:12</t>
         </is>
       </c>
-      <c r="P100" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q100" t="inlineStr">
+      <c r="T100" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="U100" t="inlineStr">
         <is>
           <t>05/10/2023 21:28</t>
         </is>
       </c>
-      <c r="R100" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>02/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T100" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="U100" t="inlineStr">
-        <is>
-          <t>05/10/2023 21:26</t>
-        </is>
-      </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-espanyol/6TqabkAI/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-amorebieta/I7DHGWPn/</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -10885,63 +10885,63 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J114" t="n">
-        <v>2.31</v>
+        <v>2.32</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.39</v>
+        <v>1.99</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:22</t>
+          <t>14/10/2023 18:21</t>
         </is>
       </c>
       <c r="N114" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
         <v>3.31</v>
       </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>08/10/2023 17:43</t>
-        </is>
-      </c>
-      <c r="P114" t="n">
-        <v>3.1</v>
-      </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:22</t>
+          <t>14/10/2023 18:29</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.38</v>
+        <v>3.59</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="T114" t="n">
-        <v>3.48</v>
+        <v>4.49</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:26</t>
+          <t>14/10/2023 18:29</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-racing-santander/vHbGN5wU/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-zaragoza/4bSYumgb/</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -10977,63 +10977,63 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J115" t="n">
-        <v>2.32</v>
+        <v>2.31</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.99</v>
+        <v>2.39</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:21</t>
+          <t>14/10/2023 18:22</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.03</v>
+        <v>3.31</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.31</v>
+        <v>3.1</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:29</t>
+          <t>14/10/2023 18:22</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>3.59</v>
+        <v>3.38</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>4.49</v>
+        <v>3.48</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:29</t>
+          <t>14/10/2023 18:26</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-zaragoza/4bSYumgb/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-racing-santander/vHbGN5wU/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>09/10/2023 11:11</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.74</v>
+        <v>1.59</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>15/10/2023 18:23</t>
+          <t>15/10/2023 18:22</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.57</v>
+        <v>3.87</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>09/10/2023 11:11</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.63</v>
+        <v>3.7</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>15/10/2023 18:23</t>
+          <t>15/10/2023 18:22</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>5.98</v>
+        <v>6.75</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>09/10/2023 11:11</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>5.58</v>
+        <v>7.53</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>15/10/2023 18:23</t>
+          <t>15/10/2023 18:24</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-amorebieta/QDGsvRNA/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eibar-huesca/GxjrJPoo/</t>
         </is>
       </c>
     </row>
@@ -11521,71 +11521,71 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>09/10/2023 11:11</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>15/10/2023 18:22</t>
+          <t>15/10/2023 18:23</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.87</v>
+        <v>3.57</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>09/10/2023 11:11</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.7</v>
+        <v>3.63</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>15/10/2023 18:22</t>
+          <t>15/10/2023 18:23</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>6.75</v>
+        <v>5.98</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>09/10/2023 11:11</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>7.53</v>
+        <v>5.58</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>15/10/2023 18:24</t>
+          <t>15/10/2023 18:23</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eibar-huesca/GxjrJPoo/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-amorebieta/QDGsvRNA/</t>
         </is>
       </c>
     </row>
@@ -13913,7 +13913,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -13921,63 +13921,63 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>1.65</v>
+        <v>1.99</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>29/10/2023 14:12</t>
+          <t>28/10/2023 21:12</t>
         </is>
       </c>
       <c r="L147" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>04/11/2023 18:23</t>
+          <t>04/11/2023 18:24</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>4.24</v>
+        <v>3.32</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>29/10/2023 14:12</t>
+          <t>28/10/2023 21:12</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.53</v>
+        <v>3.03</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>04/11/2023 18:23</t>
+          <t>04/11/2023 18:24</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>4.95</v>
+        <v>4.39</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>29/10/2023 14:12</t>
+          <t>28/10/2023 21:12</t>
         </is>
       </c>
       <c r="T147" t="n">
-        <v>4.52</v>
+        <v>3.91</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>04/11/2023 18:23</t>
+          <t>04/11/2023 18:24</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/levante-mirandes/6PTSkqvK/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-tenerife/Gb3CsLo0/</t>
         </is>
       </c>
     </row>
@@ -14005,7 +14005,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="G148" t="n">
@@ -14013,63 +14013,63 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J148" t="n">
-        <v>1.99</v>
+        <v>1.65</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>28/10/2023 21:12</t>
+          <t>29/10/2023 14:12</t>
         </is>
       </c>
       <c r="L148" t="n">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>04/11/2023 18:24</t>
+          <t>04/11/2023 18:23</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.32</v>
+        <v>4.24</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>28/10/2023 21:12</t>
+          <t>29/10/2023 14:12</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.03</v>
+        <v>3.53</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>04/11/2023 18:24</t>
+          <t>04/11/2023 18:23</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>4.39</v>
+        <v>4.95</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>28/10/2023 21:12</t>
+          <t>29/10/2023 14:12</t>
         </is>
       </c>
       <c r="T148" t="n">
-        <v>3.91</v>
+        <v>4.52</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>04/11/2023 18:24</t>
+          <t>04/11/2023 18:23</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-tenerife/Gb3CsLo0/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/levante-mirandes/6PTSkqvK/</t>
         </is>
       </c>
     </row>
@@ -14254,6 +14254,374 @@
       <c r="V150" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-fc-andorra/AsONbMm2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45235.67708333334</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:13</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:07</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T151" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:13</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-huesca/EVtsSunD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45235.77083333334</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>3</v>
+      </c>
+      <c r="J152" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:22</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:24</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T152" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-leganes/SYUOjPOD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45235.77083333334</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Alcorcon</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>3</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>29/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>29/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>29/10/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-racing-santander/2ewwTLW6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45235.875</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>2</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:36</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:50</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T154" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>05/11/2023 20:50</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-burgos-cf/O0OXl3gQ/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V154"/>
+  <dimension ref="A1:V155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14625,6 +14625,98 @@
         </is>
       </c>
     </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45236.875</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>R. Oviedo</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>06/11/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>06/11/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R155" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>30/10/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T155" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>06/11/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-r-oviedo/KW93qsHm/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V155"/>
+  <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,63 +3985,63 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.37</v>
+        <v>1.65</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:56</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.33</v>
+        <v>3.82</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.47</v>
+        <v>3.51</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:52</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.15</v>
+        <v>5.66</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.75</v>
+        <v>4.46</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:59</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-cartagena-sad/2FXXUSq4/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-racing-santander/CWkCDRET/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,63 +4077,63 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>1.65</v>
+        <v>2.37</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:56</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.82</v>
+        <v>3.33</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.51</v>
+        <v>3.47</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:52</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>5.66</v>
+        <v>3.15</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.46</v>
+        <v>3.75</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:59</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-racing-santander/CWkCDRET/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-cartagena-sad/2FXXUSq4/</t>
         </is>
       </c>
     </row>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.43</v>
+        <v>1.68</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.54</v>
+        <v>1.83</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:25</t>
+          <t>03/09/2023 18:16</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4.54</v>
+        <v>3.54</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.99</v>
+        <v>3.28</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:28</t>
+          <t>03/09/2023 18:24</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>7.98</v>
+        <v>6.01</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>7.65</v>
+        <v>5.59</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:28</t>
+          <t>03/09/2023 18:16</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-amorebieta/6mvPWlFi/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-eldense/dxXyUnaA/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>2</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Eldense</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
       <c r="J44" t="n">
-        <v>1.68</v>
+        <v>1.43</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:16</t>
+          <t>03/09/2023 18:25</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.54</v>
+        <v>4.54</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.28</v>
+        <v>3.99</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:24</t>
+          <t>03/09/2023 18:28</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>6.01</v>
+        <v>7.98</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>5.59</v>
+        <v>7.65</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:16</t>
+          <t>03/09/2023 18:28</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-eldense/dxXyUnaA/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-amorebieta/6mvPWlFi/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.22</v>
+        <v>1.85</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.13</v>
+        <v>3.44</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.53</v>
+        <v>3.47</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.71</v>
+        <v>4.79</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>4.63</v>
+        <v>5.36</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-villarreal/lzCGM4ip/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-amorebieta/AucBrnE3/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>1.85</v>
+        <v>2.22</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.44</v>
+        <v>3.13</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.79</v>
+        <v>3.71</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>5.36</v>
+        <v>4.63</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-amorebieta/AucBrnE3/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-villarreal/lzCGM4ip/</t>
         </is>
       </c>
     </row>
@@ -5265,30 +5265,30 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>2.76</v>
+        <v>2.85</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>03/09/2023 17:43</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -5296,40 +5296,40 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.17</v>
+        <v>3.16</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>03/09/2023 17:43</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>2.96</v>
+        <v>3.12</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>10/09/2023 17:10</t>
+          <t>10/09/2023 17:08</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>03/09/2023 17:43</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.7</v>
+        <v>2.79</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>10/09/2023 18:22</t>
+          <t>10/09/2023 18:27</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-zaragoza/WfPlRpqT/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-fc-andorra/xUmOAStc/</t>
         </is>
       </c>
     </row>
@@ -5357,30 +5357,30 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>2.85</v>
+        <v>2.76</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 17:43</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5388,40 +5388,40 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.16</v>
+        <v>3.17</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 17:43</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.12</v>
+        <v>2.96</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>10/09/2023 17:08</t>
+          <t>10/09/2023 17:10</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 17:43</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.79</v>
+        <v>2.7</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>10/09/2023 18:27</t>
+          <t>10/09/2023 18:22</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-fc-andorra/xUmOAStc/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-zaragoza/WfPlRpqT/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>1.93</v>
+        <v>3.14</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.78</v>
+        <v>2.46</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:24</t>
+          <t>16/09/2023 18:29</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.57</v>
+        <v>3.07</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.71</v>
+        <v>2.96</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:24</t>
+          <t>16/09/2023 18:28</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4.16</v>
+        <v>2.53</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>5.02</v>
+        <v>3.53</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:27</t>
+          <t>16/09/2023 18:29</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-fc-cartagena-sad/lhXkfqDF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-levante/tUzfzOLq/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Levante</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>2</v>
-      </c>
       <c r="J60" t="n">
-        <v>3.14</v>
+        <v>1.93</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.46</v>
+        <v>1.78</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:29</t>
+          <t>16/09/2023 18:24</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.07</v>
+        <v>3.57</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>2.96</v>
+        <v>3.71</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:28</t>
+          <t>16/09/2023 18:24</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.53</v>
+        <v>4.16</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.53</v>
+        <v>5.02</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:29</t>
+          <t>16/09/2023 18:27</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-levante/tUzfzOLq/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-fc-cartagena-sad/lhXkfqDF/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>1.88</v>
+        <v>1.46</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.88</v>
+        <v>1.56</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:28</t>
+          <t>17/09/2023 18:04</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.33</v>
+        <v>4.23</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.31</v>
+        <v>4.04</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:29</t>
+          <t>17/09/2023 18:26</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.97</v>
+        <v>8.23</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>5.07</v>
+        <v>6.99</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:29</t>
+          <t>17/09/2023 18:09</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-leganes/EZvwcoTd/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-eldense/IRyfg3SL/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1.46</v>
+        <v>1.88</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.56</v>
+        <v>1.88</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:04</t>
+          <t>17/09/2023 18:28</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>4.23</v>
+        <v>3.33</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>4.04</v>
+        <v>3.31</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:26</t>
+          <t>17/09/2023 18:29</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>8.23</v>
+        <v>4.97</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>6.99</v>
+        <v>5.07</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:09</t>
+          <t>17/09/2023 18:29</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-eldense/IRyfg3SL/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-leganes/EZvwcoTd/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.81</v>
+        <v>2.38</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.87</v>
+        <v>2.72</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 18:29</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.61</v>
+        <v>3.24</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.43</v>
+        <v>3.09</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 18:06</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.86</v>
+        <v>3.23</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.95</v>
+        <v>2.98</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 18:29</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-cartagena-sad/2yRCnhB6/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G86" t="n">
+        <v>3</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Mirandes</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
       <c r="J86" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.38</v>
+        <v>3.61</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.97</v>
+        <v>4.86</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.97</v>
+        <v>4.95</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,63 +8401,63 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.38</v>
+        <v>1.88</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.72</v>
+        <v>1.88</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:29</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.24</v>
+        <v>3.38</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.09</v>
+        <v>3.38</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:06</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.23</v>
+        <v>4.97</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.98</v>
+        <v>4.97</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:29</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-cartagena-sad/2yRCnhB6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
         </is>
       </c>
     </row>
@@ -8945,71 +8945,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
         <v>1</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Huesca</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
       <c r="J93" t="n">
-        <v>2.17</v>
+        <v>2.92</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.85</v>
+        <v>3.61</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>04/10/2023 18:54</t>
+          <t>04/10/2023 18:59</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.1</v>
+        <v>3.21</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.15</v>
+        <v>3.32</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
+          <t>04/10/2023 18:17</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
           <t>04/10/2023 18:55</t>
         </is>
       </c>
-      <c r="R93" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>01/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T93" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>04/10/2023 18:55</t>
-        </is>
-      </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-huesca/2BsMDU95/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-valladolid/pKr3c9PO/</t>
         </is>
       </c>
     </row>
@@ -9037,62 +9037,62 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Valladolid</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
       <c r="J94" t="n">
-        <v>2.92</v>
+        <v>2.17</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>3.61</v>
+        <v>1.85</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>04/10/2023 18:59</t>
+          <t>04/10/2023 18:54</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.21</v>
+        <v>3.1</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.32</v>
+        <v>3.15</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>04/10/2023 18:17</t>
+          <t>04/10/2023 18:55</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.6</v>
+        <v>3.92</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.23</v>
+        <v>5.82</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-valladolid/pKr3c9PO/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-huesca/2BsMDU95/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2.47</v>
+        <v>2.23</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.39</v>
+        <v>2.29</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>04/10/2023 21:26</t>
+          <t>04/10/2023 21:28</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.29</v>
+        <v>3.14</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.09</v>
+        <v>2.9</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>04/10/2023 21:26</t>
+          <t>04/10/2023 21:28</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.1</v>
+        <v>3.68</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>3.5</v>
+        <v>4.04</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>04/10/2023 21:26</t>
+          <t>04/10/2023 21:29</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-elche/OKrIEAfa/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-leganes/xfueaVfC/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2.23</v>
+        <v>2.47</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.29</v>
+        <v>2.39</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>04/10/2023 21:28</t>
+          <t>04/10/2023 21:26</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.14</v>
+        <v>3.29</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>2.9</v>
+        <v>3.09</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>04/10/2023 21:28</t>
+          <t>04/10/2023 21:26</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.68</v>
+        <v>3.1</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>4.04</v>
+        <v>3.5</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>04/10/2023 21:29</t>
+          <t>04/10/2023 21:26</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-leganes/xfueaVfC/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-elche/OKrIEAfa/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J97" t="n">
-        <v>2.21</v>
+        <v>3.33</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,48 +9336,48 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.57</v>
+        <v>4.05</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>05/10/2023 18:52</t>
+          <t>05/10/2023 18:57</t>
         </is>
       </c>
       <c r="N97" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
         <v>3.17</v>
       </c>
-      <c r="O97" t="inlineStr">
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>05/10/2023 18:53</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S97" t="inlineStr">
         <is>
           <t>01/10/2023 15:42</t>
         </is>
       </c>
-      <c r="P97" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>05/10/2023 18:52</t>
-        </is>
-      </c>
-      <c r="R97" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>01/10/2023 15:42</t>
-        </is>
-      </c>
       <c r="T97" t="n">
-        <v>3.23</v>
+        <v>2.15</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>05/10/2023 18:52</t>
+          <t>05/10/2023 18:57</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-zaragoza/69uu7ptM/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-eibar/dbCLFjug/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
         <v>1</v>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Eibar</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
-        <v>3</v>
-      </c>
       <c r="J98" t="n">
-        <v>3.33</v>
+        <v>2.21</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>4.05</v>
+        <v>2.57</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>05/10/2023 18:57</t>
+          <t>05/10/2023 18:52</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.15</v>
+        <v>3.17</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.17</v>
+        <v>3.05</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>05/10/2023 18:53</t>
+          <t>05/10/2023 18:52</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>2.42</v>
+        <v>3.79</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.15</v>
+        <v>3.23</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>05/10/2023 18:57</t>
+          <t>05/10/2023 18:52</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-eibar/dbCLFjug/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-zaragoza/69uu7ptM/</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -10885,63 +10885,63 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J114" t="n">
-        <v>2.32</v>
+        <v>2.31</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.99</v>
+        <v>2.39</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:21</t>
+          <t>14/10/2023 18:22</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.03</v>
+        <v>3.31</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.31</v>
+        <v>3.1</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:29</t>
+          <t>14/10/2023 18:22</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.59</v>
+        <v>3.38</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="T114" t="n">
-        <v>4.49</v>
+        <v>3.48</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:29</t>
+          <t>14/10/2023 18:26</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-zaragoza/4bSYumgb/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-racing-santander/vHbGN5wU/</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -10977,63 +10977,63 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>2.31</v>
+        <v>2.32</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>2.39</v>
+        <v>1.99</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:22</t>
+          <t>14/10/2023 18:21</t>
         </is>
       </c>
       <c r="N115" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
         <v>3.31</v>
       </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>08/10/2023 17:43</t>
-        </is>
-      </c>
-      <c r="P115" t="n">
-        <v>3.1</v>
-      </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:22</t>
+          <t>14/10/2023 18:29</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>3.38</v>
+        <v>3.59</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>3.48</v>
+        <v>4.49</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:26</t>
+          <t>14/10/2023 18:29</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-racing-santander/vHbGN5wU/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-zaragoza/4bSYumgb/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>09/10/2023 11:11</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>15/10/2023 18:22</t>
+          <t>15/10/2023 18:23</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.87</v>
+        <v>3.57</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>09/10/2023 11:11</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.7</v>
+        <v>3.63</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>15/10/2023 18:22</t>
+          <t>15/10/2023 18:23</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>6.75</v>
+        <v>5.98</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>09/10/2023 11:11</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>7.53</v>
+        <v>5.58</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>15/10/2023 18:24</t>
+          <t>15/10/2023 18:23</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eibar-huesca/GxjrJPoo/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-amorebieta/QDGsvRNA/</t>
         </is>
       </c>
     </row>
@@ -11521,71 +11521,71 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>09/10/2023 11:11</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1.74</v>
+        <v>1.59</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>15/10/2023 18:23</t>
+          <t>15/10/2023 18:22</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.57</v>
+        <v>3.87</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>09/10/2023 11:11</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.63</v>
+        <v>3.7</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>15/10/2023 18:23</t>
+          <t>15/10/2023 18:22</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>5.98</v>
+        <v>6.75</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>09/10/2023 11:11</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>5.58</v>
+        <v>7.53</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>15/10/2023 18:23</t>
+          <t>15/10/2023 18:24</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-amorebieta/QDGsvRNA/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eibar-huesca/GxjrJPoo/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G130" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
         <v>3</v>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Burgos CF</t>
-        </is>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
       <c r="J130" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>22/10/2023 18:29</t>
+          <t>22/10/2023 18:09</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.37</v>
+        <v>3.46</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.31</v>
+        <v>3.1</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>22/10/2023 18:29</t>
+          <t>22/10/2023 18:09</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>4.23</v>
+        <v>4.19</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>3.99</v>
+        <v>4.02</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>22/10/2023 18:29</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-burgos-cf/IJsDtKq9/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-gijon/A3sJKxNk/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>22/10/2023 18:09</t>
+          <t>22/10/2023 18:29</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.46</v>
+        <v>3.37</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.1</v>
+        <v>3.31</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>22/10/2023 18:09</t>
+          <t>22/10/2023 18:29</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>4.19</v>
+        <v>4.23</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>4.02</v>
+        <v>3.99</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:29</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-gijon/A3sJKxNk/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-burgos-cf/IJsDtKq9/</t>
         </is>
       </c>
     </row>
@@ -14373,62 +14373,62 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="I152" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>29/10/2023 18:42</t>
+          <t>29/10/2023 21:12</t>
         </is>
       </c>
       <c r="L152" t="n">
-        <v>2.98</v>
+        <v>2.63</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>05/11/2023 18:22</t>
+          <t>05/11/2023 18:29</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>3.18</v>
+        <v>3.25</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>29/10/2023 18:42</t>
+          <t>29/10/2023 21:12</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3.03</v>
+        <v>3.22</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>05/11/2023 18:24</t>
+          <t>05/11/2023 18:28</t>
         </is>
       </c>
       <c r="R152" t="n">
-        <v>3.29</v>
+        <v>3.58</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
-          <t>29/10/2023 18:42</t>
+          <t>29/10/2023 21:12</t>
         </is>
       </c>
       <c r="T152" t="n">
-        <v>2.76</v>
+        <v>2.97</v>
       </c>
       <c r="U152" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-leganes/SYUOjPOD/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-racing-santander/2ewwTLW6/</t>
         </is>
       </c>
     </row>
@@ -14465,71 +14465,71 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
         <v>3</v>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Racing Santander</t>
-        </is>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
       <c r="J153" t="n">
-        <v>2.21</v>
+        <v>2.38</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>29/10/2023 21:12</t>
+          <t>29/10/2023 18:42</t>
         </is>
       </c>
       <c r="L153" t="n">
-        <v>2.63</v>
+        <v>2.98</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
+          <t>05/11/2023 18:22</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:24</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
           <t>05/11/2023 18:29</t>
         </is>
       </c>
-      <c r="N153" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O153" t="inlineStr">
-        <is>
-          <t>29/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="P153" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="Q153" t="inlineStr">
-        <is>
-          <t>05/11/2023 18:28</t>
-        </is>
-      </c>
-      <c r="R153" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="S153" t="inlineStr">
-        <is>
-          <t>29/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="T153" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="U153" t="inlineStr">
-        <is>
-          <t>05/11/2023 18:29</t>
-        </is>
-      </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-racing-santander/2ewwTLW6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-leganes/SYUOjPOD/</t>
         </is>
       </c>
     </row>
@@ -14714,6 +14714,98 @@
       <c r="V155" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-r-oviedo/KW93qsHm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45240.85416666666</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>2</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>10/11/2023 20:27</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P156" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>10/11/2023 20:29</t>
+        </is>
+      </c>
+      <c r="R156" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T156" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>10/11/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-levante/lQGJuaGC/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V156"/>
+  <dimension ref="A1:V160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,63 +3985,63 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J39" t="n">
-        <v>1.65</v>
+        <v>2.37</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:56</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.82</v>
+        <v>3.33</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.51</v>
+        <v>3.47</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:52</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>5.66</v>
+        <v>3.15</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.46</v>
+        <v>3.75</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:59</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-racing-santander/CWkCDRET/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-cartagena-sad/2FXXUSq4/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,63 +4077,63 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2.37</v>
+        <v>1.65</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:56</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.33</v>
+        <v>3.82</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.47</v>
+        <v>3.51</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:52</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>3.15</v>
+        <v>5.66</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>3.75</v>
+        <v>4.46</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:59</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-cartagena-sad/2FXXUSq4/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-racing-santander/CWkCDRET/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.46</v>
+        <v>1.88</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.56</v>
+        <v>1.88</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:04</t>
+          <t>17/09/2023 18:28</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.23</v>
+        <v>3.33</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.04</v>
+        <v>3.31</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:26</t>
+          <t>17/09/2023 18:29</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>8.23</v>
+        <v>4.97</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>6.99</v>
+        <v>5.07</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:09</t>
+          <t>17/09/2023 18:29</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-eldense/IRyfg3SL/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-leganes/EZvwcoTd/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J65" t="n">
-        <v>1.88</v>
+        <v>1.46</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.88</v>
+        <v>1.56</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:28</t>
+          <t>17/09/2023 18:04</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.33</v>
+        <v>4.23</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.31</v>
+        <v>4.04</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:29</t>
+          <t>17/09/2023 18:26</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.97</v>
+        <v>8.23</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>5.07</v>
+        <v>6.99</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:29</t>
+          <t>17/09/2023 18:09</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-leganes/EZvwcoTd/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-eldense/IRyfg3SL/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,63 +7481,63 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.62</v>
+        <v>2.69</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.73</v>
+        <v>2.26</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>25/09/2023 20:20</t>
+          <t>25/09/2023 20:59</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.07</v>
+        <v>3.01</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>2.99</v>
+        <v>3.06</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>25/09/2023 20:20</t>
+          <t>25/09/2023 20:59</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.02</v>
+        <v>3</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>24/09/2023 16:13</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.06</v>
+        <v>3.85</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>25/09/2023 20:20</t>
+          <t>25/09/2023 20:59</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-espanyol/xUT0kfRm/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-zaragoza/YcUyouz2/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,63 +7573,63 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>2.69</v>
+        <v>2.62</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.26</v>
+        <v>2.73</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>25/09/2023 20:59</t>
+          <t>25/09/2023 20:20</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.01</v>
+        <v>3.07</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>24/09/2023 16:13</t>
         </is>
       </c>
       <c r="P78" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>25/09/2023 20:20</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:13</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
         <v>3.06</v>
       </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>25/09/2023 20:59</t>
-        </is>
-      </c>
-      <c r="R78" t="n">
-        <v>3</v>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>18/09/2023 11:42</t>
-        </is>
-      </c>
-      <c r="T78" t="n">
-        <v>3.85</v>
-      </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>25/09/2023 20:59</t>
+          <t>25/09/2023 20:20</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-zaragoza/YcUyouz2/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-espanyol/xUT0kfRm/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>1.96</v>
+        <v>2.51</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>23/09/2023 20:12</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.93</v>
+        <v>2.59</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
+          <t>30/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:46</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
           <t>30/09/2023 20:41</t>
         </is>
       </c>
-      <c r="N82" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P82" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:59</t>
-        </is>
-      </c>
-      <c r="R82" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T82" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:54</t>
-        </is>
-      </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.51</v>
+        <v>1.96</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.59</v>
+        <v>1.93</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>30/09/2023 20:40</t>
+          <t>30/09/2023 20:41</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.15</v>
+        <v>3.52</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>30/09/2023 20:46</t>
+          <t>30/09/2023 20:59</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.18</v>
+        <v>4.07</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>3.02</v>
+        <v>4.55</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>30/09/2023 20:41</t>
+          <t>30/09/2023 20:54</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>2.38</v>
+        <v>1.81</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.72</v>
+        <v>1.87</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:29</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.24</v>
+        <v>3.61</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.09</v>
+        <v>3.43</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:06</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.23</v>
+        <v>4.86</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.98</v>
+        <v>4.95</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:29</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-cartagena-sad/2yRCnhB6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.61</v>
+        <v>3.38</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.86</v>
+        <v>4.97</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.95</v>
+        <v>4.97</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,63 +8401,63 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1.88</v>
+        <v>2.38</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.88</v>
+        <v>2.72</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:29</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.38</v>
+        <v>3.24</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.38</v>
+        <v>3.09</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:06</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.97</v>
+        <v>3.23</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>4.97</v>
+        <v>2.98</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:29</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-cartagena-sad/2yRCnhB6/</t>
         </is>
       </c>
     </row>
@@ -8945,62 +8945,62 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Valladolid</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
       <c r="J93" t="n">
-        <v>2.92</v>
+        <v>2.17</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>3.61</v>
+        <v>1.85</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>04/10/2023 18:59</t>
+          <t>04/10/2023 18:54</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.21</v>
+        <v>3.1</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.32</v>
+        <v>3.15</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>04/10/2023 18:17</t>
+          <t>04/10/2023 18:55</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.6</v>
+        <v>3.92</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.23</v>
+        <v>5.82</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-valladolid/pKr3c9PO/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-huesca/2BsMDU95/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>1</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Huesca</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
       <c r="J94" t="n">
-        <v>2.17</v>
+        <v>2.92</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.85</v>
+        <v>3.61</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>04/10/2023 18:54</t>
+          <t>04/10/2023 18:59</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.1</v>
+        <v>3.21</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.15</v>
+        <v>3.32</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
+          <t>04/10/2023 18:17</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
           <t>04/10/2023 18:55</t>
         </is>
       </c>
-      <c r="R94" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>01/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T94" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>04/10/2023 18:55</t>
-        </is>
-      </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-huesca/2BsMDU95/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-valladolid/pKr3c9PO/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
         <v>1</v>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Eibar</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
-        <v>3</v>
-      </c>
       <c r="J97" t="n">
-        <v>3.33</v>
+        <v>2.21</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>4.05</v>
+        <v>2.57</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>05/10/2023 18:57</t>
+          <t>05/10/2023 18:52</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.15</v>
+        <v>3.17</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.17</v>
+        <v>3.05</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>05/10/2023 18:53</t>
+          <t>05/10/2023 18:52</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>2.42</v>
+        <v>3.79</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2.15</v>
+        <v>3.23</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>05/10/2023 18:57</t>
+          <t>05/10/2023 18:52</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-eibar/dbCLFjug/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-zaragoza/69uu7ptM/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J98" t="n">
-        <v>2.21</v>
+        <v>3.33</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,48 +9428,48 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.57</v>
+        <v>4.05</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>05/10/2023 18:52</t>
+          <t>05/10/2023 18:57</t>
         </is>
       </c>
       <c r="N98" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
         <v>3.17</v>
       </c>
-      <c r="O98" t="inlineStr">
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>05/10/2023 18:53</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S98" t="inlineStr">
         <is>
           <t>01/10/2023 15:42</t>
         </is>
       </c>
-      <c r="P98" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>05/10/2023 18:52</t>
-        </is>
-      </c>
-      <c r="R98" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>01/10/2023 15:42</t>
-        </is>
-      </c>
       <c r="T98" t="n">
-        <v>3.23</v>
+        <v>2.15</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>05/10/2023 18:52</t>
+          <t>05/10/2023 18:57</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-zaragoza/69uu7ptM/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-eibar/dbCLFjug/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>09/10/2023 11:11</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.74</v>
+        <v>1.59</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>15/10/2023 18:23</t>
+          <t>15/10/2023 18:22</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.57</v>
+        <v>3.87</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>09/10/2023 11:11</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.63</v>
+        <v>3.7</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>15/10/2023 18:23</t>
+          <t>15/10/2023 18:22</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>5.98</v>
+        <v>6.75</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>09/10/2023 11:11</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>5.58</v>
+        <v>7.53</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>15/10/2023 18:23</t>
+          <t>15/10/2023 18:24</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-amorebieta/QDGsvRNA/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eibar-huesca/GxjrJPoo/</t>
         </is>
       </c>
     </row>
@@ -11521,71 +11521,71 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>09/10/2023 11:11</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>15/10/2023 18:22</t>
+          <t>15/10/2023 18:23</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.87</v>
+        <v>3.57</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>09/10/2023 11:11</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.7</v>
+        <v>3.63</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>15/10/2023 18:22</t>
+          <t>15/10/2023 18:23</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>6.75</v>
+        <v>5.98</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>09/10/2023 11:11</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>7.53</v>
+        <v>5.58</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>15/10/2023 18:24</t>
+          <t>15/10/2023 18:23</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eibar-huesca/GxjrJPoo/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-amorebieta/QDGsvRNA/</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -12909,63 +12909,63 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>2.67</v>
+        <v>2.53</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 21:12</t>
         </is>
       </c>
       <c r="L136" t="n">
-        <v>2.53</v>
+        <v>2.39</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>28/10/2023 18:27</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 21:12</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>28/10/2023 18:26</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>2.91</v>
+        <v>3.05</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 21:12</t>
         </is>
       </c>
       <c r="T136" t="n">
-        <v>3.13</v>
+        <v>3.44</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>28/10/2023 18:27</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-espanyol/C6pQVNnl/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-levante/WjPJa2Ye/</t>
         </is>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -13001,63 +13001,63 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
       <c r="J137" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
         <v>2.53</v>
       </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>22/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>2.39</v>
-      </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:27</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.26</v>
+        <v>3.19</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>22/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P137" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
         <v>3.13</v>
       </c>
-      <c r="Q137" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:29</t>
-        </is>
-      </c>
-      <c r="R137" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>22/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="T137" t="n">
-        <v>3.44</v>
-      </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:27</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-levante/WjPJa2Ye/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-espanyol/C6pQVNnl/</t>
         </is>
       </c>
     </row>
@@ -13361,71 +13361,71 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>2.02</v>
+        <v>1.69</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>23/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L141" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>29/10/2023 18:01</t>
+          <t>29/10/2023 18:29</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.14</v>
+        <v>3.91</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>23/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.3</v>
+        <v>3.67</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>29/10/2023 18:27</t>
+          <t>29/10/2023 18:29</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>4.58</v>
+        <v>5.32</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>23/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T141" t="n">
-        <v>5.59</v>
+        <v>4.96</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>29/10/2023 18:27</t>
+          <t>29/10/2023 18:29</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-alcorcon/EV4kxQ9K/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-villarreal/tI6svnu8/</t>
         </is>
       </c>
     </row>
@@ -13453,71 +13453,71 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>1.69</v>
+        <v>2.02</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 21:12</t>
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>29/10/2023 18:29</t>
+          <t>29/10/2023 18:01</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.91</v>
+        <v>3.14</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 21:12</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.67</v>
+        <v>3.3</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>29/10/2023 18:29</t>
+          <t>29/10/2023 18:27</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>5.32</v>
+        <v>4.58</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 21:12</t>
         </is>
       </c>
       <c r="T142" t="n">
-        <v>4.96</v>
+        <v>5.59</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>29/10/2023 18:29</t>
+          <t>29/10/2023 18:27</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-villarreal/tI6svnu8/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-alcorcon/EV4kxQ9K/</t>
         </is>
       </c>
     </row>
@@ -14806,6 +14806,374 @@
       <c r="V156" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/leganes-levante/lQGJuaGC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45241.67708333334</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>2</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>3</v>
+      </c>
+      <c r="J157" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:11</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P157" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:05</t>
+        </is>
+      </c>
+      <c r="R157" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T157" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:07</t>
+        </is>
+      </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-valladolid/SGFNvJVI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45241.77083333334</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Mirandes</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>1</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Ferrol</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>2</v>
+      </c>
+      <c r="J158" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:24</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P158" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:24</t>
+        </is>
+      </c>
+      <c r="R158" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T158" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:24</t>
+        </is>
+      </c>
+      <c r="V158" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-ferrol/UqxgfbV5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45241.77083333334</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>2</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:20</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R159" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T159" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V159" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-zaragoza/fk2Gtu16/</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45241.875</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>1</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:52</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P160" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R160" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T160" t="n">
+        <v>9.52</v>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>11/11/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V160" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-amorebieta/veqtc0om/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V160"/>
+  <dimension ref="A1:V161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -12909,63 +12909,63 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
       <c r="J136" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
         <v>2.53</v>
       </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>22/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>2.39</v>
-      </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:27</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.26</v>
+        <v>3.19</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>22/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P136" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
         <v>3.13</v>
       </c>
-      <c r="Q136" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:29</t>
-        </is>
-      </c>
-      <c r="R136" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>22/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="T136" t="n">
-        <v>3.44</v>
-      </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:27</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-levante/WjPJa2Ye/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-espanyol/C6pQVNnl/</t>
         </is>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -13001,63 +13001,63 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>2.67</v>
+        <v>2.53</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 21:12</t>
         </is>
       </c>
       <c r="L137" t="n">
-        <v>2.53</v>
+        <v>2.39</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>28/10/2023 18:27</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 21:12</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>28/10/2023 18:26</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>2.91</v>
+        <v>3.05</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 21:12</t>
         </is>
       </c>
       <c r="T137" t="n">
-        <v>3.13</v>
+        <v>3.44</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>28/10/2023 18:27</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-espanyol/C6pQVNnl/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-levante/WjPJa2Ye/</t>
         </is>
       </c>
     </row>
@@ -13361,71 +13361,71 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>1.69</v>
+        <v>2.02</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 21:12</t>
         </is>
       </c>
       <c r="L141" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>29/10/2023 18:29</t>
+          <t>29/10/2023 18:01</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.91</v>
+        <v>3.14</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 21:12</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.67</v>
+        <v>3.3</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>29/10/2023 18:29</t>
+          <t>29/10/2023 18:27</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>5.32</v>
+        <v>4.58</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 21:12</t>
         </is>
       </c>
       <c r="T141" t="n">
-        <v>4.96</v>
+        <v>5.59</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>29/10/2023 18:29</t>
+          <t>29/10/2023 18:27</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-villarreal/tI6svnu8/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-alcorcon/EV4kxQ9K/</t>
         </is>
       </c>
     </row>
@@ -13453,71 +13453,71 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>2.02</v>
+        <v>1.69</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>23/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>29/10/2023 18:01</t>
+          <t>29/10/2023 18:29</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.14</v>
+        <v>3.91</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>23/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.3</v>
+        <v>3.67</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>29/10/2023 18:27</t>
+          <t>29/10/2023 18:29</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>4.58</v>
+        <v>5.32</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>23/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T142" t="n">
-        <v>5.59</v>
+        <v>4.96</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>29/10/2023 18:27</t>
+          <t>29/10/2023 18:29</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-alcorcon/EV4kxQ9K/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-villarreal/tI6svnu8/</t>
         </is>
       </c>
     </row>
@@ -13913,7 +13913,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -13921,63 +13921,63 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J147" t="n">
-        <v>1.99</v>
+        <v>1.65</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>28/10/2023 21:12</t>
+          <t>29/10/2023 14:12</t>
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>04/11/2023 18:24</t>
+          <t>04/11/2023 18:23</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.32</v>
+        <v>4.24</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>28/10/2023 21:12</t>
+          <t>29/10/2023 14:12</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.03</v>
+        <v>3.53</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>04/11/2023 18:24</t>
+          <t>04/11/2023 18:23</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>4.39</v>
+        <v>4.95</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>28/10/2023 21:12</t>
+          <t>29/10/2023 14:12</t>
         </is>
       </c>
       <c r="T147" t="n">
-        <v>3.91</v>
+        <v>4.52</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>04/11/2023 18:24</t>
+          <t>04/11/2023 18:23</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-tenerife/Gb3CsLo0/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/levante-mirandes/6PTSkqvK/</t>
         </is>
       </c>
     </row>
@@ -14005,7 +14005,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G148" t="n">
@@ -14013,63 +14013,63 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>1.65</v>
+        <v>1.99</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>29/10/2023 14:12</t>
+          <t>28/10/2023 21:12</t>
         </is>
       </c>
       <c r="L148" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>04/11/2023 18:23</t>
+          <t>04/11/2023 18:24</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>4.24</v>
+        <v>3.32</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>29/10/2023 14:12</t>
+          <t>28/10/2023 21:12</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.53</v>
+        <v>3.03</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>04/11/2023 18:23</t>
+          <t>04/11/2023 18:24</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>4.95</v>
+        <v>4.39</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>29/10/2023 14:12</t>
+          <t>28/10/2023 21:12</t>
         </is>
       </c>
       <c r="T148" t="n">
-        <v>4.52</v>
+        <v>3.91</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>04/11/2023 18:23</t>
+          <t>04/11/2023 18:24</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/levante-mirandes/6PTSkqvK/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-tenerife/Gb3CsLo0/</t>
         </is>
       </c>
     </row>
@@ -14925,71 +14925,71 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>2.4</v>
+        <v>1.99</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="L158" t="n">
-        <v>2.48</v>
+        <v>2.07</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>11/11/2023 18:24</t>
+          <t>11/11/2023 18:20</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>3.11</v>
+        <v>3.37</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3.04</v>
+        <v>3.26</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>11/11/2023 18:24</t>
+          <t>11/11/2023 18:29</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>3.32</v>
+        <v>4.16</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="T158" t="n">
-        <v>3.39</v>
+        <v>4.19</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>11/11/2023 18:24</t>
+          <t>11/11/2023 18:29</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-ferrol/UqxgfbV5/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-zaragoza/fk2Gtu16/</t>
         </is>
       </c>
     </row>
@@ -15017,71 +15017,71 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G159" t="n">
+        <v>1</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Ferrol</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
         <v>2</v>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>Zaragoza</t>
-        </is>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
       <c r="J159" t="n">
-        <v>1.99</v>
+        <v>2.4</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="L159" t="n">
-        <v>2.07</v>
+        <v>2.48</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>11/11/2023 18:20</t>
+          <t>11/11/2023 18:24</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>3.37</v>
+        <v>3.11</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3.26</v>
+        <v>3.04</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>11/11/2023 18:29</t>
+          <t>11/11/2023 18:24</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>4.16</v>
+        <v>3.32</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="T159" t="n">
-        <v>4.19</v>
+        <v>3.39</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>11/11/2023 18:29</t>
+          <t>11/11/2023 18:24</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-zaragoza/fk2Gtu16/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-ferrol/UqxgfbV5/</t>
         </is>
       </c>
     </row>
@@ -15174,6 +15174,98 @@
       <c r="V160" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/gijon-amorebieta/veqtc0om/</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45242.58333333334</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>4</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Alcorcon</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>2</v>
+      </c>
+      <c r="J161" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>05/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>05/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P161" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R161" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>05/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T161" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V161" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-alcorcon/04pxbtWt/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V161"/>
+  <dimension ref="A1:V165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5265,30 +5265,30 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>3</v>
       </c>
       <c r="J53" t="n">
-        <v>2.85</v>
+        <v>2.76</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 17:43</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
@@ -5296,40 +5296,40 @@
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.16</v>
+        <v>3.17</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 17:43</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.12</v>
+        <v>2.96</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>10/09/2023 17:08</t>
+          <t>10/09/2023 17:10</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 17:43</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.79</v>
+        <v>2.7</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>10/09/2023 18:27</t>
+          <t>10/09/2023 18:22</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-fc-andorra/xUmOAStc/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-zaragoza/WfPlRpqT/</t>
         </is>
       </c>
     </row>
@@ -5357,30 +5357,30 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>3</v>
       </c>
       <c r="J54" t="n">
-        <v>2.76</v>
+        <v>2.85</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>03/09/2023 17:43</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
@@ -5388,40 +5388,40 @@
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.17</v>
+        <v>3.16</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>03/09/2023 17:43</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>2.96</v>
+        <v>3.12</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>10/09/2023 17:10</t>
+          <t>10/09/2023 17:08</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>03/09/2023 17:43</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.7</v>
+        <v>2.79</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>10/09/2023 18:22</t>
+          <t>10/09/2023 18:27</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-zaragoza/WfPlRpqT/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-fc-andorra/xUmOAStc/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Levante</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
       <c r="J59" t="n">
-        <v>3.14</v>
+        <v>1.93</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.46</v>
+        <v>1.78</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:29</t>
+          <t>16/09/2023 18:24</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.07</v>
+        <v>3.57</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2.96</v>
+        <v>3.71</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:28</t>
+          <t>16/09/2023 18:24</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.53</v>
+        <v>4.16</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.53</v>
+        <v>5.02</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:29</t>
+          <t>16/09/2023 18:27</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-levante/tUzfzOLq/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-fc-cartagena-sad/lhXkfqDF/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.93</v>
+        <v>3.14</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.78</v>
+        <v>2.46</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:24</t>
+          <t>16/09/2023 18:29</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.57</v>
+        <v>3.07</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.71</v>
+        <v>2.96</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:24</t>
+          <t>16/09/2023 18:28</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.16</v>
+        <v>2.53</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>5.02</v>
+        <v>3.53</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:27</t>
+          <t>16/09/2023 18:29</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-fc-cartagena-sad/lhXkfqDF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-levante/tUzfzOLq/</t>
         </is>
       </c>
     </row>
@@ -8945,71 +8945,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
         <v>1</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Huesca</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
       <c r="J93" t="n">
-        <v>2.17</v>
+        <v>2.92</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.85</v>
+        <v>3.61</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>04/10/2023 18:54</t>
+          <t>04/10/2023 18:59</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.1</v>
+        <v>3.21</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.15</v>
+        <v>3.32</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
+          <t>04/10/2023 18:17</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
           <t>04/10/2023 18:55</t>
         </is>
       </c>
-      <c r="R93" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>01/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T93" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>04/10/2023 18:55</t>
-        </is>
-      </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-huesca/2BsMDU95/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-valladolid/pKr3c9PO/</t>
         </is>
       </c>
     </row>
@@ -9037,62 +9037,62 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Valladolid</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
       <c r="J94" t="n">
-        <v>2.92</v>
+        <v>2.17</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>3.61</v>
+        <v>1.85</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>04/10/2023 18:59</t>
+          <t>04/10/2023 18:54</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.21</v>
+        <v>3.1</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.32</v>
+        <v>3.15</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>04/10/2023 18:17</t>
+          <t>04/10/2023 18:55</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.6</v>
+        <v>3.92</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.23</v>
+        <v>5.82</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-valladolid/pKr3c9PO/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-huesca/2BsMDU95/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2.23</v>
+        <v>2.47</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.29</v>
+        <v>2.39</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>04/10/2023 21:28</t>
+          <t>04/10/2023 21:26</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.14</v>
+        <v>3.29</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>2.9</v>
+        <v>3.09</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>04/10/2023 21:28</t>
+          <t>04/10/2023 21:26</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.68</v>
+        <v>3.1</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>4.04</v>
+        <v>3.5</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>04/10/2023 21:29</t>
+          <t>04/10/2023 21:26</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-leganes/xfueaVfC/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-elche/OKrIEAfa/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2.47</v>
+        <v>2.23</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.39</v>
+        <v>2.29</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>04/10/2023 21:26</t>
+          <t>04/10/2023 21:28</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.29</v>
+        <v>3.14</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.09</v>
+        <v>2.9</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>04/10/2023 21:26</t>
+          <t>04/10/2023 21:28</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.1</v>
+        <v>3.68</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.5</v>
+        <v>4.04</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>04/10/2023 21:26</t>
+          <t>04/10/2023 21:29</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-elche/OKrIEAfa/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-leganes/xfueaVfC/</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -10885,63 +10885,63 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J114" t="n">
-        <v>2.31</v>
+        <v>2.32</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.39</v>
+        <v>1.99</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:22</t>
+          <t>14/10/2023 18:21</t>
         </is>
       </c>
       <c r="N114" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
         <v>3.31</v>
       </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>08/10/2023 17:43</t>
-        </is>
-      </c>
-      <c r="P114" t="n">
-        <v>3.1</v>
-      </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:22</t>
+          <t>14/10/2023 18:29</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.38</v>
+        <v>3.59</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="T114" t="n">
-        <v>3.48</v>
+        <v>4.49</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:26</t>
+          <t>14/10/2023 18:29</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-racing-santander/vHbGN5wU/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-zaragoza/4bSYumgb/</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -10977,63 +10977,63 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J115" t="n">
-        <v>2.32</v>
+        <v>2.31</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.99</v>
+        <v>2.39</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:21</t>
+          <t>14/10/2023 18:22</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.03</v>
+        <v>3.31</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.31</v>
+        <v>3.1</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:29</t>
+          <t>14/10/2023 18:22</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>3.59</v>
+        <v>3.38</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>4.49</v>
+        <v>3.48</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:29</t>
+          <t>14/10/2023 18:26</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-zaragoza/4bSYumgb/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-racing-santander/vHbGN5wU/</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -11805,38 +11805,38 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J124" t="n">
-        <v>2.86</v>
+        <v>2.13</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>15/10/2023 17:42</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>3.78</v>
+        <v>2.02</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>21/10/2023 16:13</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>2.87</v>
+        <v>3.48</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>15/10/2023 17:42</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>2.93</v>
+        <v>3.51</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -11844,24 +11844,24 @@
         </is>
       </c>
       <c r="R124" t="n">
-        <v>3.01</v>
+        <v>3.54</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>15/10/2023 17:42</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="T124" t="n">
-        <v>2.37</v>
+        <v>4.02</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>21/10/2023 16:13</t>
+          <t>21/10/2023 16:00</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-r-oviedo/6VzSIGi2/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-mirandes/htCdYeik/</t>
         </is>
       </c>
     </row>
@@ -11889,7 +11889,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -11897,38 +11897,38 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>2.13</v>
+        <v>2.86</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>15/10/2023 17:42</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>2.02</v>
+        <v>3.78</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 16:13</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>3.48</v>
+        <v>2.87</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>15/10/2023 17:42</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3.51</v>
+        <v>2.93</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -11936,24 +11936,24 @@
         </is>
       </c>
       <c r="R125" t="n">
-        <v>3.54</v>
+        <v>3.01</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>15/10/2023 17:42</t>
         </is>
       </c>
       <c r="T125" t="n">
-        <v>4.02</v>
+        <v>2.37</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>21/10/2023 16:00</t>
+          <t>21/10/2023 16:13</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-mirandes/htCdYeik/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-r-oviedo/6VzSIGi2/</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -12909,63 +12909,63 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>2.67</v>
+        <v>2.53</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 21:12</t>
         </is>
       </c>
       <c r="L136" t="n">
-        <v>2.53</v>
+        <v>2.39</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>28/10/2023 18:27</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 21:12</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>28/10/2023 18:26</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>2.91</v>
+        <v>3.05</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 21:12</t>
         </is>
       </c>
       <c r="T136" t="n">
-        <v>3.13</v>
+        <v>3.44</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>28/10/2023 18:27</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-espanyol/C6pQVNnl/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-levante/WjPJa2Ye/</t>
         </is>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -13001,63 +13001,63 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
       <c r="J137" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
         <v>2.53</v>
       </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>22/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>2.39</v>
-      </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:27</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.26</v>
+        <v>3.19</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>22/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P137" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
         <v>3.13</v>
       </c>
-      <c r="Q137" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:29</t>
-        </is>
-      </c>
-      <c r="R137" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>22/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="T137" t="n">
-        <v>3.44</v>
-      </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:27</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-levante/WjPJa2Ye/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-espanyol/C6pQVNnl/</t>
         </is>
       </c>
     </row>
@@ -13361,71 +13361,71 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>2.02</v>
+        <v>1.69</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>23/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L141" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>29/10/2023 18:01</t>
+          <t>29/10/2023 18:29</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.14</v>
+        <v>3.91</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>23/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.3</v>
+        <v>3.67</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>29/10/2023 18:27</t>
+          <t>29/10/2023 18:29</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>4.58</v>
+        <v>5.32</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>23/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T141" t="n">
-        <v>5.59</v>
+        <v>4.96</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>29/10/2023 18:27</t>
+          <t>29/10/2023 18:29</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-alcorcon/EV4kxQ9K/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-villarreal/tI6svnu8/</t>
         </is>
       </c>
     </row>
@@ -13453,71 +13453,71 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>1.69</v>
+        <v>2.02</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 21:12</t>
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>29/10/2023 18:29</t>
+          <t>29/10/2023 18:01</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.91</v>
+        <v>3.14</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 21:12</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.67</v>
+        <v>3.3</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>29/10/2023 18:29</t>
+          <t>29/10/2023 18:27</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>5.32</v>
+        <v>4.58</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 21:12</t>
         </is>
       </c>
       <c r="T142" t="n">
-        <v>4.96</v>
+        <v>5.59</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>29/10/2023 18:29</t>
+          <t>29/10/2023 18:27</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-villarreal/tI6svnu8/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-alcorcon/EV4kxQ9K/</t>
         </is>
       </c>
     </row>
@@ -13913,7 +13913,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -13921,63 +13921,63 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>1.65</v>
+        <v>1.99</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>29/10/2023 14:12</t>
+          <t>28/10/2023 21:12</t>
         </is>
       </c>
       <c r="L147" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>04/11/2023 18:23</t>
+          <t>04/11/2023 18:24</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>4.24</v>
+        <v>3.32</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>29/10/2023 14:12</t>
+          <t>28/10/2023 21:12</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.53</v>
+        <v>3.03</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>04/11/2023 18:23</t>
+          <t>04/11/2023 18:24</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>4.95</v>
+        <v>4.39</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>29/10/2023 14:12</t>
+          <t>28/10/2023 21:12</t>
         </is>
       </c>
       <c r="T147" t="n">
-        <v>4.52</v>
+        <v>3.91</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>04/11/2023 18:23</t>
+          <t>04/11/2023 18:24</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/levante-mirandes/6PTSkqvK/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-tenerife/Gb3CsLo0/</t>
         </is>
       </c>
     </row>
@@ -14005,7 +14005,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="G148" t="n">
@@ -14013,63 +14013,63 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J148" t="n">
-        <v>1.99</v>
+        <v>1.65</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>28/10/2023 21:12</t>
+          <t>29/10/2023 14:12</t>
         </is>
       </c>
       <c r="L148" t="n">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>04/11/2023 18:24</t>
+          <t>04/11/2023 18:23</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.32</v>
+        <v>4.24</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>28/10/2023 21:12</t>
+          <t>29/10/2023 14:12</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.03</v>
+        <v>3.53</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>04/11/2023 18:24</t>
+          <t>04/11/2023 18:23</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>4.39</v>
+        <v>4.95</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>28/10/2023 21:12</t>
+          <t>29/10/2023 14:12</t>
         </is>
       </c>
       <c r="T148" t="n">
-        <v>3.91</v>
+        <v>4.52</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>04/11/2023 18:24</t>
+          <t>04/11/2023 18:23</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-tenerife/Gb3CsLo0/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/levante-mirandes/6PTSkqvK/</t>
         </is>
       </c>
     </row>
@@ -15266,6 +15266,374 @@
       <c r="V161" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-alcorcon/04pxbtWt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45242.67708333334</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Andorra</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>1</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>3</v>
+      </c>
+      <c r="J162" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>05/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:14</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>05/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P162" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:14</t>
+        </is>
+      </c>
+      <c r="R162" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>05/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T162" t="n">
+        <v>4.64</v>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:14</t>
+        </is>
+      </c>
+      <c r="V162" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-eldense/OpC5N5Q2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45242.77083333334</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>1</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:27</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P163" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:15</t>
+        </is>
+      </c>
+      <c r="R163" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T163" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:27</t>
+        </is>
+      </c>
+      <c r="V163" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/huesca-espanyol/zNxkevGa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45242.77083333334</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Villarreal B</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:21</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P164" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R164" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T164" t="n">
+        <v>5.82</v>
+      </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:28</t>
+        </is>
+      </c>
+      <c r="V164" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-villarreal/ULg6328J/</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45242.875</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>1</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Albacete</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>05/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:39</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>05/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P165" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:54</t>
+        </is>
+      </c>
+      <c r="R165" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>05/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T165" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>12/11/2023 20:54</t>
+        </is>
+      </c>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eibar-albacete/rPcA2MNP/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V165"/>
+  <dimension ref="A1:V166"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.61</v>
+        <v>3.38</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.86</v>
+        <v>4.97</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.95</v>
+        <v>4.97</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G86" t="n">
+        <v>3</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Mirandes</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
       <c r="J86" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.38</v>
+        <v>3.61</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.97</v>
+        <v>4.86</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.97</v>
+        <v>4.95</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
         </is>
       </c>
     </row>
@@ -8945,62 +8945,62 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Valladolid</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>1</v>
-      </c>
       <c r="J93" t="n">
-        <v>2.92</v>
+        <v>2.17</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>3.61</v>
+        <v>1.85</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>04/10/2023 18:59</t>
+          <t>04/10/2023 18:54</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.21</v>
+        <v>3.1</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.32</v>
+        <v>3.15</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
-          <t>04/10/2023 18:17</t>
+          <t>04/10/2023 18:55</t>
         </is>
       </c>
       <c r="R93" t="n">
-        <v>2.6</v>
+        <v>3.92</v>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="T93" t="n">
-        <v>2.23</v>
+        <v>5.82</v>
       </c>
       <c r="U93" t="inlineStr">
         <is>
@@ -9009,7 +9009,7 @@
       </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-valladolid/pKr3c9PO/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-huesca/2BsMDU95/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>1</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Huesca</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
       <c r="J94" t="n">
-        <v>2.17</v>
+        <v>2.92</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.85</v>
+        <v>3.61</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>04/10/2023 18:54</t>
+          <t>04/10/2023 18:59</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.1</v>
+        <v>3.21</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.15</v>
+        <v>3.32</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
+          <t>04/10/2023 18:17</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
           <t>04/10/2023 18:55</t>
         </is>
       </c>
-      <c r="R94" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="S94" t="inlineStr">
-        <is>
-          <t>01/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T94" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="U94" t="inlineStr">
-        <is>
-          <t>04/10/2023 18:55</t>
-        </is>
-      </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-huesca/2BsMDU95/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-valladolid/pKr3c9PO/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2.47</v>
+        <v>2.23</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.39</v>
+        <v>2.29</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>04/10/2023 21:26</t>
+          <t>04/10/2023 21:28</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.29</v>
+        <v>3.14</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.09</v>
+        <v>2.9</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>04/10/2023 21:26</t>
+          <t>04/10/2023 21:28</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.1</v>
+        <v>3.68</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>3.5</v>
+        <v>4.04</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>04/10/2023 21:26</t>
+          <t>04/10/2023 21:29</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-elche/OKrIEAfa/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-leganes/xfueaVfC/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2.23</v>
+        <v>2.47</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.29</v>
+        <v>2.39</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>04/10/2023 21:28</t>
+          <t>04/10/2023 21:26</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.14</v>
+        <v>3.29</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>2.9</v>
+        <v>3.09</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>04/10/2023 21:28</t>
+          <t>04/10/2023 21:26</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.68</v>
+        <v>3.1</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>4.04</v>
+        <v>3.5</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>04/10/2023 21:29</t>
+          <t>04/10/2023 21:26</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-leganes/xfueaVfC/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-elche/OKrIEAfa/</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -10885,63 +10885,63 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J114" t="n">
-        <v>2.32</v>
+        <v>2.31</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.99</v>
+        <v>2.39</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:21</t>
+          <t>14/10/2023 18:22</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.03</v>
+        <v>3.31</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.31</v>
+        <v>3.1</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:29</t>
+          <t>14/10/2023 18:22</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.59</v>
+        <v>3.38</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="T114" t="n">
-        <v>4.49</v>
+        <v>3.48</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:29</t>
+          <t>14/10/2023 18:26</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-zaragoza/4bSYumgb/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-racing-santander/vHbGN5wU/</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -10977,63 +10977,63 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>2.31</v>
+        <v>2.32</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>2.39</v>
+        <v>1.99</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:22</t>
+          <t>14/10/2023 18:21</t>
         </is>
       </c>
       <c r="N115" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
         <v>3.31</v>
       </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>08/10/2023 17:43</t>
-        </is>
-      </c>
-      <c r="P115" t="n">
-        <v>3.1</v>
-      </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:22</t>
+          <t>14/10/2023 18:29</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>3.38</v>
+        <v>3.59</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>3.48</v>
+        <v>4.49</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:26</t>
+          <t>14/10/2023 18:29</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-racing-santander/vHbGN5wU/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-zaragoza/4bSYumgb/</t>
         </is>
       </c>
     </row>
@@ -13913,7 +13913,7 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="G147" t="n">
@@ -13921,63 +13921,63 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J147" t="n">
-        <v>1.99</v>
+        <v>1.65</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
-          <t>28/10/2023 21:12</t>
+          <t>29/10/2023 14:12</t>
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.26</v>
+        <v>1.9</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>04/11/2023 18:24</t>
+          <t>04/11/2023 18:23</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.32</v>
+        <v>4.24</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
-          <t>28/10/2023 21:12</t>
+          <t>29/10/2023 14:12</t>
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.03</v>
+        <v>3.53</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>04/11/2023 18:24</t>
+          <t>04/11/2023 18:23</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>4.39</v>
+        <v>4.95</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
-          <t>28/10/2023 21:12</t>
+          <t>29/10/2023 14:12</t>
         </is>
       </c>
       <c r="T147" t="n">
-        <v>3.91</v>
+        <v>4.52</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>04/11/2023 18:24</t>
+          <t>04/11/2023 18:23</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-tenerife/Gb3CsLo0/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/levante-mirandes/6PTSkqvK/</t>
         </is>
       </c>
     </row>
@@ -14005,7 +14005,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G148" t="n">
@@ -14013,63 +14013,63 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="I148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>1.65</v>
+        <v>1.99</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
-          <t>29/10/2023 14:12</t>
+          <t>28/10/2023 21:12</t>
         </is>
       </c>
       <c r="L148" t="n">
-        <v>1.9</v>
+        <v>2.26</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>04/11/2023 18:23</t>
+          <t>04/11/2023 18:24</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>4.24</v>
+        <v>3.32</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>29/10/2023 14:12</t>
+          <t>28/10/2023 21:12</t>
         </is>
       </c>
       <c r="P148" t="n">
-        <v>3.53</v>
+        <v>3.03</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
-          <t>04/11/2023 18:23</t>
+          <t>04/11/2023 18:24</t>
         </is>
       </c>
       <c r="R148" t="n">
-        <v>4.95</v>
+        <v>4.39</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
-          <t>29/10/2023 14:12</t>
+          <t>28/10/2023 21:12</t>
         </is>
       </c>
       <c r="T148" t="n">
-        <v>4.52</v>
+        <v>3.91</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
-          <t>04/11/2023 18:23</t>
+          <t>04/11/2023 18:24</t>
         </is>
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/levante-mirandes/6PTSkqvK/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-tenerife/Gb3CsLo0/</t>
         </is>
       </c>
     </row>
@@ -15634,6 +15634,98 @@
       <c r="V165" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/eibar-albacete/rPcA2MNP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45243.875</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>R. Oviedo</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>1</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>13/11/2023 20:56</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="P166" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>13/11/2023 20:57</t>
+        </is>
+      </c>
+      <c r="R166" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>06/11/2023 21:13</t>
+        </is>
+      </c>
+      <c r="T166" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>13/11/2023 20:57</t>
+        </is>
+      </c>
+      <c r="V166" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-fc-cartagena-sad/dWwodK0g/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V166"/>
+  <dimension ref="A1:V167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -12909,63 +12909,63 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
       <c r="J136" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
         <v>2.53</v>
       </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>22/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>2.39</v>
-      </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:27</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.26</v>
+        <v>3.19</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>22/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P136" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
         <v>3.13</v>
       </c>
-      <c r="Q136" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:29</t>
-        </is>
-      </c>
-      <c r="R136" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>22/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="T136" t="n">
-        <v>3.44</v>
-      </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:27</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-levante/WjPJa2Ye/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-espanyol/C6pQVNnl/</t>
         </is>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -13001,63 +13001,63 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>2.67</v>
+        <v>2.53</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 21:12</t>
         </is>
       </c>
       <c r="L137" t="n">
-        <v>2.53</v>
+        <v>2.39</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>28/10/2023 18:27</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 21:12</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>28/10/2023 18:26</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>2.91</v>
+        <v>3.05</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 21:12</t>
         </is>
       </c>
       <c r="T137" t="n">
-        <v>3.13</v>
+        <v>3.44</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>28/10/2023 18:27</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-espanyol/C6pQVNnl/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-levante/WjPJa2Ye/</t>
         </is>
       </c>
     </row>
@@ -15726,6 +15726,98 @@
       <c r="V166" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-fc-cartagena-sad/dWwodK0g/</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45247.875</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>1</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="n">
+        <v>2</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>17/11/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>17/11/2023 20:56</t>
+        </is>
+      </c>
+      <c r="R167" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>11/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T167" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>17/11/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V167" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-leganes/x6gVgkyN/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V167"/>
+  <dimension ref="A1:V176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>1.85</v>
+        <v>2.22</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.44</v>
+        <v>3.13</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>4.79</v>
+        <v>3.71</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>5.36</v>
+        <v>4.63</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-amorebieta/AucBrnE3/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-villarreal/lzCGM4ip/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.22</v>
+        <v>1.85</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.13</v>
+        <v>3.44</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.53</v>
+        <v>3.47</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.71</v>
+        <v>4.79</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.63</v>
+        <v>5.36</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-villarreal/lzCGM4ip/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-amorebieta/AucBrnE3/</t>
         </is>
       </c>
     </row>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.31</v>
+        <v>2.66</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:55</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>2.95</v>
+        <v>3.12</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>2.91</v>
+        <v>3</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:56</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.54</v>
+        <v>3.12</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.98</v>
+        <v>3.15</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:56</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-huesca/2aDQmsjq/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-albacete/l6CO8rS8/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
         <v>2</v>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Albacete</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
       <c r="J73" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.66</v>
+        <v>2.31</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:55</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.12</v>
+        <v>2.95</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:56</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.12</v>
+        <v>3.54</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.15</v>
+        <v>3.98</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:56</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-albacete/l6CO8rS8/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-huesca/2aDQmsjq/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.51</v>
+        <v>1.96</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.59</v>
+        <v>1.93</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>30/09/2023 20:40</t>
+          <t>30/09/2023 20:41</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.15</v>
+        <v>3.52</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>30/09/2023 20:46</t>
+          <t>30/09/2023 20:59</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.18</v>
+        <v>4.07</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.02</v>
+        <v>4.55</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>30/09/2023 20:41</t>
+          <t>30/09/2023 20:54</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>1.96</v>
+        <v>2.51</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>23/09/2023 20:12</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.93</v>
+        <v>2.59</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
+          <t>30/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:46</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
           <t>30/09/2023 20:41</t>
         </is>
       </c>
-      <c r="N83" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P83" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:59</t>
-        </is>
-      </c>
-      <c r="R83" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T83" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:54</t>
-        </is>
-      </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,63 +8217,63 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="n">
-        <v>1.88</v>
+        <v>2.38</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.88</v>
+        <v>2.72</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:29</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.38</v>
+        <v>3.24</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.38</v>
+        <v>3.09</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:06</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.97</v>
+        <v>3.23</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.97</v>
+        <v>2.98</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:29</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-cartagena-sad/2yRCnhB6/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,63 +8401,63 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.38</v>
+        <v>1.88</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.72</v>
+        <v>1.88</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:29</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.24</v>
+        <v>3.38</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.09</v>
+        <v>3.38</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:06</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.23</v>
+        <v>4.97</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.98</v>
+        <v>4.97</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:29</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-cartagena-sad/2yRCnhB6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>2.96</v>
+        <v>1.96</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.22</v>
+        <v>3.39</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.18</v>
+        <v>3.03</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>15/10/2023 16:10</t>
+          <t>15/10/2023 16:09</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.56</v>
+        <v>4.38</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.34</v>
+        <v>3.95</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-elche/vHKowowH/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-alcorcon/zPVA1O3q/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>1.96</v>
+        <v>2.96</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.39</v>
+        <v>3.22</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.03</v>
+        <v>3.18</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>15/10/2023 16:09</t>
+          <t>15/10/2023 16:10</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>4.38</v>
+        <v>2.56</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>3.95</v>
+        <v>2.34</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-alcorcon/zPVA1O3q/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-elche/vHKowowH/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>09/10/2023 11:11</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>15/10/2023 18:22</t>
+          <t>15/10/2023 18:23</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.87</v>
+        <v>3.57</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>09/10/2023 11:11</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.7</v>
+        <v>3.63</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>15/10/2023 18:22</t>
+          <t>15/10/2023 18:23</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>6.75</v>
+        <v>5.98</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>09/10/2023 11:11</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>7.53</v>
+        <v>5.58</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>15/10/2023 18:24</t>
+          <t>15/10/2023 18:23</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eibar-huesca/GxjrJPoo/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-amorebieta/QDGsvRNA/</t>
         </is>
       </c>
     </row>
@@ -11521,71 +11521,71 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>09/10/2023 11:11</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1.74</v>
+        <v>1.59</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>15/10/2023 18:23</t>
+          <t>15/10/2023 18:22</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.57</v>
+        <v>3.87</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>09/10/2023 11:11</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.63</v>
+        <v>3.7</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>15/10/2023 18:23</t>
+          <t>15/10/2023 18:22</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>5.98</v>
+        <v>6.75</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>09/10/2023 11:11</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>5.58</v>
+        <v>7.53</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>15/10/2023 18:23</t>
+          <t>15/10/2023 18:24</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-amorebieta/QDGsvRNA/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eibar-huesca/GxjrJPoo/</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -11805,38 +11805,38 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>2.13</v>
+        <v>2.86</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>15/10/2023 17:42</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.02</v>
+        <v>3.78</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 16:13</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.48</v>
+        <v>2.87</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>15/10/2023 17:42</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.51</v>
+        <v>2.93</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -11844,24 +11844,24 @@
         </is>
       </c>
       <c r="R124" t="n">
-        <v>3.54</v>
+        <v>3.01</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>15/10/2023 17:42</t>
         </is>
       </c>
       <c r="T124" t="n">
-        <v>4.02</v>
+        <v>2.37</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>21/10/2023 16:00</t>
+          <t>21/10/2023 16:13</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-mirandes/htCdYeik/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-r-oviedo/6VzSIGi2/</t>
         </is>
       </c>
     </row>
@@ -11889,7 +11889,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -11897,38 +11897,38 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J125" t="n">
-        <v>2.86</v>
+        <v>2.13</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>15/10/2023 17:42</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>3.78</v>
+        <v>2.02</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>21/10/2023 16:13</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>2.87</v>
+        <v>3.48</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>15/10/2023 17:42</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>2.93</v>
+        <v>3.51</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -11936,24 +11936,24 @@
         </is>
       </c>
       <c r="R125" t="n">
-        <v>3.01</v>
+        <v>3.54</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>15/10/2023 17:42</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="T125" t="n">
-        <v>2.37</v>
+        <v>4.02</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>21/10/2023 16:13</t>
+          <t>21/10/2023 16:00</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-r-oviedo/6VzSIGi2/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-mirandes/htCdYeik/</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -12909,63 +12909,63 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>2.67</v>
+        <v>2.53</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 21:12</t>
         </is>
       </c>
       <c r="L136" t="n">
-        <v>2.53</v>
+        <v>2.39</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>28/10/2023 18:27</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 21:12</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>28/10/2023 18:26</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>2.91</v>
+        <v>3.05</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 21:12</t>
         </is>
       </c>
       <c r="T136" t="n">
-        <v>3.13</v>
+        <v>3.44</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>28/10/2023 18:27</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-espanyol/C6pQVNnl/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-levante/WjPJa2Ye/</t>
         </is>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -13001,63 +13001,63 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
       <c r="J137" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
         <v>2.53</v>
       </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>22/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>2.39</v>
-      </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:27</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.26</v>
+        <v>3.19</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>22/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P137" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
         <v>3.13</v>
       </c>
-      <c r="Q137" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:29</t>
-        </is>
-      </c>
-      <c r="R137" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>22/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="T137" t="n">
-        <v>3.44</v>
-      </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:27</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-levante/WjPJa2Ye/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-espanyol/C6pQVNnl/</t>
         </is>
       </c>
     </row>
@@ -15818,6 +15818,834 @@
       <c r="V167" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-leganes/x6gVgkyN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45248.67708333334</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Alcorcon</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>18/11/2023 16:14</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P168" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>18/11/2023 16:13</t>
+        </is>
+      </c>
+      <c r="R168" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T168" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>18/11/2023 16:14</t>
+        </is>
+      </c>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-gijon/tKucgIpC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45248.77083333334</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>2</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P169" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R169" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T169" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-tenerife/OrV1hx0I/</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45248.77083333334</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>2</v>
+      </c>
+      <c r="J170" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P170" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R170" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T170" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-huesca/dfxYfVLG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45248.875</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>2</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>18/11/2023 20:55</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P171" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>18/11/2023 20:55</t>
+        </is>
+      </c>
+      <c r="R171" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T171" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>18/11/2023 20:55</t>
+        </is>
+      </c>
+      <c r="V171" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-elche/I3wUeB6A/</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45249.58333333334</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Ferrol</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>1</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:53</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P172" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:53</t>
+        </is>
+      </c>
+      <c r="R172" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>12/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T172" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>19/11/2023 13:53</t>
+        </is>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-burgos-cf/AwzMcXyb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45249.67708333334</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>2</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Mirandes</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>2</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>19/11/2023 16:13</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>19/11/2023 16:11</t>
+        </is>
+      </c>
+      <c r="R173" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T173" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>19/11/2023 16:13</t>
+        </is>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-mirandes/08hVzAUp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45249.67708333334</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>R. Oviedo</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>2</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>1</v>
+      </c>
+      <c r="J174" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>13/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>19/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>13/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P174" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>19/11/2023 16:13</t>
+        </is>
+      </c>
+      <c r="R174" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>13/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T174" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>19/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-eibar/OtvQdii4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45249.77083333334</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>1</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Albacete</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>13/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>19/11/2023 18:27</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>13/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P175" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>19/11/2023 18:24</t>
+        </is>
+      </c>
+      <c r="R175" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>13/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T175" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>19/11/2023 18:27</t>
+        </is>
+      </c>
+      <c r="V175" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-albacete/SEpHbDMi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45249.77083333334</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Villarreal B</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Andorra</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>19/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P176" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>19/11/2023 18:04</t>
+        </is>
+      </c>
+      <c r="R176" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T176" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>19/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-andorra/xlG9MPu9/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V176"/>
+  <dimension ref="A1:V177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16649,6 +16649,98 @@
         </is>
       </c>
     </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45250.875</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>2</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>4</v>
+      </c>
+      <c r="J177" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>13/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>20/11/2023 20:59</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>13/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P177" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>20/11/2023 20:59</t>
+        </is>
+      </c>
+      <c r="R177" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>13/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="T177" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>20/11/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/levante-racing-santander/lOoDag7o/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V177"/>
+  <dimension ref="A1:V186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>3</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>2</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Eldense</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
       <c r="J43" t="n">
-        <v>1.68</v>
+        <v>1.43</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:16</t>
+          <t>03/09/2023 18:25</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.54</v>
+        <v>4.54</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.28</v>
+        <v>3.99</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:24</t>
+          <t>03/09/2023 18:28</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>6.01</v>
+        <v>7.98</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>5.59</v>
+        <v>7.65</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:16</t>
+          <t>03/09/2023 18:28</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-eldense/dxXyUnaA/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-amorebieta/6mvPWlFi/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.43</v>
+        <v>1.68</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.54</v>
+        <v>1.83</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:25</t>
+          <t>03/09/2023 18:16</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>4.54</v>
+        <v>3.54</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.99</v>
+        <v>3.28</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:28</t>
+          <t>03/09/2023 18:24</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>7.98</v>
+        <v>6.01</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>7.65</v>
+        <v>5.59</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:28</t>
+          <t>03/09/2023 18:16</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-amorebieta/6mvPWlFi/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-eldense/dxXyUnaA/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,63 +8677,63 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J90" t="n">
-        <v>2.82</v>
+        <v>1.56</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>01/10/2023 04:42</t>
+          <t>30/09/2023 20:12</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>3.14</v>
+        <v>1.66</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>03/10/2023 18:59</t>
+          <t>03/10/2023 18:54</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.11</v>
+        <v>4.32</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>01/10/2023 04:42</t>
+          <t>30/09/2023 20:12</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.04</v>
+        <v>4.17</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>03/10/2023 18:42</t>
+          <t>03/10/2023 18:54</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.77</v>
+        <v>6.06</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>01/10/2023 04:42</t>
+          <t>30/09/2023 20:12</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.63</v>
+        <v>5.31</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>03/10/2023 18:59</t>
+          <t>03/10/2023 18:54</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-albacete/OpEDHCAt/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/levante-villarreal/nPMoMh2P/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,63 +8769,63 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>1.56</v>
+        <v>2.82</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>30/09/2023 20:12</t>
+          <t>01/10/2023 04:42</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.66</v>
+        <v>3.14</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>03/10/2023 18:54</t>
+          <t>03/10/2023 18:59</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>4.32</v>
+        <v>3.11</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>30/09/2023 20:12</t>
+          <t>01/10/2023 04:42</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>4.17</v>
+        <v>3.04</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>03/10/2023 18:54</t>
+          <t>03/10/2023 18:42</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>6.06</v>
+        <v>2.77</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>30/09/2023 20:12</t>
+          <t>01/10/2023 04:42</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>5.31</v>
+        <v>2.63</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>03/10/2023 18:54</t>
+          <t>03/10/2023 18:59</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/levante-villarreal/nPMoMh2P/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-albacete/OpEDHCAt/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>1.96</v>
+        <v>2.96</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.39</v>
+        <v>3.22</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.03</v>
+        <v>3.18</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>15/10/2023 16:09</t>
+          <t>15/10/2023 16:10</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>4.38</v>
+        <v>2.56</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>3.95</v>
+        <v>2.34</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-alcorcon/zPVA1O3q/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-elche/vHKowowH/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>2.96</v>
+        <v>1.96</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.22</v>
+        <v>3.39</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.18</v>
+        <v>3.03</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>15/10/2023 16:10</t>
+          <t>15/10/2023 16:09</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>2.56</v>
+        <v>4.38</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>2.34</v>
+        <v>3.95</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-elche/vHKowowH/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-alcorcon/zPVA1O3q/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>09/10/2023 11:11</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.74</v>
+        <v>1.59</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>15/10/2023 18:23</t>
+          <t>15/10/2023 18:22</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.57</v>
+        <v>3.87</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>09/10/2023 11:11</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.63</v>
+        <v>3.7</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>15/10/2023 18:23</t>
+          <t>15/10/2023 18:22</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>5.98</v>
+        <v>6.75</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>09/10/2023 11:11</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>5.58</v>
+        <v>7.53</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>15/10/2023 18:23</t>
+          <t>15/10/2023 18:24</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-amorebieta/QDGsvRNA/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eibar-huesca/GxjrJPoo/</t>
         </is>
       </c>
     </row>
@@ -11521,71 +11521,71 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>09/10/2023 11:11</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>15/10/2023 18:22</t>
+          <t>15/10/2023 18:23</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.87</v>
+        <v>3.57</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>09/10/2023 11:11</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.7</v>
+        <v>3.63</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>15/10/2023 18:22</t>
+          <t>15/10/2023 18:23</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>6.75</v>
+        <v>5.98</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>09/10/2023 11:11</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>7.53</v>
+        <v>5.58</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>15/10/2023 18:24</t>
+          <t>15/10/2023 18:23</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eibar-huesca/GxjrJPoo/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-amorebieta/QDGsvRNA/</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -11805,38 +11805,38 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J124" t="n">
-        <v>2.86</v>
+        <v>2.13</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>15/10/2023 17:42</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>3.78</v>
+        <v>2.02</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>21/10/2023 16:13</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>2.87</v>
+        <v>3.48</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>15/10/2023 17:42</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>2.93</v>
+        <v>3.51</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -11844,24 +11844,24 @@
         </is>
       </c>
       <c r="R124" t="n">
-        <v>3.01</v>
+        <v>3.54</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>15/10/2023 17:42</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="T124" t="n">
-        <v>2.37</v>
+        <v>4.02</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>21/10/2023 16:13</t>
+          <t>21/10/2023 16:00</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-r-oviedo/6VzSIGi2/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-mirandes/htCdYeik/</t>
         </is>
       </c>
     </row>
@@ -11889,7 +11889,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -11897,38 +11897,38 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>2.13</v>
+        <v>2.86</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>15/10/2023 17:42</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>2.02</v>
+        <v>3.78</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 16:13</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>3.48</v>
+        <v>2.87</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>15/10/2023 17:42</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3.51</v>
+        <v>2.93</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -11936,24 +11936,24 @@
         </is>
       </c>
       <c r="R125" t="n">
-        <v>3.54</v>
+        <v>3.01</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>15/10/2023 17:42</t>
         </is>
       </c>
       <c r="T125" t="n">
-        <v>4.02</v>
+        <v>2.37</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>21/10/2023 16:00</t>
+          <t>21/10/2023 16:13</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-mirandes/htCdYeik/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-r-oviedo/6VzSIGi2/</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -12909,63 +12909,63 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
       <c r="J136" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
         <v>2.53</v>
       </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>22/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>2.39</v>
-      </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:27</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.26</v>
+        <v>3.19</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>22/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P136" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
         <v>3.13</v>
       </c>
-      <c r="Q136" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:29</t>
-        </is>
-      </c>
-      <c r="R136" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>22/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="T136" t="n">
-        <v>3.44</v>
-      </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:27</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-levante/WjPJa2Ye/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-espanyol/C6pQVNnl/</t>
         </is>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -13001,63 +13001,63 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>2.67</v>
+        <v>2.53</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 21:12</t>
         </is>
       </c>
       <c r="L137" t="n">
-        <v>2.53</v>
+        <v>2.39</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>28/10/2023 18:27</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 21:12</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>28/10/2023 18:26</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>2.91</v>
+        <v>3.05</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 21:12</t>
         </is>
       </c>
       <c r="T137" t="n">
-        <v>3.13</v>
+        <v>3.44</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>28/10/2023 18:27</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-espanyol/C6pQVNnl/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-levante/WjPJa2Ye/</t>
         </is>
       </c>
     </row>
@@ -13361,71 +13361,71 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>1.69</v>
+        <v>2.02</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 21:12</t>
         </is>
       </c>
       <c r="L141" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>29/10/2023 18:29</t>
+          <t>29/10/2023 18:01</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.91</v>
+        <v>3.14</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 21:12</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.67</v>
+        <v>3.3</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>29/10/2023 18:29</t>
+          <t>29/10/2023 18:27</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>5.32</v>
+        <v>4.58</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 21:12</t>
         </is>
       </c>
       <c r="T141" t="n">
-        <v>4.96</v>
+        <v>5.59</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>29/10/2023 18:29</t>
+          <t>29/10/2023 18:27</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-villarreal/tI6svnu8/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-alcorcon/EV4kxQ9K/</t>
         </is>
       </c>
     </row>
@@ -13453,71 +13453,71 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>2.02</v>
+        <v>1.69</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>23/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>29/10/2023 18:01</t>
+          <t>29/10/2023 18:29</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.14</v>
+        <v>3.91</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>23/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.3</v>
+        <v>3.67</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>29/10/2023 18:27</t>
+          <t>29/10/2023 18:29</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>4.58</v>
+        <v>5.32</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>23/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T142" t="n">
-        <v>5.59</v>
+        <v>4.96</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>29/10/2023 18:27</t>
+          <t>29/10/2023 18:29</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-alcorcon/EV4kxQ9K/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-villarreal/tI6svnu8/</t>
         </is>
       </c>
     </row>
@@ -14925,71 +14925,71 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G158" t="n">
+        <v>1</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Ferrol</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
         <v>2</v>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>Zaragoza</t>
-        </is>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
       <c r="J158" t="n">
-        <v>1.99</v>
+        <v>2.4</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="L158" t="n">
-        <v>2.07</v>
+        <v>2.48</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>11/11/2023 18:20</t>
+          <t>11/11/2023 18:24</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>3.37</v>
+        <v>3.11</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3.26</v>
+        <v>3.04</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>11/11/2023 18:29</t>
+          <t>11/11/2023 18:24</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>4.16</v>
+        <v>3.32</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="T158" t="n">
-        <v>4.19</v>
+        <v>3.39</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>11/11/2023 18:29</t>
+          <t>11/11/2023 18:24</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-zaragoza/fk2Gtu16/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-ferrol/UqxgfbV5/</t>
         </is>
       </c>
     </row>
@@ -15017,71 +15017,71 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>2.4</v>
+        <v>1.99</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="L159" t="n">
-        <v>2.48</v>
+        <v>2.07</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>11/11/2023 18:24</t>
+          <t>11/11/2023 18:20</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>3.11</v>
+        <v>3.37</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3.04</v>
+        <v>3.26</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>11/11/2023 18:24</t>
+          <t>11/11/2023 18:29</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>3.32</v>
+        <v>4.16</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="T159" t="n">
-        <v>3.39</v>
+        <v>4.19</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>11/11/2023 18:24</t>
+          <t>11/11/2023 18:29</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-ferrol/UqxgfbV5/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-zaragoza/fk2Gtu16/</t>
         </is>
       </c>
     </row>
@@ -16738,6 +16738,834 @@
       <c r="V177" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/levante-racing-santander/lOoDag7o/</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45254.875</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>1</v>
+      </c>
+      <c r="J178" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>24/11/2023 20:56</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P178" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>24/11/2023 20:43</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>18/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T178" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>24/11/2023 20:56</t>
+        </is>
+      </c>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/huesca-valladolid/nuq5mmEj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45255.67708333334</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>0</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Andorra</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>19/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:47</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>19/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P179" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:09</t>
+        </is>
+      </c>
+      <c r="R179" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>19/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T179" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:47</t>
+        </is>
+      </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-fc-andorra/KC5ELqeF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45255.67708333334</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>2</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Villarreal B</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>20/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="M180" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="N180" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>20/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P180" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R180" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="S180" t="inlineStr">
+        <is>
+          <t>20/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T180" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U180" t="inlineStr">
+        <is>
+          <t>25/11/2023 15:57</t>
+        </is>
+      </c>
+      <c r="V180" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-villarreal/SzMiBj6c/</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45255.77083333334</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Albacete</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>1</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>19/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:25</t>
+        </is>
+      </c>
+      <c r="N181" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>19/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P181" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:25</t>
+        </is>
+      </c>
+      <c r="R181" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S181" t="inlineStr">
+        <is>
+          <t>19/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T181" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="U181" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:26</t>
+        </is>
+      </c>
+      <c r="V181" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-zaragoza/GdhZh9jT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45255.875</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>3</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>1</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>20/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="M182" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:57</t>
+        </is>
+      </c>
+      <c r="N182" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>20/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P182" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:57</t>
+        </is>
+      </c>
+      <c r="R182" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="S182" t="inlineStr">
+        <is>
+          <t>20/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T182" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="U182" t="inlineStr">
+        <is>
+          <t>25/11/2023 20:57</t>
+        </is>
+      </c>
+      <c r="V182" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eibar-levante/Yyu1lTbp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45256.58333333334</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>2</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Ferrol</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>2</v>
+      </c>
+      <c r="J183" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>19/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M183" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N183" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>19/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P183" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R183" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="S183" t="inlineStr">
+        <is>
+          <t>19/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T183" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="U183" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V183" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-ferrol/AXWB6SKS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45256.67708333334</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Mirandes</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>2</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>R. Oviedo</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>1</v>
+      </c>
+      <c r="J184" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>19/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="M184" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:10</t>
+        </is>
+      </c>
+      <c r="N184" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>19/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P184" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q184" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:07</t>
+        </is>
+      </c>
+      <c r="R184" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="S184" t="inlineStr">
+        <is>
+          <t>19/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T184" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U184" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:10</t>
+        </is>
+      </c>
+      <c r="V184" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-r-oviedo/lpNmCWji/</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45256.67708333334</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>2</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>19/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:13</t>
+        </is>
+      </c>
+      <c r="N185" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>19/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P185" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="Q185" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:13</t>
+        </is>
+      </c>
+      <c r="R185" t="n">
+        <v>7.55</v>
+      </c>
+      <c r="S185" t="inlineStr">
+        <is>
+          <t>19/11/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T185" t="n">
+        <v>9.470000000000001</v>
+      </c>
+      <c r="U185" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:13</t>
+        </is>
+      </c>
+      <c r="V185" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-amorebieta/z1Pa9UzA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45256.77083333334</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>1</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>1</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>19/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:20</t>
+        </is>
+      </c>
+      <c r="N186" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>19/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P186" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R186" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="S186" t="inlineStr">
+        <is>
+          <t>19/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T186" t="n">
+        <v>5.33</v>
+      </c>
+      <c r="U186" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V186" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-fc-cartagena-sad/IPE48ljG/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V186"/>
+  <dimension ref="A1:V187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17569,6 +17569,98 @@
         </is>
       </c>
     </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45256.875</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>2</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Alcorcon</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>0</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>19/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M187" t="inlineStr">
+        <is>
+          <t>26/11/2023 20:53</t>
+        </is>
+      </c>
+      <c r="N187" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>19/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P187" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>26/11/2023 20:56</t>
+        </is>
+      </c>
+      <c r="R187" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="S187" t="inlineStr">
+        <is>
+          <t>19/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T187" t="n">
+        <v>7.68</v>
+      </c>
+      <c r="U187" t="inlineStr">
+        <is>
+          <t>26/11/2023 20:56</t>
+        </is>
+      </c>
+      <c r="V187" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-alcorcon/dAQeAAL3/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V187"/>
+  <dimension ref="A1:V188"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2873,19 +2873,19 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G27" t="n">
+        <v>1</v>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Villarreal B</t>
+        </is>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Alcorcon</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>2</v>
       </c>
       <c r="J27" t="n">
         <v>1.65</v>
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.11</v>
+        <v>1.6</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.69</v>
+        <v>3.54</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.19</v>
+        <v>4.12</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="R27" t="n">
-        <v>6.35</v>
+        <v>6.41</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>4.16</v>
+        <v>6.2</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-alcorcon/h25rKBVo/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-villarreal/xhbExxW6/</t>
         </is>
       </c>
     </row>
@@ -2965,19 +2965,19 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" t="n">
         <v>1.65</v>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.6</v>
+        <v>2.11</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.54</v>
+        <v>3.69</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4.12</v>
+        <v>3.19</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="R28" t="n">
-        <v>6.41</v>
+        <v>6.35</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>6.2</v>
+        <v>4.16</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-villarreal/xhbExxW6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-alcorcon/h25rKBVo/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,63 +4905,63 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.93</v>
+        <v>2.22</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 13:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>09/09/2023 20:57</t>
+          <t>09/09/2023 20:47</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.25</v>
+        <v>3.18</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 13:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.12</v>
+        <v>3.18</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>09/09/2023 20:57</t>
+          <t>09/09/2023 20:47</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>4.86</v>
+        <v>3.64</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 13:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.58</v>
+        <v>4.07</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>09/09/2023 20:57</t>
+          <t>09/09/2023 20:47</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-huesca/pbkOupbM/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-albacete/2Fg3p8qi/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,63 +4997,63 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2.22</v>
+        <v>1.93</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>03/09/2023 13:12</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>09/09/2023 20:47</t>
+          <t>09/09/2023 20:57</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.18</v>
+        <v>3.25</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>03/09/2023 13:12</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.18</v>
+        <v>3.12</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>09/09/2023 20:47</t>
+          <t>09/09/2023 20:57</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.64</v>
+        <v>4.86</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>03/09/2023 13:12</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.07</v>
+        <v>4.58</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>09/09/2023 20:47</t>
+          <t>09/09/2023 20:57</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-albacete/2Fg3p8qi/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-huesca/pbkOupbM/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>1.96</v>
+        <v>2.51</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>23/09/2023 20:12</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.93</v>
+        <v>2.59</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
+          <t>30/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:46</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
           <t>30/09/2023 20:41</t>
         </is>
       </c>
-      <c r="N82" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P82" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:59</t>
-        </is>
-      </c>
-      <c r="R82" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T82" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:54</t>
-        </is>
-      </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.51</v>
+        <v>1.96</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.59</v>
+        <v>1.93</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>30/09/2023 20:40</t>
+          <t>30/09/2023 20:41</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.15</v>
+        <v>3.52</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>30/09/2023 20:46</t>
+          <t>30/09/2023 20:59</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.18</v>
+        <v>4.07</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>3.02</v>
+        <v>4.55</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>30/09/2023 20:41</t>
+          <t>30/09/2023 20:54</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
         </is>
       </c>
     </row>
@@ -8209,7 +8209,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G85" t="n">
@@ -8217,63 +8217,63 @@
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>2.38</v>
+        <v>1.88</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.72</v>
+        <v>1.88</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:29</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.24</v>
+        <v>3.38</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.09</v>
+        <v>3.38</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:06</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>3.23</v>
+        <v>4.97</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.98</v>
+        <v>4.97</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:29</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-cartagena-sad/2yRCnhB6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,63 +8401,63 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1.88</v>
+        <v>2.38</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.88</v>
+        <v>2.72</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:29</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.38</v>
+        <v>3.24</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.38</v>
+        <v>3.09</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:06</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.97</v>
+        <v>3.23</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>4.97</v>
+        <v>2.98</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:29</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-cartagena-sad/2yRCnhB6/</t>
         </is>
       </c>
     </row>
@@ -8669,7 +8669,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G90" t="n">
@@ -8677,63 +8677,63 @@
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>1.56</v>
+        <v>2.82</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>30/09/2023 20:12</t>
+          <t>01/10/2023 04:42</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.66</v>
+        <v>3.14</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>03/10/2023 18:54</t>
+          <t>03/10/2023 18:59</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>4.32</v>
+        <v>3.11</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>30/09/2023 20:12</t>
+          <t>01/10/2023 04:42</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>4.17</v>
+        <v>3.04</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>03/10/2023 18:54</t>
+          <t>03/10/2023 18:42</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>6.06</v>
+        <v>2.77</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>30/09/2023 20:12</t>
+          <t>01/10/2023 04:42</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>5.31</v>
+        <v>2.63</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>03/10/2023 18:54</t>
+          <t>03/10/2023 18:59</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/levante-villarreal/nPMoMh2P/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-albacete/OpEDHCAt/</t>
         </is>
       </c>
     </row>
@@ -8761,7 +8761,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="G91" t="n">
@@ -8769,63 +8769,63 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>2.82</v>
+        <v>1.56</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>01/10/2023 04:42</t>
+          <t>30/09/2023 20:12</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>3.14</v>
+        <v>1.66</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>03/10/2023 18:59</t>
+          <t>03/10/2023 18:54</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.11</v>
+        <v>4.32</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>01/10/2023 04:42</t>
+          <t>30/09/2023 20:12</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.04</v>
+        <v>4.17</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>03/10/2023 18:42</t>
+          <t>03/10/2023 18:54</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>2.77</v>
+        <v>6.06</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>01/10/2023 04:42</t>
+          <t>30/09/2023 20:12</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>2.63</v>
+        <v>5.31</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>03/10/2023 18:59</t>
+          <t>03/10/2023 18:54</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-albacete/OpEDHCAt/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/levante-villarreal/nPMoMh2P/</t>
         </is>
       </c>
     </row>
@@ -8945,71 +8945,71 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="G93" t="n">
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
         <v>1</v>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>Huesca</t>
-        </is>
-      </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
       <c r="J93" t="n">
-        <v>2.17</v>
+        <v>2.92</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="L93" t="n">
-        <v>1.85</v>
+        <v>3.61</v>
       </c>
       <c r="M93" t="inlineStr">
         <is>
-          <t>04/10/2023 18:54</t>
+          <t>04/10/2023 18:59</t>
         </is>
       </c>
       <c r="N93" t="n">
-        <v>3.1</v>
+        <v>3.21</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="P93" t="n">
-        <v>3.15</v>
+        <v>3.32</v>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
+          <t>04/10/2023 18:17</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:43</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
           <t>04/10/2023 18:55</t>
         </is>
       </c>
-      <c r="R93" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="S93" t="inlineStr">
-        <is>
-          <t>01/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T93" t="n">
-        <v>5.82</v>
-      </c>
-      <c r="U93" t="inlineStr">
-        <is>
-          <t>04/10/2023 18:55</t>
-        </is>
-      </c>
       <c r="V93" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-huesca/2BsMDU95/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-valladolid/pKr3c9PO/</t>
         </is>
       </c>
     </row>
@@ -9037,62 +9037,62 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>1</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Valladolid</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
       <c r="J94" t="n">
-        <v>2.92</v>
+        <v>2.17</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>3.61</v>
+        <v>1.85</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>04/10/2023 18:59</t>
+          <t>04/10/2023 18:54</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.21</v>
+        <v>3.1</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.32</v>
+        <v>3.15</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>04/10/2023 18:17</t>
+          <t>04/10/2023 18:55</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.6</v>
+        <v>3.92</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>2.23</v>
+        <v>5.82</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
@@ -9101,7 +9101,7 @@
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-valladolid/pKr3c9PO/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-huesca/2BsMDU95/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2.23</v>
+        <v>2.47</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.29</v>
+        <v>2.39</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>04/10/2023 21:28</t>
+          <t>04/10/2023 21:26</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.14</v>
+        <v>3.29</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>2.9</v>
+        <v>3.09</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>04/10/2023 21:28</t>
+          <t>04/10/2023 21:26</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.68</v>
+        <v>3.1</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>4.04</v>
+        <v>3.5</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>04/10/2023 21:29</t>
+          <t>04/10/2023 21:26</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-leganes/xfueaVfC/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-elche/OKrIEAfa/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2.47</v>
+        <v>2.23</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.39</v>
+        <v>2.29</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>04/10/2023 21:26</t>
+          <t>04/10/2023 21:28</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.29</v>
+        <v>3.14</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>3.09</v>
+        <v>2.9</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>04/10/2023 21:26</t>
+          <t>04/10/2023 21:28</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.1</v>
+        <v>3.68</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>3.5</v>
+        <v>4.04</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>04/10/2023 21:26</t>
+          <t>04/10/2023 21:29</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-elche/OKrIEAfa/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-leganes/xfueaVfC/</t>
         </is>
       </c>
     </row>
@@ -14925,71 +14925,71 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>2.4</v>
+        <v>1.99</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="L158" t="n">
-        <v>2.48</v>
+        <v>2.07</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>11/11/2023 18:24</t>
+          <t>11/11/2023 18:20</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>3.11</v>
+        <v>3.37</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3.04</v>
+        <v>3.26</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>11/11/2023 18:24</t>
+          <t>11/11/2023 18:29</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>3.32</v>
+        <v>4.16</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="T158" t="n">
-        <v>3.39</v>
+        <v>4.19</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>11/11/2023 18:24</t>
+          <t>11/11/2023 18:29</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-ferrol/UqxgfbV5/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-zaragoza/fk2Gtu16/</t>
         </is>
       </c>
     </row>
@@ -15017,71 +15017,71 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G159" t="n">
+        <v>1</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Ferrol</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
         <v>2</v>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>Zaragoza</t>
-        </is>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
       <c r="J159" t="n">
-        <v>1.99</v>
+        <v>2.4</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="L159" t="n">
-        <v>2.07</v>
+        <v>2.48</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>11/11/2023 18:20</t>
+          <t>11/11/2023 18:24</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>3.37</v>
+        <v>3.11</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3.26</v>
+        <v>3.04</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>11/11/2023 18:29</t>
+          <t>11/11/2023 18:24</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>4.16</v>
+        <v>3.32</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="T159" t="n">
-        <v>4.19</v>
+        <v>3.39</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>11/11/2023 18:29</t>
+          <t>11/11/2023 18:24</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-zaragoza/fk2Gtu16/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-ferrol/UqxgfbV5/</t>
         </is>
       </c>
     </row>
@@ -16305,7 +16305,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -16313,63 +16313,63 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J173" t="n">
-        <v>1.99</v>
+        <v>2.94</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>12/11/2023 16:43</t>
+          <t>13/11/2023 22:12</t>
         </is>
       </c>
       <c r="L173" t="n">
-        <v>2.23</v>
+        <v>2.76</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
+          <t>19/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>13/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
           <t>19/11/2023 16:13</t>
         </is>
       </c>
-      <c r="N173" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="O173" t="inlineStr">
-        <is>
-          <t>12/11/2023 16:43</t>
-        </is>
-      </c>
-      <c r="P173" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="Q173" t="inlineStr">
-        <is>
-          <t>19/11/2023 16:11</t>
-        </is>
-      </c>
       <c r="R173" t="n">
-        <v>4.02</v>
+        <v>2.79</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
-          <t>12/11/2023 16:43</t>
+          <t>13/11/2023 22:12</t>
         </is>
       </c>
       <c r="T173" t="n">
-        <v>3.66</v>
+        <v>3.1</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>19/11/2023 16:13</t>
+          <t>19/11/2023 15:49</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-mirandes/08hVzAUp/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-eibar/OtvQdii4/</t>
         </is>
       </c>
     </row>
@@ -16397,7 +16397,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="G174" t="n">
@@ -16405,63 +16405,63 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J174" t="n">
-        <v>2.94</v>
+        <v>1.99</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>13/11/2023 22:12</t>
+          <t>12/11/2023 16:43</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.76</v>
+        <v>2.23</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>19/11/2023 15:49</t>
+          <t>19/11/2023 16:13</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>2.94</v>
+        <v>3.46</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>13/11/2023 22:12</t>
+          <t>12/11/2023 16:43</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>2.87</v>
+        <v>3.26</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
+          <t>19/11/2023 16:11</t>
+        </is>
+      </c>
+      <c r="R174" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T174" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
           <t>19/11/2023 16:13</t>
         </is>
       </c>
-      <c r="R174" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="S174" t="inlineStr">
-        <is>
-          <t>13/11/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T174" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U174" t="inlineStr">
-        <is>
-          <t>19/11/2023 15:49</t>
-        </is>
-      </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-eibar/OtvQdii4/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-mirandes/08hVzAUp/</t>
         </is>
       </c>
     </row>
@@ -16489,71 +16489,71 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>2.87</v>
+        <v>2.54</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>13/11/2023 22:12</t>
+          <t>12/11/2023 18:42</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>3.69</v>
+        <v>2.61</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>19/11/2023 18:27</t>
+          <t>19/11/2023 18:29</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>13/11/2023 22:12</t>
+          <t>12/11/2023 18:42</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.23</v>
+        <v>3.46</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>19/11/2023 18:24</t>
+          <t>19/11/2023 18:04</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>2.68</v>
+        <v>2.99</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>13/11/2023 22:12</t>
+          <t>12/11/2023 18:42</t>
         </is>
       </c>
       <c r="T175" t="n">
-        <v>2.24</v>
+        <v>2.81</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>19/11/2023 18:27</t>
+          <t>19/11/2023 18:29</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-albacete/SEpHbDMi/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-andorra/xlG9MPu9/</t>
         </is>
       </c>
     </row>
@@ -16581,71 +16581,71 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="n">
-        <v>2.54</v>
+        <v>2.87</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>12/11/2023 18:42</t>
+          <t>13/11/2023 22:12</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>2.61</v>
+        <v>3.69</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>19/11/2023 18:29</t>
+          <t>19/11/2023 18:27</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>12/11/2023 18:42</t>
+          <t>13/11/2023 22:12</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3.46</v>
+        <v>3.23</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>19/11/2023 18:04</t>
+          <t>19/11/2023 18:24</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>2.99</v>
+        <v>2.68</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>12/11/2023 18:42</t>
+          <t>13/11/2023 22:12</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>2.81</v>
+        <v>2.24</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>19/11/2023 18:29</t>
+          <t>19/11/2023 18:27</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-andorra/xlG9MPu9/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-albacete/SEpHbDMi/</t>
         </is>
       </c>
     </row>
@@ -17317,7 +17317,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G184" t="n">
@@ -17325,14 +17325,14 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>3.17</v>
+        <v>1.46</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -17340,15 +17340,15 @@
         </is>
       </c>
       <c r="L184" t="n">
-        <v>3.38</v>
+        <v>1.41</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>26/11/2023 16:10</t>
+          <t>26/11/2023 16:13</t>
         </is>
       </c>
       <c r="N184" t="n">
-        <v>2.91</v>
+        <v>4.56</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -17356,15 +17356,15 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>2.82</v>
+        <v>4.57</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>26/11/2023 16:07</t>
+          <t>26/11/2023 16:13</t>
         </is>
       </c>
       <c r="R184" t="n">
-        <v>2.64</v>
+        <v>7.55</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
@@ -17372,16 +17372,16 @@
         </is>
       </c>
       <c r="T184" t="n">
-        <v>2.65</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>26/11/2023 16:10</t>
+          <t>26/11/2023 16:13</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-r-oviedo/lpNmCWji/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-amorebieta/z1Pa9UzA/</t>
         </is>
       </c>
     </row>
@@ -17409,7 +17409,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G185" t="n">
@@ -17417,14 +17417,14 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="n">
-        <v>1.46</v>
+        <v>3.17</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -17432,15 +17432,15 @@
         </is>
       </c>
       <c r="L185" t="n">
-        <v>1.41</v>
+        <v>3.38</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>26/11/2023 16:13</t>
+          <t>26/11/2023 16:10</t>
         </is>
       </c>
       <c r="N185" t="n">
-        <v>4.56</v>
+        <v>2.91</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
@@ -17448,15 +17448,15 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>4.57</v>
+        <v>2.82</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>26/11/2023 16:13</t>
+          <t>26/11/2023 16:07</t>
         </is>
       </c>
       <c r="R185" t="n">
-        <v>7.55</v>
+        <v>2.64</v>
       </c>
       <c r="S185" t="inlineStr">
         <is>
@@ -17464,16 +17464,16 @@
         </is>
       </c>
       <c r="T185" t="n">
-        <v>9.470000000000001</v>
+        <v>2.65</v>
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>26/11/2023 16:13</t>
+          <t>26/11/2023 16:10</t>
         </is>
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-amorebieta/z1Pa9UzA/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-r-oviedo/lpNmCWji/</t>
         </is>
       </c>
     </row>
@@ -17658,6 +17658,98 @@
       <c r="V187" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-alcorcon/dAQeAAL3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E188" s="2" t="n">
+        <v>45257.875</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>2</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>0</v>
+      </c>
+      <c r="J188" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>19/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="M188" t="inlineStr">
+        <is>
+          <t>27/11/2023 20:58</t>
+        </is>
+      </c>
+      <c r="N188" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>19/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P188" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>27/11/2023 20:55</t>
+        </is>
+      </c>
+      <c r="R188" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="S188" t="inlineStr">
+        <is>
+          <t>19/11/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T188" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="U188" t="inlineStr">
+        <is>
+          <t>27/11/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V188" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-eldense/GAX7785M/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V188"/>
+  <dimension ref="A1:V189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -12909,63 +12909,63 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>2.67</v>
+        <v>2.53</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 21:12</t>
         </is>
       </c>
       <c r="L136" t="n">
-        <v>2.53</v>
+        <v>2.39</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>28/10/2023 18:27</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 21:12</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>28/10/2023 18:26</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>2.91</v>
+        <v>3.05</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 21:12</t>
         </is>
       </c>
       <c r="T136" t="n">
-        <v>3.13</v>
+        <v>3.44</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>28/10/2023 18:27</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-espanyol/C6pQVNnl/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-levante/WjPJa2Ye/</t>
         </is>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -13001,63 +13001,63 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
       <c r="J137" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
         <v>2.53</v>
       </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>22/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>2.39</v>
-      </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:27</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.26</v>
+        <v>3.19</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>22/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P137" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
         <v>3.13</v>
       </c>
-      <c r="Q137" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:29</t>
-        </is>
-      </c>
-      <c r="R137" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="S137" t="inlineStr">
-        <is>
-          <t>22/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="T137" t="n">
-        <v>3.44</v>
-      </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:27</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-levante/WjPJa2Ye/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-espanyol/C6pQVNnl/</t>
         </is>
       </c>
     </row>
@@ -17750,6 +17750,98 @@
       <c r="V188" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/gijon-eldense/GAX7785M/</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E189" s="2" t="n">
+        <v>45261.85416666666</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>R. Oviedo</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>2</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="J189" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>01/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="N189" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P189" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>01/12/2023 20:12</t>
+        </is>
+      </c>
+      <c r="R189" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T189" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>01/12/2023 20:29</t>
+        </is>
+      </c>
+      <c r="V189" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-espanyol/roikKokS/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V189"/>
+  <dimension ref="A1:V192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2873,19 +2873,19 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" t="n">
         <v>1.65</v>
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="L27" t="n">
-        <v>1.6</v>
+        <v>2.11</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -2904,7 +2904,7 @@
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.54</v>
+        <v>3.69</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="P27" t="n">
-        <v>4.12</v>
+        <v>3.19</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         </is>
       </c>
       <c r="R27" t="n">
-        <v>6.41</v>
+        <v>6.35</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
@@ -2928,7 +2928,7 @@
         </is>
       </c>
       <c r="T27" t="n">
-        <v>6.2</v>
+        <v>4.16</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-villarreal/xhbExxW6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-alcorcon/h25rKBVo/</t>
         </is>
       </c>
     </row>
@@ -2965,19 +2965,19 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G28" t="n">
+        <v>1</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Villarreal B</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Alcorcon</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>2</v>
       </c>
       <c r="J28" t="n">
         <v>1.65</v>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>2.11</v>
+        <v>1.6</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.69</v>
+        <v>3.54</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.19</v>
+        <v>4.12</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="R28" t="n">
-        <v>6.35</v>
+        <v>6.41</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>4.16</v>
+        <v>6.2</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-alcorcon/h25rKBVo/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-villarreal/xhbExxW6/</t>
         </is>
       </c>
     </row>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
         <v>2</v>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Albacete</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
       <c r="J72" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.66</v>
+        <v>2.31</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:55</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.12</v>
+        <v>2.95</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:56</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.12</v>
+        <v>3.54</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.15</v>
+        <v>3.98</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:56</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-albacete/l6CO8rS8/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-huesca/2aDQmsjq/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.31</v>
+        <v>2.66</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:55</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>2.95</v>
+        <v>3.12</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>2.91</v>
+        <v>3</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:56</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.54</v>
+        <v>3.12</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.98</v>
+        <v>3.15</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:56</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-huesca/2aDQmsjq/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-albacete/l6CO8rS8/</t>
         </is>
       </c>
     </row>
@@ -8301,22 +8301,22 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G86" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>1.81</v>
+        <v>2.38</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -8324,15 +8324,15 @@
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.87</v>
+        <v>2.72</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 18:29</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.61</v>
+        <v>3.24</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
@@ -8340,15 +8340,15 @@
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.43</v>
+        <v>3.09</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 18:06</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.86</v>
+        <v>3.23</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
@@ -8356,16 +8356,16 @@
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.95</v>
+        <v>2.98</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 18:29</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-cartagena-sad/2yRCnhB6/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>2.38</v>
+        <v>1.81</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.72</v>
+        <v>1.87</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:29</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.24</v>
+        <v>3.61</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.09</v>
+        <v>3.43</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:06</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.23</v>
+        <v>4.86</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>2.98</v>
+        <v>4.95</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:29</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-cartagena-sad/2yRCnhB6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J97" t="n">
-        <v>2.21</v>
+        <v>3.33</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,48 +9336,48 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.57</v>
+        <v>4.05</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>05/10/2023 18:52</t>
+          <t>05/10/2023 18:57</t>
         </is>
       </c>
       <c r="N97" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
         <v>3.17</v>
       </c>
-      <c r="O97" t="inlineStr">
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>05/10/2023 18:53</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S97" t="inlineStr">
         <is>
           <t>01/10/2023 15:42</t>
         </is>
       </c>
-      <c r="P97" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>05/10/2023 18:52</t>
-        </is>
-      </c>
-      <c r="R97" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>01/10/2023 15:42</t>
-        </is>
-      </c>
       <c r="T97" t="n">
-        <v>3.23</v>
+        <v>2.15</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>05/10/2023 18:52</t>
+          <t>05/10/2023 18:57</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-zaragoza/69uu7ptM/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-eibar/dbCLFjug/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
         <v>1</v>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Eibar</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
-        <v>3</v>
-      </c>
       <c r="J98" t="n">
-        <v>3.33</v>
+        <v>2.21</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>4.05</v>
+        <v>2.57</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>05/10/2023 18:57</t>
+          <t>05/10/2023 18:52</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.15</v>
+        <v>3.17</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.17</v>
+        <v>3.05</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>05/10/2023 18:53</t>
+          <t>05/10/2023 18:52</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>2.42</v>
+        <v>3.79</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.15</v>
+        <v>3.23</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>05/10/2023 18:57</t>
+          <t>05/10/2023 18:52</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-eibar/dbCLFjug/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-zaragoza/69uu7ptM/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>2.96</v>
+        <v>1.96</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.22</v>
+        <v>3.39</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.18</v>
+        <v>3.03</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>15/10/2023 16:10</t>
+          <t>15/10/2023 16:09</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.56</v>
+        <v>4.38</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>2.34</v>
+        <v>3.95</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-elche/vHKowowH/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-alcorcon/zPVA1O3q/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>1.96</v>
+        <v>2.96</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.39</v>
+        <v>3.22</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.03</v>
+        <v>3.18</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>15/10/2023 16:09</t>
+          <t>15/10/2023 16:10</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>4.38</v>
+        <v>2.56</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>3.95</v>
+        <v>2.34</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-alcorcon/zPVA1O3q/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-elche/vHKowowH/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>09/10/2023 11:11</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>15/10/2023 18:22</t>
+          <t>15/10/2023 18:23</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.87</v>
+        <v>3.57</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>09/10/2023 11:11</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.7</v>
+        <v>3.63</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>15/10/2023 18:22</t>
+          <t>15/10/2023 18:23</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>6.75</v>
+        <v>5.98</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>09/10/2023 11:11</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>7.53</v>
+        <v>5.58</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>15/10/2023 18:24</t>
+          <t>15/10/2023 18:23</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eibar-huesca/GxjrJPoo/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-amorebieta/QDGsvRNA/</t>
         </is>
       </c>
     </row>
@@ -11521,71 +11521,71 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>09/10/2023 11:11</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1.74</v>
+        <v>1.59</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>15/10/2023 18:23</t>
+          <t>15/10/2023 18:22</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.57</v>
+        <v>3.87</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>09/10/2023 11:11</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.63</v>
+        <v>3.7</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>15/10/2023 18:23</t>
+          <t>15/10/2023 18:22</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>5.98</v>
+        <v>6.75</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>09/10/2023 11:11</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>5.58</v>
+        <v>7.53</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>15/10/2023 18:23</t>
+          <t>15/10/2023 18:24</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-amorebieta/QDGsvRNA/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eibar-huesca/GxjrJPoo/</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -11805,38 +11805,38 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>2.13</v>
+        <v>2.86</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>15/10/2023 17:42</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.02</v>
+        <v>3.78</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 16:13</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.48</v>
+        <v>2.87</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>15/10/2023 17:42</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.51</v>
+        <v>2.93</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -11844,24 +11844,24 @@
         </is>
       </c>
       <c r="R124" t="n">
-        <v>3.54</v>
+        <v>3.01</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>15/10/2023 17:42</t>
         </is>
       </c>
       <c r="T124" t="n">
-        <v>4.02</v>
+        <v>2.37</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>21/10/2023 16:00</t>
+          <t>21/10/2023 16:13</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-mirandes/htCdYeik/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-r-oviedo/6VzSIGi2/</t>
         </is>
       </c>
     </row>
@@ -11889,7 +11889,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -11897,38 +11897,38 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J125" t="n">
-        <v>2.86</v>
+        <v>2.13</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>15/10/2023 17:42</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>3.78</v>
+        <v>2.02</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>21/10/2023 16:13</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>2.87</v>
+        <v>3.48</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>15/10/2023 17:42</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>2.93</v>
+        <v>3.51</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -11936,24 +11936,24 @@
         </is>
       </c>
       <c r="R125" t="n">
-        <v>3.01</v>
+        <v>3.54</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>15/10/2023 17:42</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="T125" t="n">
-        <v>2.37</v>
+        <v>4.02</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>21/10/2023 16:13</t>
+          <t>21/10/2023 16:00</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-r-oviedo/6VzSIGi2/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-mirandes/htCdYeik/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>22/10/2023 18:09</t>
+          <t>22/10/2023 18:29</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.46</v>
+        <v>3.37</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.1</v>
+        <v>3.31</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>22/10/2023 18:09</t>
+          <t>22/10/2023 18:29</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>4.19</v>
+        <v>4.23</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>4.02</v>
+        <v>3.99</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:29</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-gijon/A3sJKxNk/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-burgos-cf/IJsDtKq9/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
         <v>3</v>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Burgos CF</t>
-        </is>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
       <c r="J131" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>22/10/2023 18:29</t>
+          <t>22/10/2023 18:09</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.37</v>
+        <v>3.46</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.31</v>
+        <v>3.1</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>22/10/2023 18:29</t>
+          <t>22/10/2023 18:09</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>4.23</v>
+        <v>4.19</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>3.99</v>
+        <v>4.02</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>22/10/2023 18:29</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-burgos-cf/IJsDtKq9/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-gijon/A3sJKxNk/</t>
         </is>
       </c>
     </row>
@@ -13361,71 +13361,71 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>2.02</v>
+        <v>1.69</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>23/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L141" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>29/10/2023 18:01</t>
+          <t>29/10/2023 18:29</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.14</v>
+        <v>3.91</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>23/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.3</v>
+        <v>3.67</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>29/10/2023 18:27</t>
+          <t>29/10/2023 18:29</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>4.58</v>
+        <v>5.32</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>23/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T141" t="n">
-        <v>5.59</v>
+        <v>4.96</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>29/10/2023 18:27</t>
+          <t>29/10/2023 18:29</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-alcorcon/EV4kxQ9K/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-villarreal/tI6svnu8/</t>
         </is>
       </c>
     </row>
@@ -13453,71 +13453,71 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>1.69</v>
+        <v>2.02</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 21:12</t>
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>29/10/2023 18:29</t>
+          <t>29/10/2023 18:01</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.91</v>
+        <v>3.14</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 21:12</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.67</v>
+        <v>3.3</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>29/10/2023 18:29</t>
+          <t>29/10/2023 18:27</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>5.32</v>
+        <v>4.58</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 21:12</t>
         </is>
       </c>
       <c r="T142" t="n">
-        <v>4.96</v>
+        <v>5.59</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>29/10/2023 18:29</t>
+          <t>29/10/2023 18:27</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-villarreal/tI6svnu8/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-alcorcon/EV4kxQ9K/</t>
         </is>
       </c>
     </row>
@@ -14925,71 +14925,71 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G158" t="n">
+        <v>1</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Ferrol</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
         <v>2</v>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>Zaragoza</t>
-        </is>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
       <c r="J158" t="n">
-        <v>1.99</v>
+        <v>2.4</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="L158" t="n">
-        <v>2.07</v>
+        <v>2.48</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>11/11/2023 18:20</t>
+          <t>11/11/2023 18:24</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>3.37</v>
+        <v>3.11</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3.26</v>
+        <v>3.04</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>11/11/2023 18:29</t>
+          <t>11/11/2023 18:24</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>4.16</v>
+        <v>3.32</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="T158" t="n">
-        <v>4.19</v>
+        <v>3.39</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>11/11/2023 18:29</t>
+          <t>11/11/2023 18:24</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-zaragoza/fk2Gtu16/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-ferrol/UqxgfbV5/</t>
         </is>
       </c>
     </row>
@@ -15017,71 +15017,71 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>2.4</v>
+        <v>1.99</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="L159" t="n">
-        <v>2.48</v>
+        <v>2.07</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>11/11/2023 18:24</t>
+          <t>11/11/2023 18:20</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>3.11</v>
+        <v>3.37</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3.04</v>
+        <v>3.26</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>11/11/2023 18:24</t>
+          <t>11/11/2023 18:29</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>3.32</v>
+        <v>4.16</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="T159" t="n">
-        <v>3.39</v>
+        <v>4.19</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>11/11/2023 18:24</t>
+          <t>11/11/2023 18:29</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-ferrol/UqxgfbV5/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-zaragoza/fk2Gtu16/</t>
         </is>
       </c>
     </row>
@@ -15937,22 +15937,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
         <v>2</v>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Tenerife</t>
-        </is>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
       <c r="J169" t="n">
-        <v>3.76</v>
+        <v>1.91</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -15960,7 +15960,7 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>2.92</v>
+        <v>2.14</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         </is>
       </c>
       <c r="N169" t="n">
-        <v>3.16</v>
+        <v>3.32</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -15976,15 +15976,15 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>2.88</v>
+        <v>3.03</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>18/11/2023 18:26</t>
+          <t>18/11/2023 18:29</t>
         </is>
       </c>
       <c r="R169" t="n">
-        <v>2.23</v>
+        <v>4.81</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         </is>
       </c>
       <c r="T169" t="n">
-        <v>2.96</v>
+        <v>4.34</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-tenerife/OrV1hx0I/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-huesca/dfxYfVLG/</t>
         </is>
       </c>
     </row>
@@ -16029,22 +16029,22 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G170" t="n">
+        <v>2</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>Huesca</t>
-        </is>
-      </c>
-      <c r="I170" t="n">
-        <v>2</v>
-      </c>
       <c r="J170" t="n">
-        <v>1.91</v>
+        <v>3.76</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>2.14</v>
+        <v>2.92</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3.32</v>
+        <v>3.16</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -16068,32 +16068,32 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3.03</v>
+        <v>2.88</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
+          <t>18/11/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R170" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T170" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
           <t>18/11/2023 18:29</t>
         </is>
       </c>
-      <c r="R170" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="S170" t="inlineStr">
-        <is>
-          <t>12/11/2023 18:42</t>
-        </is>
-      </c>
-      <c r="T170" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="U170" t="inlineStr">
-        <is>
-          <t>18/11/2023 18:29</t>
-        </is>
-      </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-huesca/dfxYfVLG/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-tenerife/OrV1hx0I/</t>
         </is>
       </c>
     </row>
@@ -16305,7 +16305,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -16313,63 +16313,63 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J173" t="n">
-        <v>2.94</v>
+        <v>1.99</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>13/11/2023 22:12</t>
+          <t>12/11/2023 16:43</t>
         </is>
       </c>
       <c r="L173" t="n">
-        <v>2.76</v>
+        <v>2.23</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>19/11/2023 15:49</t>
+          <t>19/11/2023 16:13</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>2.94</v>
+        <v>3.46</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>13/11/2023 22:12</t>
+          <t>12/11/2023 16:43</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>2.87</v>
+        <v>3.26</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
+          <t>19/11/2023 16:11</t>
+        </is>
+      </c>
+      <c r="R173" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T173" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
           <t>19/11/2023 16:13</t>
         </is>
       </c>
-      <c r="R173" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="S173" t="inlineStr">
-        <is>
-          <t>13/11/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T173" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U173" t="inlineStr">
-        <is>
-          <t>19/11/2023 15:49</t>
-        </is>
-      </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-eibar/OtvQdii4/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-mirandes/08hVzAUp/</t>
         </is>
       </c>
     </row>
@@ -16397,7 +16397,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="G174" t="n">
@@ -16405,63 +16405,63 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J174" t="n">
-        <v>1.99</v>
+        <v>2.94</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>12/11/2023 16:43</t>
+          <t>13/11/2023 22:12</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.23</v>
+        <v>2.76</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
+          <t>19/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>13/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P174" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
           <t>19/11/2023 16:13</t>
         </is>
       </c>
-      <c r="N174" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="O174" t="inlineStr">
-        <is>
-          <t>12/11/2023 16:43</t>
-        </is>
-      </c>
-      <c r="P174" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="Q174" t="inlineStr">
-        <is>
-          <t>19/11/2023 16:11</t>
-        </is>
-      </c>
       <c r="R174" t="n">
-        <v>4.02</v>
+        <v>2.79</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>12/11/2023 16:43</t>
+          <t>13/11/2023 22:12</t>
         </is>
       </c>
       <c r="T174" t="n">
-        <v>3.66</v>
+        <v>3.1</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>19/11/2023 16:13</t>
+          <t>19/11/2023 15:49</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-mirandes/08hVzAUp/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-eibar/OtvQdii4/</t>
         </is>
       </c>
     </row>
@@ -16489,71 +16489,71 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J175" t="n">
-        <v>2.54</v>
+        <v>2.87</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>12/11/2023 18:42</t>
+          <t>13/11/2023 22:12</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>2.61</v>
+        <v>3.69</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>19/11/2023 18:29</t>
+          <t>19/11/2023 18:27</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>12/11/2023 18:42</t>
+          <t>13/11/2023 22:12</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.46</v>
+        <v>3.23</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>19/11/2023 18:04</t>
+          <t>19/11/2023 18:24</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>2.99</v>
+        <v>2.68</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>12/11/2023 18:42</t>
+          <t>13/11/2023 22:12</t>
         </is>
       </c>
       <c r="T175" t="n">
-        <v>2.81</v>
+        <v>2.24</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>19/11/2023 18:29</t>
+          <t>19/11/2023 18:27</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-andorra/xlG9MPu9/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-albacete/SEpHbDMi/</t>
         </is>
       </c>
     </row>
@@ -16581,71 +16581,71 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J176" t="n">
-        <v>2.87</v>
+        <v>2.54</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>13/11/2023 22:12</t>
+          <t>12/11/2023 18:42</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>3.69</v>
+        <v>2.61</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>19/11/2023 18:27</t>
+          <t>19/11/2023 18:29</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>13/11/2023 22:12</t>
+          <t>12/11/2023 18:42</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3.23</v>
+        <v>3.46</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>19/11/2023 18:24</t>
+          <t>19/11/2023 18:04</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>2.68</v>
+        <v>2.99</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>13/11/2023 22:12</t>
+          <t>12/11/2023 18:42</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>2.24</v>
+        <v>2.81</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>19/11/2023 18:27</t>
+          <t>19/11/2023 18:29</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-albacete/SEpHbDMi/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-andorra/xlG9MPu9/</t>
         </is>
       </c>
     </row>
@@ -17317,7 +17317,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G184" t="n">
@@ -17325,14 +17325,14 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="n">
-        <v>1.46</v>
+        <v>3.17</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -17340,15 +17340,15 @@
         </is>
       </c>
       <c r="L184" t="n">
-        <v>1.41</v>
+        <v>3.38</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>26/11/2023 16:13</t>
+          <t>26/11/2023 16:10</t>
         </is>
       </c>
       <c r="N184" t="n">
-        <v>4.56</v>
+        <v>2.91</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -17356,15 +17356,15 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>4.57</v>
+        <v>2.82</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>26/11/2023 16:13</t>
+          <t>26/11/2023 16:07</t>
         </is>
       </c>
       <c r="R184" t="n">
-        <v>7.55</v>
+        <v>2.64</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
@@ -17372,16 +17372,16 @@
         </is>
       </c>
       <c r="T184" t="n">
-        <v>9.470000000000001</v>
+        <v>2.65</v>
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>26/11/2023 16:13</t>
+          <t>26/11/2023 16:10</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-amorebieta/z1Pa9UzA/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-r-oviedo/lpNmCWji/</t>
         </is>
       </c>
     </row>
@@ -17409,7 +17409,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G185" t="n">
@@ -17417,14 +17417,14 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="I185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>3.17</v>
+        <v>1.46</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -17432,15 +17432,15 @@
         </is>
       </c>
       <c r="L185" t="n">
-        <v>3.38</v>
+        <v>1.41</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>26/11/2023 16:10</t>
+          <t>26/11/2023 16:13</t>
         </is>
       </c>
       <c r="N185" t="n">
-        <v>2.91</v>
+        <v>4.56</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
@@ -17448,15 +17448,15 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>2.82</v>
+        <v>4.57</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>26/11/2023 16:07</t>
+          <t>26/11/2023 16:13</t>
         </is>
       </c>
       <c r="R185" t="n">
-        <v>2.64</v>
+        <v>7.55</v>
       </c>
       <c r="S185" t="inlineStr">
         <is>
@@ -17464,16 +17464,16 @@
         </is>
       </c>
       <c r="T185" t="n">
-        <v>2.65</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>26/11/2023 16:10</t>
+          <t>26/11/2023 16:13</t>
         </is>
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-r-oviedo/lpNmCWji/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-amorebieta/z1Pa9UzA/</t>
         </is>
       </c>
     </row>
@@ -17842,6 +17842,282 @@
       <c r="V189" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-espanyol/roikKokS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E190" s="2" t="n">
+        <v>45262.67708333334</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>1</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>0</v>
+      </c>
+      <c r="J190" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>27/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:07</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>27/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P190" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:08</t>
+        </is>
+      </c>
+      <c r="R190" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>27/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T190" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:08</t>
+        </is>
+      </c>
+      <c r="V190" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-gijon/88Cn0Qcd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E191" s="2" t="n">
+        <v>45262.67708333334</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>0</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>3</v>
+      </c>
+      <c r="J191" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>27/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M191" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:02</t>
+        </is>
+      </c>
+      <c r="N191" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>27/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P191" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R191" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>27/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T191" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:02</t>
+        </is>
+      </c>
+      <c r="V191" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-tenerife/MB0UO9zc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E192" s="2" t="n">
+        <v>45262.77083333334</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>1</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>0</v>
+      </c>
+      <c r="J192" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N192" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="P192" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R192" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="T192" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V192" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-leganes/lSTHF5cq/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V192"/>
+  <dimension ref="A1:V221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="I43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1.43</v>
+        <v>1.68</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.54</v>
+        <v>1.83</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:25</t>
+          <t>03/09/2023 18:16</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>4.54</v>
+        <v>3.54</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.99</v>
+        <v>3.28</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:28</t>
+          <t>03/09/2023 18:24</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>7.98</v>
+        <v>6.01</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>7.65</v>
+        <v>5.59</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:28</t>
+          <t>03/09/2023 18:16</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-amorebieta/6mvPWlFi/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-eldense/dxXyUnaA/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="G44" t="n">
+        <v>3</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
         <v>2</v>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Eldense</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
       <c r="J44" t="n">
-        <v>1.68</v>
+        <v>1.43</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:16</t>
+          <t>03/09/2023 18:25</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.54</v>
+        <v>4.54</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.28</v>
+        <v>3.99</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:24</t>
+          <t>03/09/2023 18:28</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>6.01</v>
+        <v>7.98</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>5.59</v>
+        <v>7.65</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:16</t>
+          <t>03/09/2023 18:28</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-eldense/dxXyUnaA/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-amorebieta/6mvPWlFi/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,63 +4905,63 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>2.22</v>
+        <v>1.93</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>03/09/2023 13:12</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>09/09/2023 20:47</t>
+          <t>09/09/2023 20:57</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.18</v>
+        <v>3.25</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>03/09/2023 13:12</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.18</v>
+        <v>3.12</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>09/09/2023 20:47</t>
+          <t>09/09/2023 20:57</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.64</v>
+        <v>4.86</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>03/09/2023 13:12</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.07</v>
+        <v>4.58</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>09/09/2023 20:47</t>
+          <t>09/09/2023 20:57</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-albacete/2Fg3p8qi/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-huesca/pbkOupbM/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,63 +4997,63 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>1.93</v>
+        <v>2.22</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 13:12</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>09/09/2023 20:57</t>
+          <t>09/09/2023 20:47</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.25</v>
+        <v>3.18</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 13:12</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.12</v>
+        <v>3.18</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>09/09/2023 20:57</t>
+          <t>09/09/2023 20:47</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>4.86</v>
+        <v>3.64</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 13:12</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.58</v>
+        <v>4.07</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>09/09/2023 20:57</t>
+          <t>09/09/2023 20:47</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-huesca/pbkOupbM/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-albacete/2Fg3p8qi/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.22</v>
+        <v>1.85</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.13</v>
+        <v>3.44</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.53</v>
+        <v>3.47</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.71</v>
+        <v>4.79</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>4.63</v>
+        <v>5.36</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-villarreal/lzCGM4ip/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-amorebieta/AucBrnE3/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J52" t="n">
-        <v>1.85</v>
+        <v>2.22</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.44</v>
+        <v>3.13</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>4.79</v>
+        <v>3.71</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>5.36</v>
+        <v>4.63</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-amorebieta/AucBrnE3/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-villarreal/lzCGM4ip/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>1.93</v>
+        <v>3.14</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.78</v>
+        <v>2.46</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:24</t>
+          <t>16/09/2023 18:29</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.57</v>
+        <v>3.07</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.71</v>
+        <v>2.96</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:24</t>
+          <t>16/09/2023 18:28</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4.16</v>
+        <v>2.53</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>5.02</v>
+        <v>3.53</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:27</t>
+          <t>16/09/2023 18:29</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-fc-cartagena-sad/lhXkfqDF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-levante/tUzfzOLq/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Levante</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>2</v>
-      </c>
       <c r="J60" t="n">
-        <v>3.14</v>
+        <v>1.93</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.46</v>
+        <v>1.78</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:29</t>
+          <t>16/09/2023 18:24</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.07</v>
+        <v>3.57</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>2.96</v>
+        <v>3.71</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:28</t>
+          <t>16/09/2023 18:24</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.53</v>
+        <v>4.16</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.53</v>
+        <v>5.02</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:29</t>
+          <t>16/09/2023 18:27</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-levante/tUzfzOLq/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-fc-cartagena-sad/lhXkfqDF/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J64" t="n">
-        <v>1.88</v>
+        <v>1.46</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.88</v>
+        <v>1.56</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:28</t>
+          <t>17/09/2023 18:04</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.33</v>
+        <v>4.23</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.31</v>
+        <v>4.04</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:29</t>
+          <t>17/09/2023 18:26</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>4.97</v>
+        <v>8.23</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>5.07</v>
+        <v>6.99</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:29</t>
+          <t>17/09/2023 18:09</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-leganes/EZvwcoTd/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-eldense/IRyfg3SL/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>1.46</v>
+        <v>1.88</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.56</v>
+        <v>1.88</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:04</t>
+          <t>17/09/2023 18:28</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>4.23</v>
+        <v>3.33</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>4.04</v>
+        <v>3.31</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:26</t>
+          <t>17/09/2023 18:29</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>8.23</v>
+        <v>4.97</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>6.99</v>
+        <v>5.07</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:09</t>
+          <t>17/09/2023 18:29</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-eldense/IRyfg3SL/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-leganes/EZvwcoTd/</t>
         </is>
       </c>
     </row>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J72" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.31</v>
+        <v>2.66</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:55</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>2.95</v>
+        <v>3.12</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>2.91</v>
+        <v>3</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:56</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.54</v>
+        <v>3.12</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.98</v>
+        <v>3.15</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:56</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-huesca/2aDQmsjq/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-albacete/l6CO8rS8/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
         <v>2</v>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Albacete</t>
-        </is>
-      </c>
-      <c r="I73" t="n">
-        <v>1</v>
-      </c>
       <c r="J73" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.66</v>
+        <v>2.31</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:55</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>3.12</v>
+        <v>2.95</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:56</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.12</v>
+        <v>3.54</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.15</v>
+        <v>3.98</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:56</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-albacete/l6CO8rS8/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-huesca/2aDQmsjq/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>3</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Mirandes</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
       <c r="J85" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.38</v>
+        <v>3.61</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.97</v>
+        <v>4.86</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.97</v>
+        <v>4.95</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.61</v>
+        <v>3.38</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.86</v>
+        <v>4.97</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>4.95</v>
+        <v>4.97</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2.47</v>
+        <v>2.23</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>2.39</v>
+        <v>2.29</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>04/10/2023 21:26</t>
+          <t>04/10/2023 21:28</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.29</v>
+        <v>3.14</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.09</v>
+        <v>2.9</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>04/10/2023 21:26</t>
+          <t>04/10/2023 21:28</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>3.1</v>
+        <v>3.68</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>01/10/2023 20:12</t>
+          <t>01/10/2023 17:43</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>3.5</v>
+        <v>4.04</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>04/10/2023 21:26</t>
+          <t>04/10/2023 21:29</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-elche/OKrIEAfa/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-leganes/xfueaVfC/</t>
         </is>
       </c>
     </row>
@@ -9221,71 +9221,71 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G96" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>2.23</v>
+        <v>2.47</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="L96" t="n">
-        <v>2.29</v>
+        <v>2.39</v>
       </c>
       <c r="M96" t="inlineStr">
         <is>
-          <t>04/10/2023 21:28</t>
+          <t>04/10/2023 21:26</t>
         </is>
       </c>
       <c r="N96" t="n">
-        <v>3.14</v>
+        <v>3.29</v>
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="P96" t="n">
-        <v>2.9</v>
+        <v>3.09</v>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
-          <t>04/10/2023 21:28</t>
+          <t>04/10/2023 21:26</t>
         </is>
       </c>
       <c r="R96" t="n">
-        <v>3.68</v>
+        <v>3.1</v>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>01/10/2023 17:43</t>
+          <t>01/10/2023 20:12</t>
         </is>
       </c>
       <c r="T96" t="n">
-        <v>4.04</v>
+        <v>3.5</v>
       </c>
       <c r="U96" t="inlineStr">
         <is>
-          <t>04/10/2023 21:29</t>
+          <t>04/10/2023 21:26</t>
         </is>
       </c>
       <c r="V96" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-leganes/xfueaVfC/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-elche/OKrIEAfa/</t>
         </is>
       </c>
     </row>
@@ -11245,22 +11245,22 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="G118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="n">
-        <v>1.96</v>
+        <v>2.96</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,7 +11268,7 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
@@ -11276,7 +11276,7 @@
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.39</v>
+        <v>3.22</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>3.03</v>
+        <v>3.18</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>15/10/2023 16:09</t>
+          <t>15/10/2023 16:10</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>4.38</v>
+        <v>2.56</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,7 +11300,7 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>3.95</v>
+        <v>2.34</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-alcorcon/zPVA1O3q/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-elche/vHKowowH/</t>
         </is>
       </c>
     </row>
@@ -11337,22 +11337,22 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>2.96</v>
+        <v>1.96</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -11360,7 +11360,7 @@
         </is>
       </c>
       <c r="L119" t="n">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
@@ -11368,7 +11368,7 @@
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.22</v>
+        <v>3.39</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
@@ -11376,15 +11376,15 @@
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.18</v>
+        <v>3.03</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>15/10/2023 16:10</t>
+          <t>15/10/2023 16:09</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>2.56</v>
+        <v>4.38</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
@@ -11392,7 +11392,7 @@
         </is>
       </c>
       <c r="T119" t="n">
-        <v>2.34</v>
+        <v>3.95</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-elche/vHKowowH/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-alcorcon/zPVA1O3q/</t>
         </is>
       </c>
     </row>
@@ -11429,71 +11429,71 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="G120" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="n">
-        <v>1.7</v>
+        <v>1.57</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>09/10/2023 11:11</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.74</v>
+        <v>1.59</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>15/10/2023 18:23</t>
+          <t>15/10/2023 18:22</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.57</v>
+        <v>3.87</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>09/10/2023 11:11</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.63</v>
+        <v>3.7</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>15/10/2023 18:23</t>
+          <t>15/10/2023 18:22</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>5.98</v>
+        <v>6.75</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>09/10/2023 11:11</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>5.58</v>
+        <v>7.53</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>15/10/2023 18:23</t>
+          <t>15/10/2023 18:24</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-amorebieta/QDGsvRNA/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eibar-huesca/GxjrJPoo/</t>
         </is>
       </c>
     </row>
@@ -11521,71 +11521,71 @@
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>09/10/2023 11:11</t>
         </is>
       </c>
       <c r="L121" t="n">
-        <v>1.59</v>
+        <v>1.74</v>
       </c>
       <c r="M121" t="inlineStr">
         <is>
-          <t>15/10/2023 18:22</t>
+          <t>15/10/2023 18:23</t>
         </is>
       </c>
       <c r="N121" t="n">
-        <v>3.87</v>
+        <v>3.57</v>
       </c>
       <c r="O121" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>09/10/2023 11:11</t>
         </is>
       </c>
       <c r="P121" t="n">
-        <v>3.7</v>
+        <v>3.63</v>
       </c>
       <c r="Q121" t="inlineStr">
         <is>
-          <t>15/10/2023 18:22</t>
+          <t>15/10/2023 18:23</t>
         </is>
       </c>
       <c r="R121" t="n">
-        <v>6.75</v>
+        <v>5.98</v>
       </c>
       <c r="S121" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>09/10/2023 11:11</t>
         </is>
       </c>
       <c r="T121" t="n">
-        <v>7.53</v>
+        <v>5.58</v>
       </c>
       <c r="U121" t="inlineStr">
         <is>
-          <t>15/10/2023 18:24</t>
+          <t>15/10/2023 18:23</t>
         </is>
       </c>
       <c r="V121" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eibar-huesca/GxjrJPoo/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-amorebieta/QDGsvRNA/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G130" t="n">
+        <v>1</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
         <v>3</v>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Burgos CF</t>
-        </is>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
       <c r="J130" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>22/10/2023 18:29</t>
+          <t>22/10/2023 18:09</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.37</v>
+        <v>3.46</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.31</v>
+        <v>3.1</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>22/10/2023 18:29</t>
+          <t>22/10/2023 18:09</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>4.23</v>
+        <v>4.19</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>3.99</v>
+        <v>4.02</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>22/10/2023 18:29</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-burgos-cf/IJsDtKq9/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-gijon/A3sJKxNk/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>22/10/2023 18:09</t>
+          <t>22/10/2023 18:29</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.46</v>
+        <v>3.37</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.1</v>
+        <v>3.31</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>22/10/2023 18:09</t>
+          <t>22/10/2023 18:29</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>4.19</v>
+        <v>4.23</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>4.02</v>
+        <v>3.99</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:29</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-gijon/A3sJKxNk/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-burgos-cf/IJsDtKq9/</t>
         </is>
       </c>
     </row>
@@ -12901,7 +12901,7 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G136" t="n">
@@ -12909,63 +12909,63 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
       <c r="J136" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
         <v>2.53</v>
       </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>22/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>2.39</v>
-      </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:27</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.26</v>
+        <v>3.19</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>22/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P136" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
         <v>3.13</v>
       </c>
-      <c r="Q136" t="inlineStr">
-        <is>
-          <t>28/10/2023 18:29</t>
-        </is>
-      </c>
-      <c r="R136" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="S136" t="inlineStr">
-        <is>
-          <t>22/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="T136" t="n">
-        <v>3.44</v>
-      </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>28/10/2023 18:29</t>
+          <t>28/10/2023 18:27</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-levante/WjPJa2Ye/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-espanyol/C6pQVNnl/</t>
         </is>
       </c>
     </row>
@@ -12993,7 +12993,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="G137" t="n">
@@ -13001,63 +13001,63 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>2.67</v>
+        <v>2.53</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 21:12</t>
         </is>
       </c>
       <c r="L137" t="n">
-        <v>2.53</v>
+        <v>2.39</v>
       </c>
       <c r="M137" t="inlineStr">
         <is>
-          <t>28/10/2023 18:27</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="N137" t="n">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="O137" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 21:12</t>
         </is>
       </c>
       <c r="P137" t="n">
-        <v>3.2</v>
+        <v>3.13</v>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
-          <t>28/10/2023 18:26</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="R137" t="n">
-        <v>2.91</v>
+        <v>3.05</v>
       </c>
       <c r="S137" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 21:12</t>
         </is>
       </c>
       <c r="T137" t="n">
-        <v>3.13</v>
+        <v>3.44</v>
       </c>
       <c r="U137" t="inlineStr">
         <is>
-          <t>28/10/2023 18:27</t>
+          <t>28/10/2023 18:29</t>
         </is>
       </c>
       <c r="V137" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-espanyol/C6pQVNnl/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-levante/WjPJa2Ye/</t>
         </is>
       </c>
     </row>
@@ -14373,71 +14373,71 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G152" t="n">
+        <v>0</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
         <v>3</v>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>Racing Santander</t>
-        </is>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
       <c r="J152" t="n">
-        <v>2.21</v>
+        <v>2.38</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>29/10/2023 21:12</t>
+          <t>29/10/2023 18:42</t>
         </is>
       </c>
       <c r="L152" t="n">
-        <v>2.63</v>
+        <v>2.98</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
+          <t>05/11/2023 18:22</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:24</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T152" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
           <t>05/11/2023 18:29</t>
         </is>
       </c>
-      <c r="N152" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O152" t="inlineStr">
-        <is>
-          <t>29/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="P152" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="Q152" t="inlineStr">
-        <is>
-          <t>05/11/2023 18:28</t>
-        </is>
-      </c>
-      <c r="R152" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="S152" t="inlineStr">
-        <is>
-          <t>29/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="T152" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="U152" t="inlineStr">
-        <is>
-          <t>05/11/2023 18:29</t>
-        </is>
-      </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-racing-santander/2ewwTLW6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-leganes/SYUOjPOD/</t>
         </is>
       </c>
     </row>
@@ -14465,62 +14465,62 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="I153" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J153" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>29/10/2023 18:42</t>
+          <t>29/10/2023 21:12</t>
         </is>
       </c>
       <c r="L153" t="n">
-        <v>2.98</v>
+        <v>2.63</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
-          <t>05/11/2023 18:22</t>
+          <t>05/11/2023 18:29</t>
         </is>
       </c>
       <c r="N153" t="n">
-        <v>3.18</v>
+        <v>3.25</v>
       </c>
       <c r="O153" t="inlineStr">
         <is>
-          <t>29/10/2023 18:42</t>
+          <t>29/10/2023 21:12</t>
         </is>
       </c>
       <c r="P153" t="n">
-        <v>3.03</v>
+        <v>3.22</v>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
-          <t>05/11/2023 18:24</t>
+          <t>05/11/2023 18:28</t>
         </is>
       </c>
       <c r="R153" t="n">
-        <v>3.29</v>
+        <v>3.58</v>
       </c>
       <c r="S153" t="inlineStr">
         <is>
-          <t>29/10/2023 18:42</t>
+          <t>29/10/2023 21:12</t>
         </is>
       </c>
       <c r="T153" t="n">
-        <v>2.76</v>
+        <v>2.97</v>
       </c>
       <c r="U153" t="inlineStr">
         <is>
@@ -14529,7 +14529,7 @@
       </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-leganes/SYUOjPOD/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-racing-santander/2ewwTLW6/</t>
         </is>
       </c>
     </row>
@@ -14925,71 +14925,71 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>2.4</v>
+        <v>1.99</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="L158" t="n">
-        <v>2.48</v>
+        <v>2.07</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>11/11/2023 18:24</t>
+          <t>11/11/2023 18:20</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>3.11</v>
+        <v>3.37</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3.04</v>
+        <v>3.26</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>11/11/2023 18:24</t>
+          <t>11/11/2023 18:29</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>3.32</v>
+        <v>4.16</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="T158" t="n">
-        <v>3.39</v>
+        <v>4.19</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>11/11/2023 18:24</t>
+          <t>11/11/2023 18:29</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-ferrol/UqxgfbV5/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-zaragoza/fk2Gtu16/</t>
         </is>
       </c>
     </row>
@@ -15017,71 +15017,71 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G159" t="n">
+        <v>1</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Ferrol</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
         <v>2</v>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>Zaragoza</t>
-        </is>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
       <c r="J159" t="n">
-        <v>1.99</v>
+        <v>2.4</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="L159" t="n">
-        <v>2.07</v>
+        <v>2.48</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>11/11/2023 18:20</t>
+          <t>11/11/2023 18:24</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>3.37</v>
+        <v>3.11</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3.26</v>
+        <v>3.04</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>11/11/2023 18:29</t>
+          <t>11/11/2023 18:24</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>4.16</v>
+        <v>3.32</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="T159" t="n">
-        <v>4.19</v>
+        <v>3.39</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>11/11/2023 18:29</t>
+          <t>11/11/2023 18:24</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-zaragoza/fk2Gtu16/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-ferrol/UqxgfbV5/</t>
         </is>
       </c>
     </row>
@@ -15937,22 +15937,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G169" t="n">
+        <v>2</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Huesca</t>
-        </is>
-      </c>
-      <c r="I169" t="n">
-        <v>2</v>
-      </c>
       <c r="J169" t="n">
-        <v>1.91</v>
+        <v>3.76</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -15960,7 +15960,7 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>2.14</v>
+        <v>2.92</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         </is>
       </c>
       <c r="N169" t="n">
-        <v>3.32</v>
+        <v>3.16</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -15976,32 +15976,32 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>3.03</v>
+        <v>2.88</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
+          <t>18/11/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R169" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T169" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
           <t>18/11/2023 18:29</t>
         </is>
       </c>
-      <c r="R169" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="S169" t="inlineStr">
-        <is>
-          <t>12/11/2023 18:42</t>
-        </is>
-      </c>
-      <c r="T169" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="U169" t="inlineStr">
-        <is>
-          <t>18/11/2023 18:29</t>
-        </is>
-      </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-huesca/dfxYfVLG/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-tenerife/OrV1hx0I/</t>
         </is>
       </c>
     </row>
@@ -16029,22 +16029,22 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
         <v>2</v>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>Tenerife</t>
-        </is>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
       <c r="J170" t="n">
-        <v>3.76</v>
+        <v>1.91</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>2.92</v>
+        <v>2.14</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3.16</v>
+        <v>3.32</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -16068,15 +16068,15 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>2.88</v>
+        <v>3.03</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>18/11/2023 18:26</t>
+          <t>18/11/2023 18:29</t>
         </is>
       </c>
       <c r="R170" t="n">
-        <v>2.23</v>
+        <v>4.81</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         </is>
       </c>
       <c r="T170" t="n">
-        <v>2.96</v>
+        <v>4.34</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-tenerife/OrV1hx0I/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-huesca/dfxYfVLG/</t>
         </is>
       </c>
     </row>
@@ -16305,7 +16305,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -16313,63 +16313,63 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J173" t="n">
-        <v>1.99</v>
+        <v>2.94</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>12/11/2023 16:43</t>
+          <t>13/11/2023 22:12</t>
         </is>
       </c>
       <c r="L173" t="n">
-        <v>2.23</v>
+        <v>2.76</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
+          <t>19/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>13/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
           <t>19/11/2023 16:13</t>
         </is>
       </c>
-      <c r="N173" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="O173" t="inlineStr">
-        <is>
-          <t>12/11/2023 16:43</t>
-        </is>
-      </c>
-      <c r="P173" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="Q173" t="inlineStr">
-        <is>
-          <t>19/11/2023 16:11</t>
-        </is>
-      </c>
       <c r="R173" t="n">
-        <v>4.02</v>
+        <v>2.79</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
-          <t>12/11/2023 16:43</t>
+          <t>13/11/2023 22:12</t>
         </is>
       </c>
       <c r="T173" t="n">
-        <v>3.66</v>
+        <v>3.1</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>19/11/2023 16:13</t>
+          <t>19/11/2023 15:49</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-mirandes/08hVzAUp/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-eibar/OtvQdii4/</t>
         </is>
       </c>
     </row>
@@ -16397,7 +16397,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="G174" t="n">
@@ -16405,63 +16405,63 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J174" t="n">
-        <v>2.94</v>
+        <v>1.99</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>13/11/2023 22:12</t>
+          <t>12/11/2023 16:43</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.76</v>
+        <v>2.23</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>19/11/2023 15:49</t>
+          <t>19/11/2023 16:13</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>2.94</v>
+        <v>3.46</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>13/11/2023 22:12</t>
+          <t>12/11/2023 16:43</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>2.87</v>
+        <v>3.26</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
+          <t>19/11/2023 16:11</t>
+        </is>
+      </c>
+      <c r="R174" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T174" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
           <t>19/11/2023 16:13</t>
         </is>
       </c>
-      <c r="R174" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="S174" t="inlineStr">
-        <is>
-          <t>13/11/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T174" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U174" t="inlineStr">
-        <is>
-          <t>19/11/2023 15:49</t>
-        </is>
-      </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-eibar/OtvQdii4/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-mirandes/08hVzAUp/</t>
         </is>
       </c>
     </row>
@@ -16857,71 +16857,71 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>2.28</v>
+        <v>1.7</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>19/11/2023 18:42</t>
+          <t>20/11/2023 21:12</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>2.37</v>
+        <v>1.84</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>25/11/2023 15:47</t>
+          <t>25/11/2023 15:57</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>19/11/2023 18:42</t>
+          <t>20/11/2023 21:12</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>3.15</v>
+        <v>3.91</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>25/11/2023 16:09</t>
+          <t>25/11/2023 15:57</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>3.62</v>
+        <v>4.71</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>19/11/2023 18:42</t>
+          <t>20/11/2023 21:12</t>
         </is>
       </c>
       <c r="T179" t="n">
-        <v>3.47</v>
+        <v>4.33</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>25/11/2023 15:47</t>
+          <t>25/11/2023 15:57</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-fc-andorra/KC5ELqeF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-villarreal/SzMiBj6c/</t>
         </is>
       </c>
     </row>
@@ -16949,71 +16949,71 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>1.7</v>
+        <v>2.28</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>20/11/2023 21:12</t>
+          <t>19/11/2023 18:42</t>
         </is>
       </c>
       <c r="L180" t="n">
-        <v>1.84</v>
+        <v>2.37</v>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>25/11/2023 15:57</t>
+          <t>25/11/2023 15:47</t>
         </is>
       </c>
       <c r="N180" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>20/11/2023 21:12</t>
+          <t>19/11/2023 18:42</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>3.91</v>
+        <v>3.15</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>25/11/2023 15:57</t>
+          <t>25/11/2023 16:09</t>
         </is>
       </c>
       <c r="R180" t="n">
-        <v>4.71</v>
+        <v>3.62</v>
       </c>
       <c r="S180" t="inlineStr">
         <is>
-          <t>20/11/2023 21:12</t>
+          <t>19/11/2023 18:42</t>
         </is>
       </c>
       <c r="T180" t="n">
-        <v>4.33</v>
+        <v>3.47</v>
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>25/11/2023 15:57</t>
+          <t>25/11/2023 15:47</t>
         </is>
       </c>
       <c r="V180" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-villarreal/SzMiBj6c/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-fc-andorra/KC5ELqeF/</t>
         </is>
       </c>
     </row>
@@ -17869,71 +17869,71 @@
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="G190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J190" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>27/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M190" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:02</t>
+        </is>
+      </c>
+      <c r="N190" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>27/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P190" t="n">
         <v>2.93</v>
       </c>
-      <c r="K190" t="inlineStr">
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>02/12/2023 15:52</t>
+        </is>
+      </c>
+      <c r="R190" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="S190" t="inlineStr">
         <is>
           <t>27/11/2023 21:12</t>
         </is>
       </c>
-      <c r="L190" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="M190" t="inlineStr">
-        <is>
-          <t>02/12/2023 16:07</t>
-        </is>
-      </c>
-      <c r="N190" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="O190" t="inlineStr">
-        <is>
-          <t>27/11/2023 21:12</t>
-        </is>
-      </c>
-      <c r="P190" t="n">
-        <v>3.16</v>
-      </c>
-      <c r="Q190" t="inlineStr">
-        <is>
-          <t>02/12/2023 16:08</t>
-        </is>
-      </c>
-      <c r="R190" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="S190" t="inlineStr">
-        <is>
-          <t>27/11/2023 21:12</t>
-        </is>
-      </c>
       <c r="T190" t="n">
-        <v>2.51</v>
+        <v>3.63</v>
       </c>
       <c r="U190" t="inlineStr">
         <is>
-          <t>02/12/2023 16:08</t>
+          <t>02/12/2023 16:02</t>
         </is>
       </c>
       <c r="V190" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-gijon/88Cn0Qcd/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-tenerife/MB0UO9zc/</t>
         </is>
       </c>
     </row>
@@ -17961,22 +17961,22 @@
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G191" t="n">
+        <v>1</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>Tenerife</t>
-        </is>
-      </c>
-      <c r="I191" t="n">
-        <v>3</v>
-      </c>
       <c r="J191" t="n">
-        <v>2.62</v>
+        <v>2.93</v>
       </c>
       <c r="K191" t="inlineStr">
         <is>
@@ -17984,15 +17984,15 @@
         </is>
       </c>
       <c r="L191" t="n">
-        <v>2.43</v>
+        <v>3.2</v>
       </c>
       <c r="M191" t="inlineStr">
         <is>
-          <t>02/12/2023 16:02</t>
+          <t>02/12/2023 16:07</t>
         </is>
       </c>
       <c r="N191" t="n">
-        <v>3.01</v>
+        <v>3.23</v>
       </c>
       <c r="O191" t="inlineStr">
         <is>
@@ -18000,15 +18000,15 @@
         </is>
       </c>
       <c r="P191" t="n">
-        <v>2.93</v>
+        <v>3.16</v>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
-          <t>02/12/2023 15:52</t>
+          <t>02/12/2023 16:08</t>
         </is>
       </c>
       <c r="R191" t="n">
-        <v>3.07</v>
+        <v>2.58</v>
       </c>
       <c r="S191" t="inlineStr">
         <is>
@@ -18016,16 +18016,16 @@
         </is>
       </c>
       <c r="T191" t="n">
-        <v>3.63</v>
+        <v>2.51</v>
       </c>
       <c r="U191" t="inlineStr">
         <is>
-          <t>02/12/2023 16:02</t>
+          <t>02/12/2023 16:08</t>
         </is>
       </c>
       <c r="V191" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-tenerife/MB0UO9zc/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-gijon/88Cn0Qcd/</t>
         </is>
       </c>
     </row>
@@ -18118,6 +18118,2674 @@
       <c r="V192" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-leganes/lSTHF5cq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E193" s="2" t="n">
+        <v>45262.875</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>2</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>1</v>
+      </c>
+      <c r="J193" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>25/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="M193" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:48</t>
+        </is>
+      </c>
+      <c r="N193" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>25/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P193" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:33</t>
+        </is>
+      </c>
+      <c r="R193" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>25/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T193" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>02/12/2023 20:48</t>
+        </is>
+      </c>
+      <c r="V193" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/levante-valladolid/zF4YNTk3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E194" s="2" t="n">
+        <v>45263.58333333334</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Andorra</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>1</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>0</v>
+      </c>
+      <c r="J194" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M194" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:50</t>
+        </is>
+      </c>
+      <c r="N194" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="P194" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R194" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="T194" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V194" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-huesca/b34IK3AL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E195" s="2" t="n">
+        <v>45263.67708333334</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Alcorcon</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>0</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>2</v>
+      </c>
+      <c r="J195" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:42</t>
+        </is>
+      </c>
+      <c r="N195" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P195" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="R195" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T195" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>03/12/2023 15:29</t>
+        </is>
+      </c>
+      <c r="V195" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-elche/CtJw2nTq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E196" s="2" t="n">
+        <v>45263.77083333334</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>Ferrol</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>5</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>Albacete</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>4</v>
+      </c>
+      <c r="J196" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N196" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P196" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="R196" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T196" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V196" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-albacete/dUhsM7KF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E197" s="2" t="n">
+        <v>45263.77083333334</v>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>Mirandes</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>0</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>0</v>
+      </c>
+      <c r="J197" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:21</t>
+        </is>
+      </c>
+      <c r="N197" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P197" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:21</t>
+        </is>
+      </c>
+      <c r="R197" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>26/11/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T197" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:21</t>
+        </is>
+      </c>
+      <c r="V197" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-racing-santander/IwfwNm59/</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E198" s="2" t="n">
+        <v>45263.875</v>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>0</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>1</v>
+      </c>
+      <c r="J198" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>03/12/2023 20:53</t>
+        </is>
+      </c>
+      <c r="N198" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P198" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>03/12/2023 20:50</t>
+        </is>
+      </c>
+      <c r="R198" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>26/11/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T198" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>03/12/2023 20:53</t>
+        </is>
+      </c>
+      <c r="V198" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-burgos-cf/UHDr16rj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E199" s="2" t="n">
+        <v>45264.85416666666</v>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>Villarreal B</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>0</v>
+      </c>
+      <c r="J199" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>27/11/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L199" t="n">
+        <v>4</v>
+      </c>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>04/12/2023 20:25</t>
+        </is>
+      </c>
+      <c r="N199" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>27/11/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P199" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>04/12/2023 20:25</t>
+        </is>
+      </c>
+      <c r="R199" t="n">
+        <v>2</v>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>27/11/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T199" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>04/12/2023 20:25</t>
+        </is>
+      </c>
+      <c r="V199" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-eibar/4fhoLRZL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E200" s="2" t="n">
+        <v>45268.77083333334</v>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>Albacete</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>2</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>Villarreal B</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>0</v>
+      </c>
+      <c r="J200" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>04/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L200" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>08/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="N200" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>04/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P200" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>08/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R200" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>04/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T200" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>08/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V200" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-villarreal/2VXLEPCk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E201" s="2" t="n">
+        <v>45268.875</v>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="G201" t="n">
+        <v>1</v>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="I201" t="n">
+        <v>1</v>
+      </c>
+      <c r="J201" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>08/12/2023 20:47</t>
+        </is>
+      </c>
+      <c r="N201" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P201" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>08/12/2023 20:47</t>
+        </is>
+      </c>
+      <c r="R201" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T201" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>08/12/2023 20:57</t>
+        </is>
+      </c>
+      <c r="V201" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-zaragoza/zqWTC3s2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E202" s="2" t="n">
+        <v>45269.67708333334</v>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="G202" t="n">
+        <v>2</v>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I202" t="n">
+        <v>1</v>
+      </c>
+      <c r="J202" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L202" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:06</t>
+        </is>
+      </c>
+      <c r="N202" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P202" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:14</t>
+        </is>
+      </c>
+      <c r="R202" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T202" t="n">
+        <v>6.97</v>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:14</t>
+        </is>
+      </c>
+      <c r="V202" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-amorebieta/jiEGz7Z8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E203" s="2" t="n">
+        <v>45269.77083333334</v>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="G203" t="n">
+        <v>0</v>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="I203" t="n">
+        <v>0</v>
+      </c>
+      <c r="J203" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L203" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:27</t>
+        </is>
+      </c>
+      <c r="N203" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P203" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R203" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>02/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T203" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>09/12/2023 18:27</t>
+        </is>
+      </c>
+      <c r="V203" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-levante/tMheTORr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E204" s="2" t="n">
+        <v>45269.875</v>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="G204" t="n">
+        <v>0</v>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>Mirandes</t>
+        </is>
+      </c>
+      <c r="I204" t="n">
+        <v>0</v>
+      </c>
+      <c r="J204" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:56</t>
+        </is>
+      </c>
+      <c r="N204" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P204" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:56</t>
+        </is>
+      </c>
+      <c r="R204" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T204" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>09/12/2023 20:56</t>
+        </is>
+      </c>
+      <c r="V204" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-mirandes/dhXPDqSe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E205" s="2" t="n">
+        <v>45270.58333333334</v>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="G205" t="n">
+        <v>1</v>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="I205" t="n">
+        <v>2</v>
+      </c>
+      <c r="J205" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K205" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L205" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N205" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P205" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R205" t="n">
+        <v>5.39</v>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T205" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V205" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-fc-cartagena-sad/pEDKZQlF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E206" s="2" t="n">
+        <v>45270.67708333334</v>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="G206" t="n">
+        <v>2</v>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>R. Oviedo</t>
+        </is>
+      </c>
+      <c r="I206" t="n">
+        <v>2</v>
+      </c>
+      <c r="J206" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="K206" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L206" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:14</t>
+        </is>
+      </c>
+      <c r="N206" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P206" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:00</t>
+        </is>
+      </c>
+      <c r="R206" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="S206" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T206" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="U206" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:14</t>
+        </is>
+      </c>
+      <c r="V206" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-r-oviedo/AecaSrsk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E207" s="2" t="n">
+        <v>45270.77083333334</v>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>1</v>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="I207" t="n">
+        <v>1</v>
+      </c>
+      <c r="J207" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K207" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L207" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N207" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P207" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R207" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="S207" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T207" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="U207" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V207" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-eldense/dlHOYp4L/</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E208" s="2" t="n">
+        <v>45270.77083333334</v>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>2</v>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>Andorra</t>
+        </is>
+      </c>
+      <c r="I208" t="n">
+        <v>2</v>
+      </c>
+      <c r="J208" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K208" t="inlineStr">
+        <is>
+          <t>04/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L208" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:17</t>
+        </is>
+      </c>
+      <c r="N208" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>04/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P208" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:17</t>
+        </is>
+      </c>
+      <c r="R208" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="S208" t="inlineStr">
+        <is>
+          <t>04/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T208" t="n">
+        <v>6.12</v>
+      </c>
+      <c r="U208" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:17</t>
+        </is>
+      </c>
+      <c r="V208" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eibar-fc-andorra/6T3MJNPR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E209" s="2" t="n">
+        <v>45270.875</v>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="G209" t="n">
+        <v>1</v>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>Ferrol</t>
+        </is>
+      </c>
+      <c r="I209" t="n">
+        <v>0</v>
+      </c>
+      <c r="J209" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K209" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L209" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>10/12/2023 20:50</t>
+        </is>
+      </c>
+      <c r="N209" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P209" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>10/12/2023 20:50</t>
+        </is>
+      </c>
+      <c r="R209" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="S209" t="inlineStr">
+        <is>
+          <t>03/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T209" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="U209" t="inlineStr">
+        <is>
+          <t>10/12/2023 20:59</t>
+        </is>
+      </c>
+      <c r="V209" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/huesca-ferrol/vD6TX4JR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E210" s="2" t="n">
+        <v>45271.875</v>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
+        <v>1</v>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>Alcorcon</t>
+        </is>
+      </c>
+      <c r="I210" t="n">
+        <v>0</v>
+      </c>
+      <c r="J210" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K210" t="inlineStr">
+        <is>
+          <t>04/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L210" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>11/12/2023 20:09</t>
+        </is>
+      </c>
+      <c r="N210" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>04/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P210" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>11/12/2023 20:32</t>
+        </is>
+      </c>
+      <c r="R210" t="n">
+        <v>6</v>
+      </c>
+      <c r="S210" t="inlineStr">
+        <is>
+          <t>04/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T210" t="n">
+        <v>8.029999999999999</v>
+      </c>
+      <c r="U210" t="inlineStr">
+        <is>
+          <t>11/12/2023 20:34</t>
+        </is>
+      </c>
+      <c r="V210" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-alcorcon/C0FCymK2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E211" s="2" t="n">
+        <v>45275.85416666666</v>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>R. Oviedo</t>
+        </is>
+      </c>
+      <c r="G211" t="n">
+        <v>3</v>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="I211" t="n">
+        <v>2</v>
+      </c>
+      <c r="J211" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K211" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:43</t>
+        </is>
+      </c>
+      <c r="L211" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>15/12/2023 20:25</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:43</t>
+        </is>
+      </c>
+      <c r="P211" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>15/12/2023 20:20</t>
+        </is>
+      </c>
+      <c r="R211" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="S211" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T211" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="U211" t="inlineStr">
+        <is>
+          <t>15/12/2023 20:28</t>
+        </is>
+      </c>
+      <c r="V211" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-elche/zHVRTeIg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E212" s="2" t="n">
+        <v>45276.58333333334</v>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="G212" t="n">
+        <v>3</v>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="I212" t="n">
+        <v>3</v>
+      </c>
+      <c r="J212" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K212" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L212" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:31</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P212" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:31</t>
+        </is>
+      </c>
+      <c r="R212" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S212" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T212" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="U212" t="inlineStr">
+        <is>
+          <t>16/12/2023 13:31</t>
+        </is>
+      </c>
+      <c r="V212" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-racing-santander/pEkCPtR7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E213" s="2" t="n">
+        <v>45276.67708333334</v>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>Andorra</t>
+        </is>
+      </c>
+      <c r="G213" t="n">
+        <v>1</v>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="I213" t="n">
+        <v>1</v>
+      </c>
+      <c r="J213" t="n">
+        <v>3</v>
+      </c>
+      <c r="K213" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L213" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P213" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>16/12/2023 15:40</t>
+        </is>
+      </c>
+      <c r="R213" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="S213" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T213" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="U213" t="inlineStr">
+        <is>
+          <t>16/12/2023 16:12</t>
+        </is>
+      </c>
+      <c r="V213" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-espanyol/h4QpSQTM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E214" s="2" t="n">
+        <v>45276.77083333334</v>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="G214" t="n">
+        <v>1</v>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="I214" t="n">
+        <v>1</v>
+      </c>
+      <c r="J214" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K214" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L214" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P214" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="R214" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T214" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="U214" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:28</t>
+        </is>
+      </c>
+      <c r="V214" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-leganes/WrPzSZn6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E215" s="2" t="n">
+        <v>45276.77083333334</v>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="G215" t="n">
+        <v>0</v>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I215" t="n">
+        <v>3</v>
+      </c>
+      <c r="J215" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K215" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L215" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P215" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="R215" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>10/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T215" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V215" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-burgos-cf/tfWNUy3m/</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E216" s="2" t="n">
+        <v>45276.875</v>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>Mirandes</t>
+        </is>
+      </c>
+      <c r="G216" t="n">
+        <v>2</v>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>Albacete</t>
+        </is>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="K216" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L216" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>16/12/2023 20:55</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P216" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>16/12/2023 20:55</t>
+        </is>
+      </c>
+      <c r="R216" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>09/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T216" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>16/12/2023 20:55</t>
+        </is>
+      </c>
+      <c r="V216" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-albacete/23XJVHms/</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E217" s="2" t="n">
+        <v>45277.58333333334</v>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>Alcorcon</t>
+        </is>
+      </c>
+      <c r="G217" t="n">
+        <v>1</v>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="K217" t="inlineStr">
+        <is>
+          <t>11/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L217" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>11/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P217" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R217" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>11/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T217" t="n">
+        <v>2</v>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>17/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V217" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-eibar/lnd3R2de/</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E218" s="2" t="n">
+        <v>45277.67708333334</v>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="G218" t="n">
+        <v>2</v>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I218" t="n">
+        <v>1</v>
+      </c>
+      <c r="J218" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K218" t="inlineStr">
+        <is>
+          <t>10/12/2023 21:11</t>
+        </is>
+      </c>
+      <c r="L218" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:11</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>10/12/2023 21:11</t>
+        </is>
+      </c>
+      <c r="P218" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="R218" t="n">
+        <v>4.55</v>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>10/12/2023 21:11</t>
+        </is>
+      </c>
+      <c r="T218" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:13</t>
+        </is>
+      </c>
+      <c r="V218" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/levante-huesca/lKZVSFXa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E219" s="2" t="n">
+        <v>45277.77083333334</v>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="G219" t="n">
+        <v>1</v>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="I219" t="n">
+        <v>1</v>
+      </c>
+      <c r="J219" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="K219" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L219" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P219" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:10</t>
+        </is>
+      </c>
+      <c r="R219" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>10/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T219" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:29</t>
+        </is>
+      </c>
+      <c r="V219" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-zaragoza/WAo8QMB1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E220" s="2" t="n">
+        <v>45277.875</v>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>Ferrol</t>
+        </is>
+      </c>
+      <c r="G220" t="n">
+        <v>3</v>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="I220" t="n">
+        <v>1</v>
+      </c>
+      <c r="J220" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="K220" t="inlineStr">
+        <is>
+          <t>11/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L220" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>17/12/2023 20:41</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>11/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P220" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>17/12/2023 20:58</t>
+        </is>
+      </c>
+      <c r="R220" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>11/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T220" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>17/12/2023 20:58</t>
+        </is>
+      </c>
+      <c r="V220" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-tenerife/bHwflQ38/</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E221" s="2" t="n">
+        <v>45278.85416666666</v>
+      </c>
+      <c r="F221" t="inlineStr">
+        <is>
+          <t>Villarreal B</t>
+        </is>
+      </c>
+      <c r="G221" t="n">
+        <v>1</v>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="K221" t="inlineStr">
+        <is>
+          <t>11/12/2023 03:42</t>
+        </is>
+      </c>
+      <c r="L221" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>18/12/2023 20:26</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>11/12/2023 03:42</t>
+        </is>
+      </c>
+      <c r="P221" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>18/12/2023 20:26</t>
+        </is>
+      </c>
+      <c r="R221" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>11/12/2023 03:42</t>
+        </is>
+      </c>
+      <c r="T221" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>18/12/2023 20:26</t>
+        </is>
+      </c>
+      <c r="V221" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-valladolid/x8xbmpJE/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V221"/>
+  <dimension ref="A1:V225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3977,7 +3977,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G39" t="n">
@@ -3985,63 +3985,63 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>2.37</v>
+        <v>1.65</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.11</v>
+        <v>1.92</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:56</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.33</v>
+        <v>3.82</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.47</v>
+        <v>3.51</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:52</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.15</v>
+        <v>5.66</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>26/08/2023 20:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.75</v>
+        <v>4.46</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>02/09/2023 20:59</t>
+          <t>02/09/2023 20:57</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-cartagena-sad/2FXXUSq4/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-racing-santander/CWkCDRET/</t>
         </is>
       </c>
     </row>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G40" t="n">
@@ -4077,63 +4077,63 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>1.65</v>
+        <v>2.37</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.92</v>
+        <v>2.11</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:56</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>3.82</v>
+        <v>3.33</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="P40" t="n">
-        <v>3.51</v>
+        <v>3.47</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:52</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>5.66</v>
+        <v>3.15</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>26/08/2023 20:42</t>
         </is>
       </c>
       <c r="T40" t="n">
-        <v>4.46</v>
+        <v>3.75</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>02/09/2023 20:57</t>
+          <t>02/09/2023 20:59</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-racing-santander/CWkCDRET/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-cartagena-sad/2FXXUSq4/</t>
         </is>
       </c>
     </row>
@@ -5081,22 +5081,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J51" t="n">
-        <v>1.85</v>
+        <v>2.22</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
@@ -5104,15 +5104,15 @@
         </is>
       </c>
       <c r="L51" t="n">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.44</v>
+        <v>3.13</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
@@ -5120,15 +5120,15 @@
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.47</v>
+        <v>3.53</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>4.79</v>
+        <v>3.71</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
@@ -5136,16 +5136,16 @@
         </is>
       </c>
       <c r="T51" t="n">
-        <v>5.36</v>
+        <v>4.63</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>10/09/2023 16:14</t>
+          <t>10/09/2023 16:08</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-amorebieta/AucBrnE3/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-villarreal/lzCGM4ip/</t>
         </is>
       </c>
     </row>
@@ -5173,22 +5173,22 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.22</v>
+        <v>1.85</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
@@ -5196,15 +5196,15 @@
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.88</v>
+        <v>1.8</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.13</v>
+        <v>3.44</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -5212,15 +5212,15 @@
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.53</v>
+        <v>3.47</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.71</v>
+        <v>4.79</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
@@ -5228,16 +5228,16 @@
         </is>
       </c>
       <c r="T52" t="n">
-        <v>4.63</v>
+        <v>5.36</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>10/09/2023 16:08</t>
+          <t>10/09/2023 16:14</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-villarreal/lzCGM4ip/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-amorebieta/AucBrnE3/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Levante</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
       <c r="J59" t="n">
-        <v>3.14</v>
+        <v>1.93</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.46</v>
+        <v>1.78</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:29</t>
+          <t>16/09/2023 18:24</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.07</v>
+        <v>3.57</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2.96</v>
+        <v>3.71</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:28</t>
+          <t>16/09/2023 18:24</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.53</v>
+        <v>4.16</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.53</v>
+        <v>5.02</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:29</t>
+          <t>16/09/2023 18:27</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-levante/tUzfzOLq/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-fc-cartagena-sad/lhXkfqDF/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.93</v>
+        <v>3.14</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.78</v>
+        <v>2.46</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:24</t>
+          <t>16/09/2023 18:29</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.57</v>
+        <v>3.07</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.71</v>
+        <v>2.96</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:24</t>
+          <t>16/09/2023 18:28</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.16</v>
+        <v>2.53</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>5.02</v>
+        <v>3.53</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:27</t>
+          <t>16/09/2023 18:29</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-fc-cartagena-sad/lhXkfqDF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-levante/tUzfzOLq/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.46</v>
+        <v>1.88</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.56</v>
+        <v>1.88</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:04</t>
+          <t>17/09/2023 18:28</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.23</v>
+        <v>3.33</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.04</v>
+        <v>3.31</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:26</t>
+          <t>17/09/2023 18:29</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>8.23</v>
+        <v>4.97</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>10/09/2023 20:13</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>6.99</v>
+        <v>5.07</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>17/09/2023 18:09</t>
+          <t>17/09/2023 18:29</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-eldense/IRyfg3SL/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-leganes/EZvwcoTd/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J65" t="n">
-        <v>1.88</v>
+        <v>1.46</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.88</v>
+        <v>1.56</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:28</t>
+          <t>17/09/2023 18:04</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.33</v>
+        <v>4.23</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.31</v>
+        <v>4.04</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:29</t>
+          <t>17/09/2023 18:26</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>4.97</v>
+        <v>8.23</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>10/09/2023 20:13</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>5.07</v>
+        <v>6.99</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>17/09/2023 18:29</t>
+          <t>17/09/2023 18:09</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-leganes/EZvwcoTd/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-eldense/IRyfg3SL/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J82" t="n">
-        <v>2.51</v>
+        <v>1.96</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.59</v>
+        <v>1.93</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>30/09/2023 20:40</t>
+          <t>30/09/2023 20:41</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.15</v>
+        <v>3.52</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>30/09/2023 20:46</t>
+          <t>30/09/2023 20:59</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>3.18</v>
+        <v>4.07</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="T82" t="n">
-        <v>3.02</v>
+        <v>4.55</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>30/09/2023 20:41</t>
+          <t>30/09/2023 20:54</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>1.96</v>
+        <v>2.51</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>23/09/2023 20:12</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.93</v>
+        <v>2.59</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
+          <t>30/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:46</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
           <t>30/09/2023 20:41</t>
         </is>
       </c>
-      <c r="N83" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="O83" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P83" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q83" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:59</t>
-        </is>
-      </c>
-      <c r="R83" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="S83" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T83" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:54</t>
-        </is>
-      </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.61</v>
+        <v>3.38</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.86</v>
+        <v>4.97</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.95</v>
+        <v>4.97</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G87" t="n">
+        <v>3</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Mirandes</t>
-        </is>
-      </c>
-      <c r="I87" t="n">
-        <v>1</v>
-      </c>
       <c r="J87" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.38</v>
+        <v>3.61</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.97</v>
+        <v>4.86</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>4.97</v>
+        <v>4.95</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
         <v>1</v>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Eibar</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
-        <v>3</v>
-      </c>
       <c r="J97" t="n">
-        <v>3.33</v>
+        <v>2.21</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,15 +9336,15 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>4.05</v>
+        <v>2.57</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>05/10/2023 18:57</t>
+          <t>05/10/2023 18:52</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.15</v>
+        <v>3.17</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.17</v>
+        <v>3.05</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>05/10/2023 18:53</t>
+          <t>05/10/2023 18:52</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>2.42</v>
+        <v>3.79</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,16 +9368,16 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2.15</v>
+        <v>3.23</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>05/10/2023 18:57</t>
+          <t>05/10/2023 18:52</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-eibar/dbCLFjug/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-zaragoza/69uu7ptM/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J98" t="n">
-        <v>2.21</v>
+        <v>3.33</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,48 +9428,48 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.57</v>
+        <v>4.05</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>05/10/2023 18:52</t>
+          <t>05/10/2023 18:57</t>
         </is>
       </c>
       <c r="N98" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
         <v>3.17</v>
       </c>
-      <c r="O98" t="inlineStr">
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>05/10/2023 18:53</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S98" t="inlineStr">
         <is>
           <t>01/10/2023 15:42</t>
         </is>
       </c>
-      <c r="P98" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>05/10/2023 18:52</t>
-        </is>
-      </c>
-      <c r="R98" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>01/10/2023 15:42</t>
-        </is>
-      </c>
       <c r="T98" t="n">
-        <v>3.23</v>
+        <v>2.15</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>05/10/2023 18:52</t>
+          <t>05/10/2023 18:57</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-zaragoza/69uu7ptM/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-eibar/dbCLFjug/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Espanyol</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>2</v>
-      </c>
       <c r="J99" t="n">
-        <v>4.05</v>
+        <v>1.74</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,48 +9520,48 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>3.73</v>
+        <v>1.71</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
+          <t>05/10/2023 21:21</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>02/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
           <t>05/10/2023 21:28</t>
         </is>
       </c>
-      <c r="N99" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O99" t="inlineStr">
+      <c r="R99" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="S99" t="inlineStr">
         <is>
           <t>02/10/2023 20:12</t>
         </is>
       </c>
-      <c r="P99" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q99" t="inlineStr">
+      <c r="T99" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="U99" t="inlineStr">
         <is>
           <t>05/10/2023 21:28</t>
         </is>
       </c>
-      <c r="R99" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>02/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T99" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>05/10/2023 21:26</t>
-        </is>
-      </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-espanyol/6TqabkAI/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-amorebieta/I7DHGWPn/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100" t="n">
-        <v>1.74</v>
+        <v>4.05</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>1.71</v>
+        <v>3.73</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>05/10/2023 21:21</t>
+          <t>05/10/2023 21:28</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.61</v>
+        <v>3.6</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,7 +9628,7 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.58</v>
+        <v>3.45</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         </is>
       </c>
       <c r="R100" t="n">
-        <v>5.24</v>
+        <v>1.94</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>5.95</v>
+        <v>2.13</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>05/10/2023 21:28</t>
+          <t>05/10/2023 21:26</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-amorebieta/I7DHGWPn/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-espanyol/6TqabkAI/</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -11805,38 +11805,38 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J124" t="n">
-        <v>2.86</v>
+        <v>2.13</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>15/10/2023 17:42</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>3.78</v>
+        <v>2.02</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>21/10/2023 16:13</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>2.87</v>
+        <v>3.48</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>15/10/2023 17:42</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>2.93</v>
+        <v>3.51</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -11844,24 +11844,24 @@
         </is>
       </c>
       <c r="R124" t="n">
-        <v>3.01</v>
+        <v>3.54</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>15/10/2023 17:42</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="T124" t="n">
-        <v>2.37</v>
+        <v>4.02</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>21/10/2023 16:13</t>
+          <t>21/10/2023 16:00</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-r-oviedo/6VzSIGi2/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-mirandes/htCdYeik/</t>
         </is>
       </c>
     </row>
@@ -11889,7 +11889,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -11897,38 +11897,38 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J125" t="n">
-        <v>2.13</v>
+        <v>2.86</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>15/10/2023 17:42</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>2.02</v>
+        <v>3.78</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 16:13</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>3.48</v>
+        <v>2.87</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>15/10/2023 17:42</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3.51</v>
+        <v>2.93</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -11936,24 +11936,24 @@
         </is>
       </c>
       <c r="R125" t="n">
-        <v>3.54</v>
+        <v>3.01</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>15/10/2023 17:42</t>
         </is>
       </c>
       <c r="T125" t="n">
-        <v>4.02</v>
+        <v>2.37</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>21/10/2023 16:00</t>
+          <t>21/10/2023 16:13</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-mirandes/htCdYeik/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-r-oviedo/6VzSIGi2/</t>
         </is>
       </c>
     </row>
@@ -13361,71 +13361,71 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>1.69</v>
+        <v>2.02</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 21:12</t>
         </is>
       </c>
       <c r="L141" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>29/10/2023 18:29</t>
+          <t>29/10/2023 18:01</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.91</v>
+        <v>3.14</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 21:12</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.67</v>
+        <v>3.3</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>29/10/2023 18:29</t>
+          <t>29/10/2023 18:27</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>5.32</v>
+        <v>4.58</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 21:12</t>
         </is>
       </c>
       <c r="T141" t="n">
-        <v>4.96</v>
+        <v>5.59</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>29/10/2023 18:29</t>
+          <t>29/10/2023 18:27</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-villarreal/tI6svnu8/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-alcorcon/EV4kxQ9K/</t>
         </is>
       </c>
     </row>
@@ -13453,71 +13453,71 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>2.02</v>
+        <v>1.69</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>23/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>29/10/2023 18:01</t>
+          <t>29/10/2023 18:29</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.14</v>
+        <v>3.91</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>23/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.3</v>
+        <v>3.67</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>29/10/2023 18:27</t>
+          <t>29/10/2023 18:29</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>4.58</v>
+        <v>5.32</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>23/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T142" t="n">
-        <v>5.59</v>
+        <v>4.96</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>29/10/2023 18:27</t>
+          <t>29/10/2023 18:29</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-alcorcon/EV4kxQ9K/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-villarreal/tI6svnu8/</t>
         </is>
       </c>
     </row>
@@ -15937,22 +15937,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
         <v>2</v>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Tenerife</t>
-        </is>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
       <c r="J169" t="n">
-        <v>3.76</v>
+        <v>1.91</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -15960,7 +15960,7 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>2.92</v>
+        <v>2.14</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         </is>
       </c>
       <c r="N169" t="n">
-        <v>3.16</v>
+        <v>3.32</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -15976,15 +15976,15 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>2.88</v>
+        <v>3.03</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>18/11/2023 18:26</t>
+          <t>18/11/2023 18:29</t>
         </is>
       </c>
       <c r="R169" t="n">
-        <v>2.23</v>
+        <v>4.81</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         </is>
       </c>
       <c r="T169" t="n">
-        <v>2.96</v>
+        <v>4.34</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-tenerife/OrV1hx0I/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-huesca/dfxYfVLG/</t>
         </is>
       </c>
     </row>
@@ -16029,22 +16029,22 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G170" t="n">
+        <v>2</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>Huesca</t>
-        </is>
-      </c>
-      <c r="I170" t="n">
-        <v>2</v>
-      </c>
       <c r="J170" t="n">
-        <v>1.91</v>
+        <v>3.76</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>2.14</v>
+        <v>2.92</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3.32</v>
+        <v>3.16</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -16068,32 +16068,32 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3.03</v>
+        <v>2.88</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
+          <t>18/11/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R170" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T170" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
           <t>18/11/2023 18:29</t>
         </is>
       </c>
-      <c r="R170" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="S170" t="inlineStr">
-        <is>
-          <t>12/11/2023 18:42</t>
-        </is>
-      </c>
-      <c r="T170" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="U170" t="inlineStr">
-        <is>
-          <t>18/11/2023 18:29</t>
-        </is>
-      </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-huesca/dfxYfVLG/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-tenerife/OrV1hx0I/</t>
         </is>
       </c>
     </row>
@@ -16305,7 +16305,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -16313,63 +16313,63 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J173" t="n">
-        <v>2.94</v>
+        <v>1.99</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>13/11/2023 22:12</t>
+          <t>12/11/2023 16:43</t>
         </is>
       </c>
       <c r="L173" t="n">
-        <v>2.76</v>
+        <v>2.23</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>19/11/2023 15:49</t>
+          <t>19/11/2023 16:13</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>2.94</v>
+        <v>3.46</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>13/11/2023 22:12</t>
+          <t>12/11/2023 16:43</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>2.87</v>
+        <v>3.26</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
+          <t>19/11/2023 16:11</t>
+        </is>
+      </c>
+      <c r="R173" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T173" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
           <t>19/11/2023 16:13</t>
         </is>
       </c>
-      <c r="R173" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="S173" t="inlineStr">
-        <is>
-          <t>13/11/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T173" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U173" t="inlineStr">
-        <is>
-          <t>19/11/2023 15:49</t>
-        </is>
-      </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-eibar/OtvQdii4/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-mirandes/08hVzAUp/</t>
         </is>
       </c>
     </row>
@@ -16397,7 +16397,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="G174" t="n">
@@ -16405,63 +16405,63 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J174" t="n">
-        <v>1.99</v>
+        <v>2.94</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>12/11/2023 16:43</t>
+          <t>13/11/2023 22:12</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.23</v>
+        <v>2.76</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
+          <t>19/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>13/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P174" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
           <t>19/11/2023 16:13</t>
         </is>
       </c>
-      <c r="N174" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="O174" t="inlineStr">
-        <is>
-          <t>12/11/2023 16:43</t>
-        </is>
-      </c>
-      <c r="P174" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="Q174" t="inlineStr">
-        <is>
-          <t>19/11/2023 16:11</t>
-        </is>
-      </c>
       <c r="R174" t="n">
-        <v>4.02</v>
+        <v>2.79</v>
       </c>
       <c r="S174" t="inlineStr">
         <is>
-          <t>12/11/2023 16:43</t>
+          <t>13/11/2023 22:12</t>
         </is>
       </c>
       <c r="T174" t="n">
-        <v>3.66</v>
+        <v>3.1</v>
       </c>
       <c r="U174" t="inlineStr">
         <is>
-          <t>19/11/2023 16:13</t>
+          <t>19/11/2023 15:49</t>
         </is>
       </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-mirandes/08hVzAUp/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-eibar/OtvQdii4/</t>
         </is>
       </c>
     </row>
@@ -17317,7 +17317,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G184" t="n">
@@ -17325,14 +17325,14 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>3.17</v>
+        <v>1.46</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -17340,15 +17340,15 @@
         </is>
       </c>
       <c r="L184" t="n">
-        <v>3.38</v>
+        <v>1.41</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>26/11/2023 16:10</t>
+          <t>26/11/2023 16:13</t>
         </is>
       </c>
       <c r="N184" t="n">
-        <v>2.91</v>
+        <v>4.56</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -17356,15 +17356,15 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>2.82</v>
+        <v>4.57</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>26/11/2023 16:07</t>
+          <t>26/11/2023 16:13</t>
         </is>
       </c>
       <c r="R184" t="n">
-        <v>2.64</v>
+        <v>7.55</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
@@ -17372,16 +17372,16 @@
         </is>
       </c>
       <c r="T184" t="n">
-        <v>2.65</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>26/11/2023 16:10</t>
+          <t>26/11/2023 16:13</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-r-oviedo/lpNmCWji/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-amorebieta/z1Pa9UzA/</t>
         </is>
       </c>
     </row>
@@ -17409,7 +17409,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G185" t="n">
@@ -17417,14 +17417,14 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="n">
-        <v>1.46</v>
+        <v>3.17</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -17432,15 +17432,15 @@
         </is>
       </c>
       <c r="L185" t="n">
-        <v>1.41</v>
+        <v>3.38</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>26/11/2023 16:13</t>
+          <t>26/11/2023 16:10</t>
         </is>
       </c>
       <c r="N185" t="n">
-        <v>4.56</v>
+        <v>2.91</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
@@ -17448,15 +17448,15 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>4.57</v>
+        <v>2.82</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>26/11/2023 16:13</t>
+          <t>26/11/2023 16:07</t>
         </is>
       </c>
       <c r="R185" t="n">
-        <v>7.55</v>
+        <v>2.64</v>
       </c>
       <c r="S185" t="inlineStr">
         <is>
@@ -17464,16 +17464,16 @@
         </is>
       </c>
       <c r="T185" t="n">
-        <v>9.470000000000001</v>
+        <v>2.65</v>
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>26/11/2023 16:13</t>
+          <t>26/11/2023 16:10</t>
         </is>
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-amorebieta/z1Pa9UzA/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-r-oviedo/lpNmCWji/</t>
         </is>
       </c>
     </row>
@@ -18421,22 +18421,22 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="I196" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J196" t="n">
-        <v>2.55</v>
+        <v>2.43</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -18444,15 +18444,15 @@
         </is>
       </c>
       <c r="L196" t="n">
-        <v>2.9</v>
+        <v>2.47</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>03/12/2023 18:29</t>
+          <t>03/12/2023 18:21</t>
         </is>
       </c>
       <c r="N196" t="n">
-        <v>3.08</v>
+        <v>3.31</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
@@ -18460,15 +18460,15 @@
         </is>
       </c>
       <c r="P196" t="n">
-        <v>3.08</v>
+        <v>3.17</v>
       </c>
       <c r="Q196" t="inlineStr">
         <is>
-          <t>03/12/2023 18:25</t>
+          <t>03/12/2023 18:21</t>
         </is>
       </c>
       <c r="R196" t="n">
-        <v>3.17</v>
+        <v>3.16</v>
       </c>
       <c r="S196" t="inlineStr">
         <is>
@@ -18476,16 +18476,16 @@
         </is>
       </c>
       <c r="T196" t="n">
-        <v>2.79</v>
+        <v>3.25</v>
       </c>
       <c r="U196" t="inlineStr">
         <is>
-          <t>03/12/2023 18:29</t>
+          <t>03/12/2023 18:21</t>
         </is>
       </c>
       <c r="V196" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-albacete/dUhsM7KF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-racing-santander/IwfwNm59/</t>
         </is>
       </c>
     </row>
@@ -18513,22 +18513,22 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J197" t="n">
-        <v>2.43</v>
+        <v>2.55</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -18536,15 +18536,15 @@
         </is>
       </c>
       <c r="L197" t="n">
-        <v>2.47</v>
+        <v>2.9</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>03/12/2023 18:21</t>
+          <t>03/12/2023 18:29</t>
         </is>
       </c>
       <c r="N197" t="n">
-        <v>3.31</v>
+        <v>3.08</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
@@ -18552,32 +18552,32 @@
         </is>
       </c>
       <c r="P197" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="R197" t="n">
         <v>3.17</v>
       </c>
-      <c r="Q197" t="inlineStr">
-        <is>
-          <t>03/12/2023 18:21</t>
-        </is>
-      </c>
-      <c r="R197" t="n">
-        <v>3.16</v>
-      </c>
       <c r="S197" t="inlineStr">
         <is>
           <t>26/11/2023 18:43</t>
         </is>
       </c>
       <c r="T197" t="n">
-        <v>3.25</v>
+        <v>2.79</v>
       </c>
       <c r="U197" t="inlineStr">
         <is>
-          <t>03/12/2023 18:21</t>
+          <t>03/12/2023 18:29</t>
         </is>
       </c>
       <c r="V197" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-racing-santander/IwfwNm59/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-albacete/dUhsM7KF/</t>
         </is>
       </c>
     </row>
@@ -19433,71 +19433,71 @@
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="G207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J207" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
-          <t>03/12/2023 18:43</t>
+          <t>04/12/2023 20:42</t>
         </is>
       </c>
       <c r="L207" t="n">
-        <v>1.81</v>
+        <v>1.67</v>
       </c>
       <c r="M207" t="inlineStr">
         <is>
-          <t>10/12/2023 18:29</t>
+          <t>10/12/2023 18:17</t>
         </is>
       </c>
       <c r="N207" t="n">
-        <v>3.42</v>
+        <v>3.66</v>
       </c>
       <c r="O207" t="inlineStr">
         <is>
-          <t>03/12/2023 18:43</t>
+          <t>04/12/2023 20:42</t>
         </is>
       </c>
       <c r="P207" t="n">
-        <v>3.33</v>
+        <v>3.73</v>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
-          <t>10/12/2023 18:29</t>
+          <t>10/12/2023 18:17</t>
         </is>
       </c>
       <c r="R207" t="n">
-        <v>5.15</v>
+        <v>5.2</v>
       </c>
       <c r="S207" t="inlineStr">
         <is>
-          <t>03/12/2023 18:43</t>
+          <t>04/12/2023 20:42</t>
         </is>
       </c>
       <c r="T207" t="n">
-        <v>5.67</v>
+        <v>6.12</v>
       </c>
       <c r="U207" t="inlineStr">
         <is>
-          <t>10/12/2023 18:29</t>
+          <t>10/12/2023 18:17</t>
         </is>
       </c>
       <c r="V207" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-eldense/dlHOYp4L/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eibar-fc-andorra/6T3MJNPR/</t>
         </is>
       </c>
     </row>
@@ -19525,71 +19525,71 @@
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="G208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="I208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J208" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
-          <t>04/12/2023 20:42</t>
+          <t>03/12/2023 18:43</t>
         </is>
       </c>
       <c r="L208" t="n">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="M208" t="inlineStr">
         <is>
-          <t>10/12/2023 18:17</t>
+          <t>10/12/2023 18:29</t>
         </is>
       </c>
       <c r="N208" t="n">
-        <v>3.66</v>
+        <v>3.42</v>
       </c>
       <c r="O208" t="inlineStr">
         <is>
-          <t>04/12/2023 20:42</t>
+          <t>03/12/2023 18:43</t>
         </is>
       </c>
       <c r="P208" t="n">
-        <v>3.73</v>
+        <v>3.33</v>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
-          <t>10/12/2023 18:17</t>
+          <t>10/12/2023 18:29</t>
         </is>
       </c>
       <c r="R208" t="n">
-        <v>5.2</v>
+        <v>5.15</v>
       </c>
       <c r="S208" t="inlineStr">
         <is>
-          <t>04/12/2023 20:42</t>
+          <t>03/12/2023 18:43</t>
         </is>
       </c>
       <c r="T208" t="n">
-        <v>6.12</v>
+        <v>5.67</v>
       </c>
       <c r="U208" t="inlineStr">
         <is>
-          <t>10/12/2023 18:17</t>
+          <t>10/12/2023 18:29</t>
         </is>
       </c>
       <c r="V208" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eibar-fc-andorra/6T3MJNPR/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-eldense/dlHOYp4L/</t>
         </is>
       </c>
     </row>
@@ -20077,71 +20077,71 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="I214" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J214" t="n">
-        <v>2.1</v>
+        <v>2.52</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>10/12/2023 18:42</t>
+          <t>10/12/2023 14:12</t>
         </is>
       </c>
       <c r="L214" t="n">
-        <v>2.02</v>
+        <v>2.37</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>16/12/2023 18:28</t>
+          <t>16/12/2023 18:29</t>
         </is>
       </c>
       <c r="N214" t="n">
-        <v>3.14</v>
+        <v>2.99</v>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>10/12/2023 18:42</t>
+          <t>10/12/2023 14:12</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>3.03</v>
+        <v>2.88</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>16/12/2023 18:28</t>
+          <t>16/12/2023 18:29</t>
         </is>
       </c>
       <c r="R214" t="n">
-        <v>4.06</v>
+        <v>3.26</v>
       </c>
       <c r="S214" t="inlineStr">
         <is>
-          <t>10/12/2023 18:42</t>
+          <t>10/12/2023 14:12</t>
         </is>
       </c>
       <c r="T214" t="n">
-        <v>4.89</v>
+        <v>3.88</v>
       </c>
       <c r="U214" t="inlineStr">
         <is>
-          <t>16/12/2023 18:28</t>
+          <t>16/12/2023 18:29</t>
         </is>
       </c>
       <c r="V214" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-leganes/WrPzSZn6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-burgos-cf/tfWNUy3m/</t>
         </is>
       </c>
     </row>
@@ -20169,71 +20169,71 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="I215" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J215" t="n">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>10/12/2023 14:12</t>
+          <t>10/12/2023 18:42</t>
         </is>
       </c>
       <c r="L215" t="n">
-        <v>2.37</v>
+        <v>2.02</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>16/12/2023 18:29</t>
+          <t>16/12/2023 18:28</t>
         </is>
       </c>
       <c r="N215" t="n">
-        <v>2.99</v>
+        <v>3.14</v>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>10/12/2023 14:12</t>
+          <t>10/12/2023 18:42</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>2.88</v>
+        <v>3.03</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>16/12/2023 18:29</t>
+          <t>16/12/2023 18:28</t>
         </is>
       </c>
       <c r="R215" t="n">
-        <v>3.26</v>
+        <v>4.06</v>
       </c>
       <c r="S215" t="inlineStr">
         <is>
-          <t>10/12/2023 14:12</t>
+          <t>10/12/2023 18:42</t>
         </is>
       </c>
       <c r="T215" t="n">
-        <v>3.88</v>
+        <v>4.89</v>
       </c>
       <c r="U215" t="inlineStr">
         <is>
-          <t>16/12/2023 18:29</t>
+          <t>16/12/2023 18:28</t>
         </is>
       </c>
       <c r="V215" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-burgos-cf/tfWNUy3m/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-leganes/WrPzSZn6/</t>
         </is>
       </c>
     </row>
@@ -20786,6 +20786,374 @@
       <c r="V221" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-valladolid/x8xbmpJE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E222" s="2" t="n">
+        <v>45279.79166666666</v>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>Albacete</t>
+        </is>
+      </c>
+      <c r="G222" t="n">
+        <v>1</v>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>Eldense</t>
+        </is>
+      </c>
+      <c r="I222" t="n">
+        <v>1</v>
+      </c>
+      <c r="J222" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="K222" t="inlineStr">
+        <is>
+          <t>16/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L222" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>19/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>16/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P222" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>19/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R222" t="n">
+        <v>5.98</v>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>16/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T222" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="U222" t="inlineStr">
+        <is>
+          <t>19/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V222" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-eldense/AZNvRg2C/</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E223" s="2" t="n">
+        <v>45279.79166666666</v>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="G223" t="n">
+        <v>2</v>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>Andorra</t>
+        </is>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="K223" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L223" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>19/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P223" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>19/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R223" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T223" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>19/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="V223" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-fc-andorra/OpS8mYe0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E224" s="2" t="n">
+        <v>45279.89583333334</v>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>Elche</t>
+        </is>
+      </c>
+      <c r="G224" t="n">
+        <v>0</v>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>Mirandes</t>
+        </is>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K224" t="inlineStr">
+        <is>
+          <t>16/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L224" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>19/12/2023 21:13</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>16/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P224" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>19/12/2023 21:13</t>
+        </is>
+      </c>
+      <c r="R224" t="n">
+        <v>4.98</v>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>16/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T224" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>19/12/2023 21:13</t>
+        </is>
+      </c>
+      <c r="V224" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-mirandes/IaRnPXWO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E225" s="2" t="n">
+        <v>45279.89583333334</v>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>Espanyol</t>
+        </is>
+      </c>
+      <c r="G225" t="n">
+        <v>3</v>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I225" t="n">
+        <v>3</v>
+      </c>
+      <c r="J225" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K225" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L225" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>19/12/2023 21:20</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P225" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>19/12/2023 21:27</t>
+        </is>
+      </c>
+      <c r="R225" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>16/12/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T225" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>19/12/2023 21:27</t>
+        </is>
+      </c>
+      <c r="V225" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-burgos-cf/lKe1reXn/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V225"/>
+  <dimension ref="A1:V228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,63 +4905,63 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.93</v>
+        <v>2.22</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 13:12</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.04</v>
+        <v>2.14</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>09/09/2023 20:57</t>
+          <t>09/09/2023 20:47</t>
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.25</v>
+        <v>3.18</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 13:12</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.12</v>
+        <v>3.18</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>09/09/2023 20:57</t>
+          <t>09/09/2023 20:47</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>4.86</v>
+        <v>3.64</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>03/09/2023 20:12</t>
+          <t>03/09/2023 13:12</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.58</v>
+        <v>4.07</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>09/09/2023 20:57</t>
+          <t>09/09/2023 20:47</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-huesca/pbkOupbM/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-albacete/2Fg3p8qi/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,63 +4997,63 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2.22</v>
+        <v>1.93</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>03/09/2023 13:12</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.14</v>
+        <v>2.04</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>09/09/2023 20:47</t>
+          <t>09/09/2023 20:57</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.18</v>
+        <v>3.25</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>03/09/2023 13:12</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.18</v>
+        <v>3.12</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>09/09/2023 20:47</t>
+          <t>09/09/2023 20:57</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.64</v>
+        <v>4.86</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>03/09/2023 13:12</t>
+          <t>03/09/2023 20:12</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.07</v>
+        <v>4.58</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>09/09/2023 20:47</t>
+          <t>09/09/2023 20:57</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-albacete/2Fg3p8qi/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-huesca/pbkOupbM/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>1.93</v>
+        <v>3.14</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>1.78</v>
+        <v>2.46</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:24</t>
+          <t>16/09/2023 18:29</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.57</v>
+        <v>3.07</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.71</v>
+        <v>2.96</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:24</t>
+          <t>16/09/2023 18:28</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>4.16</v>
+        <v>2.53</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>5.02</v>
+        <v>3.53</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:27</t>
+          <t>16/09/2023 18:29</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-fc-cartagena-sad/lhXkfqDF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-levante/tUzfzOLq/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G60" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Levante</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
-        <v>2</v>
-      </c>
       <c r="J60" t="n">
-        <v>3.14</v>
+        <v>1.93</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>2.46</v>
+        <v>1.78</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:29</t>
+          <t>16/09/2023 18:24</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.07</v>
+        <v>3.57</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>2.96</v>
+        <v>3.71</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:28</t>
+          <t>16/09/2023 18:24</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>2.53</v>
+        <v>4.16</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>3.53</v>
+        <v>5.02</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:29</t>
+          <t>16/09/2023 18:27</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-levante/tUzfzOLq/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-fc-cartagena-sad/lhXkfqDF/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G85" t="n">
+        <v>3</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Mirandes</t>
-        </is>
-      </c>
-      <c r="I85" t="n">
-        <v>1</v>
-      </c>
       <c r="J85" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.38</v>
+        <v>3.61</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.97</v>
+        <v>4.86</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.97</v>
+        <v>4.95</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
         </is>
       </c>
     </row>
@@ -8301,7 +8301,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8309,63 +8309,63 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="n">
-        <v>2.38</v>
+        <v>1.88</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>2.72</v>
+        <v>1.88</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>01/10/2023 18:29</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.24</v>
+        <v>3.38</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.09</v>
+        <v>3.38</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>01/10/2023 18:06</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>3.23</v>
+        <v>4.97</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>2.98</v>
+        <v>4.97</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>01/10/2023 18:29</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-cartagena-sad/2yRCnhB6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
         </is>
       </c>
     </row>
@@ -8393,22 +8393,22 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1.81</v>
+        <v>2.38</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.87</v>
+        <v>2.72</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 18:29</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.61</v>
+        <v>3.24</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.43</v>
+        <v>3.09</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 18:06</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>4.86</v>
+        <v>3.23</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>4.95</v>
+        <v>2.98</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 18:29</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-fc-cartagena-sad/2yRCnhB6/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J97" t="n">
-        <v>2.21</v>
+        <v>3.33</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,48 +9336,48 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.57</v>
+        <v>4.05</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>05/10/2023 18:52</t>
+          <t>05/10/2023 18:57</t>
         </is>
       </c>
       <c r="N97" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>01/10/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
         <v>3.17</v>
       </c>
-      <c r="O97" t="inlineStr">
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>05/10/2023 18:53</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="S97" t="inlineStr">
         <is>
           <t>01/10/2023 15:42</t>
         </is>
       </c>
-      <c r="P97" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>05/10/2023 18:52</t>
-        </is>
-      </c>
-      <c r="R97" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>01/10/2023 15:42</t>
-        </is>
-      </c>
       <c r="T97" t="n">
-        <v>3.23</v>
+        <v>2.15</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>05/10/2023 18:52</t>
+          <t>05/10/2023 18:57</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-zaragoza/69uu7ptM/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-eibar/dbCLFjug/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
         <v>1</v>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Eibar</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
-        <v>3</v>
-      </c>
       <c r="J98" t="n">
-        <v>3.33</v>
+        <v>2.21</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>4.05</v>
+        <v>2.57</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>05/10/2023 18:57</t>
+          <t>05/10/2023 18:52</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.15</v>
+        <v>3.17</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.17</v>
+        <v>3.05</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>05/10/2023 18:53</t>
+          <t>05/10/2023 18:52</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>2.42</v>
+        <v>3.79</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.15</v>
+        <v>3.23</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>05/10/2023 18:57</t>
+          <t>05/10/2023 18:52</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-eibar/dbCLFjug/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-andorra-zaragoza/69uu7ptM/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J99" t="n">
-        <v>1.74</v>
+        <v>4.05</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>1.71</v>
+        <v>3.73</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>05/10/2023 21:21</t>
+          <t>05/10/2023 21:28</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.61</v>
+        <v>3.6</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,7 +9536,7 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.58</v>
+        <v>3.45</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -9544,7 +9544,7 @@
         </is>
       </c>
       <c r="R99" t="n">
-        <v>5.24</v>
+        <v>1.94</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>5.95</v>
+        <v>2.13</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>05/10/2023 21:28</t>
+          <t>05/10/2023 21:26</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-amorebieta/I7DHGWPn/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-espanyol/6TqabkAI/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G100" t="n">
+        <v>1</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>Espanyol</t>
-        </is>
-      </c>
-      <c r="I100" t="n">
-        <v>2</v>
-      </c>
       <c r="J100" t="n">
-        <v>4.05</v>
+        <v>1.74</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,48 +9612,48 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>3.73</v>
+        <v>1.71</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
+          <t>05/10/2023 21:21</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>02/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
           <t>05/10/2023 21:28</t>
         </is>
       </c>
-      <c r="N100" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O100" t="inlineStr">
+      <c r="R100" t="n">
+        <v>5.24</v>
+      </c>
+      <c r="S100" t="inlineStr">
         <is>
           <t>02/10/2023 20:12</t>
         </is>
       </c>
-      <c r="P100" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="Q100" t="inlineStr">
+      <c r="T100" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="U100" t="inlineStr">
         <is>
           <t>05/10/2023 21:28</t>
         </is>
       </c>
-      <c r="R100" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>02/10/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T100" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="U100" t="inlineStr">
-        <is>
-          <t>05/10/2023 21:26</t>
-        </is>
-      </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-espanyol/6TqabkAI/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-amorebieta/I7DHGWPn/</t>
         </is>
       </c>
     </row>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -10885,63 +10885,63 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J114" t="n">
-        <v>2.31</v>
+        <v>2.32</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>2.39</v>
+        <v>1.99</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:22</t>
+          <t>14/10/2023 18:21</t>
         </is>
       </c>
       <c r="N114" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
         <v>3.31</v>
       </c>
-      <c r="O114" t="inlineStr">
-        <is>
-          <t>08/10/2023 17:43</t>
-        </is>
-      </c>
-      <c r="P114" t="n">
-        <v>3.1</v>
-      </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:22</t>
+          <t>14/10/2023 18:29</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.38</v>
+        <v>3.59</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="T114" t="n">
-        <v>3.48</v>
+        <v>4.49</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:26</t>
+          <t>14/10/2023 18:29</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-racing-santander/vHbGN5wU/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-zaragoza/4bSYumgb/</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -10977,63 +10977,63 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J115" t="n">
-        <v>2.32</v>
+        <v>2.31</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>1.99</v>
+        <v>2.39</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:21</t>
+          <t>14/10/2023 18:22</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.03</v>
+        <v>3.31</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.31</v>
+        <v>3.1</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:29</t>
+          <t>14/10/2023 18:22</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>3.59</v>
+        <v>3.38</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>4.49</v>
+        <v>3.48</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:29</t>
+          <t>14/10/2023 18:26</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-zaragoza/4bSYumgb/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-racing-santander/vHbGN5wU/</t>
         </is>
       </c>
     </row>
@@ -11797,7 +11797,7 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G124" t="n">
@@ -11805,38 +11805,38 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J124" t="n">
-        <v>2.13</v>
+        <v>2.86</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>15/10/2023 17:42</t>
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.02</v>
+        <v>3.78</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
-          <t>21/10/2023 15:56</t>
+          <t>21/10/2023 16:13</t>
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.48</v>
+        <v>2.87</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>15/10/2023 17:42</t>
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.51</v>
+        <v>2.93</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -11844,24 +11844,24 @@
         </is>
       </c>
       <c r="R124" t="n">
-        <v>3.54</v>
+        <v>3.01</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
-          <t>15/10/2023 13:12</t>
+          <t>15/10/2023 17:42</t>
         </is>
       </c>
       <c r="T124" t="n">
-        <v>4.02</v>
+        <v>2.37</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>21/10/2023 16:00</t>
+          <t>21/10/2023 16:13</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-mirandes/htCdYeik/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-r-oviedo/6VzSIGi2/</t>
         </is>
       </c>
     </row>
@@ -11889,7 +11889,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G125" t="n">
@@ -11897,38 +11897,38 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J125" t="n">
-        <v>2.86</v>
+        <v>2.13</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
-          <t>15/10/2023 17:42</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="L125" t="n">
-        <v>3.78</v>
+        <v>2.02</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>21/10/2023 16:13</t>
+          <t>21/10/2023 15:56</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>2.87</v>
+        <v>3.48</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
-          <t>15/10/2023 17:42</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="P125" t="n">
-        <v>2.93</v>
+        <v>3.51</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
@@ -11936,24 +11936,24 @@
         </is>
       </c>
       <c r="R125" t="n">
-        <v>3.01</v>
+        <v>3.54</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
-          <t>15/10/2023 17:42</t>
+          <t>15/10/2023 13:12</t>
         </is>
       </c>
       <c r="T125" t="n">
-        <v>2.37</v>
+        <v>4.02</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>21/10/2023 16:13</t>
+          <t>21/10/2023 16:00</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-r-oviedo/6VzSIGi2/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-mirandes/htCdYeik/</t>
         </is>
       </c>
     </row>
@@ -15937,22 +15937,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G169" t="n">
+        <v>2</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Huesca</t>
-        </is>
-      </c>
-      <c r="I169" t="n">
-        <v>2</v>
-      </c>
       <c r="J169" t="n">
-        <v>1.91</v>
+        <v>3.76</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -15960,7 +15960,7 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>2.14</v>
+        <v>2.92</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         </is>
       </c>
       <c r="N169" t="n">
-        <v>3.32</v>
+        <v>3.16</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -15976,32 +15976,32 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>3.03</v>
+        <v>2.88</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
+          <t>18/11/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R169" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T169" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
           <t>18/11/2023 18:29</t>
         </is>
       </c>
-      <c r="R169" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="S169" t="inlineStr">
-        <is>
-          <t>12/11/2023 18:42</t>
-        </is>
-      </c>
-      <c r="T169" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="U169" t="inlineStr">
-        <is>
-          <t>18/11/2023 18:29</t>
-        </is>
-      </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-huesca/dfxYfVLG/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-tenerife/OrV1hx0I/</t>
         </is>
       </c>
     </row>
@@ -16029,22 +16029,22 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G170" t="n">
+        <v>0</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
         <v>2</v>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>Tenerife</t>
-        </is>
-      </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
       <c r="J170" t="n">
-        <v>3.76</v>
+        <v>1.91</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>2.92</v>
+        <v>2.14</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3.16</v>
+        <v>3.32</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -16068,15 +16068,15 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>2.88</v>
+        <v>3.03</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>18/11/2023 18:26</t>
+          <t>18/11/2023 18:29</t>
         </is>
       </c>
       <c r="R170" t="n">
-        <v>2.23</v>
+        <v>4.81</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
@@ -16084,7 +16084,7 @@
         </is>
       </c>
       <c r="T170" t="n">
-        <v>2.96</v>
+        <v>4.34</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
@@ -16093,7 +16093,7 @@
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-tenerife/OrV1hx0I/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-huesca/dfxYfVLG/</t>
         </is>
       </c>
     </row>
@@ -16857,71 +16857,71 @@
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
       <c r="J179" t="n">
-        <v>1.7</v>
+        <v>2.28</v>
       </c>
       <c r="K179" t="inlineStr">
         <is>
-          <t>20/11/2023 21:12</t>
+          <t>19/11/2023 18:42</t>
         </is>
       </c>
       <c r="L179" t="n">
-        <v>1.84</v>
+        <v>2.37</v>
       </c>
       <c r="M179" t="inlineStr">
         <is>
-          <t>25/11/2023 15:57</t>
+          <t>25/11/2023 15:47</t>
         </is>
       </c>
       <c r="N179" t="n">
-        <v>4.1</v>
+        <v>3.15</v>
       </c>
       <c r="O179" t="inlineStr">
         <is>
-          <t>20/11/2023 21:12</t>
+          <t>19/11/2023 18:42</t>
         </is>
       </c>
       <c r="P179" t="n">
-        <v>3.91</v>
+        <v>3.15</v>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
-          <t>25/11/2023 15:57</t>
+          <t>25/11/2023 16:09</t>
         </is>
       </c>
       <c r="R179" t="n">
-        <v>4.71</v>
+        <v>3.62</v>
       </c>
       <c r="S179" t="inlineStr">
         <is>
-          <t>20/11/2023 21:12</t>
+          <t>19/11/2023 18:42</t>
         </is>
       </c>
       <c r="T179" t="n">
-        <v>4.33</v>
+        <v>3.47</v>
       </c>
       <c r="U179" t="inlineStr">
         <is>
-          <t>25/11/2023 15:57</t>
+          <t>25/11/2023 15:47</t>
         </is>
       </c>
       <c r="V179" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-villarreal/SzMiBj6c/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-fc-andorra/KC5ELqeF/</t>
         </is>
       </c>
     </row>
@@ -16949,71 +16949,71 @@
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>2.28</v>
+        <v>1.7</v>
       </c>
       <c r="K180" t="inlineStr">
         <is>
-          <t>19/11/2023 18:42</t>
+          <t>20/11/2023 21:12</t>
         </is>
       </c>
       <c r="L180" t="n">
-        <v>2.37</v>
+        <v>1.84</v>
       </c>
       <c r="M180" t="inlineStr">
         <is>
-          <t>25/11/2023 15:47</t>
+          <t>25/11/2023 15:57</t>
         </is>
       </c>
       <c r="N180" t="n">
-        <v>3.15</v>
+        <v>4.1</v>
       </c>
       <c r="O180" t="inlineStr">
         <is>
-          <t>19/11/2023 18:42</t>
+          <t>20/11/2023 21:12</t>
         </is>
       </c>
       <c r="P180" t="n">
-        <v>3.15</v>
+        <v>3.91</v>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
-          <t>25/11/2023 16:09</t>
+          <t>25/11/2023 15:57</t>
         </is>
       </c>
       <c r="R180" t="n">
-        <v>3.62</v>
+        <v>4.71</v>
       </c>
       <c r="S180" t="inlineStr">
         <is>
-          <t>19/11/2023 18:42</t>
+          <t>20/11/2023 21:12</t>
         </is>
       </c>
       <c r="T180" t="n">
-        <v>3.47</v>
+        <v>4.33</v>
       </c>
       <c r="U180" t="inlineStr">
         <is>
-          <t>25/11/2023 15:47</t>
+          <t>25/11/2023 15:57</t>
         </is>
       </c>
       <c r="V180" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/burgos-cf-fc-andorra/KC5ELqeF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-villarreal/SzMiBj6c/</t>
         </is>
       </c>
     </row>
@@ -17317,7 +17317,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G184" t="n">
@@ -17325,14 +17325,14 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J184" t="n">
-        <v>1.46</v>
+        <v>3.17</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -17340,15 +17340,15 @@
         </is>
       </c>
       <c r="L184" t="n">
-        <v>1.41</v>
+        <v>3.38</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>26/11/2023 16:13</t>
+          <t>26/11/2023 16:10</t>
         </is>
       </c>
       <c r="N184" t="n">
-        <v>4.56</v>
+        <v>2.91</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -17356,15 +17356,15 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>4.57</v>
+        <v>2.82</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>26/11/2023 16:13</t>
+          <t>26/11/2023 16:07</t>
         </is>
       </c>
       <c r="R184" t="n">
-        <v>7.55</v>
+        <v>2.64</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
@@ -17372,16 +17372,16 @@
         </is>
       </c>
       <c r="T184" t="n">
-        <v>9.470000000000001</v>
+        <v>2.65</v>
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>26/11/2023 16:13</t>
+          <t>26/11/2023 16:10</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-amorebieta/z1Pa9UzA/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-r-oviedo/lpNmCWji/</t>
         </is>
       </c>
     </row>
@@ -17409,7 +17409,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G185" t="n">
@@ -17417,14 +17417,14 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="I185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>3.17</v>
+        <v>1.46</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -17432,15 +17432,15 @@
         </is>
       </c>
       <c r="L185" t="n">
-        <v>3.38</v>
+        <v>1.41</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>26/11/2023 16:10</t>
+          <t>26/11/2023 16:13</t>
         </is>
       </c>
       <c r="N185" t="n">
-        <v>2.91</v>
+        <v>4.56</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
@@ -17448,15 +17448,15 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>2.82</v>
+        <v>4.57</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>26/11/2023 16:07</t>
+          <t>26/11/2023 16:13</t>
         </is>
       </c>
       <c r="R185" t="n">
-        <v>2.64</v>
+        <v>7.55</v>
       </c>
       <c r="S185" t="inlineStr">
         <is>
@@ -17464,16 +17464,16 @@
         </is>
       </c>
       <c r="T185" t="n">
-        <v>2.65</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>26/11/2023 16:10</t>
+          <t>26/11/2023 16:13</t>
         </is>
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-r-oviedo/lpNmCWji/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-amorebieta/z1Pa9UzA/</t>
         </is>
       </c>
     </row>
@@ -18421,22 +18421,22 @@
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Ferrol</t>
         </is>
       </c>
       <c r="G196" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J196" t="n">
-        <v>2.43</v>
+        <v>2.55</v>
       </c>
       <c r="K196" t="inlineStr">
         <is>
@@ -18444,15 +18444,15 @@
         </is>
       </c>
       <c r="L196" t="n">
-        <v>2.47</v>
+        <v>2.9</v>
       </c>
       <c r="M196" t="inlineStr">
         <is>
-          <t>03/12/2023 18:21</t>
+          <t>03/12/2023 18:29</t>
         </is>
       </c>
       <c r="N196" t="n">
-        <v>3.31</v>
+        <v>3.08</v>
       </c>
       <c r="O196" t="inlineStr">
         <is>
@@ -18460,32 +18460,32 @@
         </is>
       </c>
       <c r="P196" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>03/12/2023 18:25</t>
+        </is>
+      </c>
+      <c r="R196" t="n">
         <v>3.17</v>
       </c>
-      <c r="Q196" t="inlineStr">
-        <is>
-          <t>03/12/2023 18:21</t>
-        </is>
-      </c>
-      <c r="R196" t="n">
-        <v>3.16</v>
-      </c>
       <c r="S196" t="inlineStr">
         <is>
           <t>26/11/2023 18:43</t>
         </is>
       </c>
       <c r="T196" t="n">
-        <v>3.25</v>
+        <v>2.79</v>
       </c>
       <c r="U196" t="inlineStr">
         <is>
-          <t>03/12/2023 18:21</t>
+          <t>03/12/2023 18:29</t>
         </is>
       </c>
       <c r="V196" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-racing-santander/IwfwNm59/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-albacete/dUhsM7KF/</t>
         </is>
       </c>
     </row>
@@ -18513,22 +18513,22 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G197" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="I197" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J197" t="n">
-        <v>2.55</v>
+        <v>2.43</v>
       </c>
       <c r="K197" t="inlineStr">
         <is>
@@ -18536,15 +18536,15 @@
         </is>
       </c>
       <c r="L197" t="n">
-        <v>2.9</v>
+        <v>2.47</v>
       </c>
       <c r="M197" t="inlineStr">
         <is>
-          <t>03/12/2023 18:29</t>
+          <t>03/12/2023 18:21</t>
         </is>
       </c>
       <c r="N197" t="n">
-        <v>3.08</v>
+        <v>3.31</v>
       </c>
       <c r="O197" t="inlineStr">
         <is>
@@ -18552,15 +18552,15 @@
         </is>
       </c>
       <c r="P197" t="n">
-        <v>3.08</v>
+        <v>3.17</v>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>03/12/2023 18:25</t>
+          <t>03/12/2023 18:21</t>
         </is>
       </c>
       <c r="R197" t="n">
-        <v>3.17</v>
+        <v>3.16</v>
       </c>
       <c r="S197" t="inlineStr">
         <is>
@@ -18568,16 +18568,16 @@
         </is>
       </c>
       <c r="T197" t="n">
-        <v>2.79</v>
+        <v>3.25</v>
       </c>
       <c r="U197" t="inlineStr">
         <is>
-          <t>03/12/2023 18:29</t>
+          <t>03/12/2023 18:21</t>
         </is>
       </c>
       <c r="V197" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/ferrol-albacete/dUhsM7KF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-racing-santander/IwfwNm59/</t>
         </is>
       </c>
     </row>
@@ -21154,6 +21154,282 @@
       <c r="V225" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-burgos-cf/lKe1reXn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E226" s="2" t="n">
+        <v>45280.79166666666</v>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>Zaragoza</t>
+        </is>
+      </c>
+      <c r="G226" t="n">
+        <v>2</v>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>Levante</t>
+        </is>
+      </c>
+      <c r="I226" t="n">
+        <v>2</v>
+      </c>
+      <c r="J226" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L226" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M226" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N226" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P226" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R226" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T226" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V226" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-levante/OxlEugH5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E227" s="2" t="n">
+        <v>45280.89583333334</v>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>Eibar</t>
+        </is>
+      </c>
+      <c r="G227" t="n">
+        <v>1</v>
+      </c>
+      <c r="H227" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="I227" t="n">
+        <v>1</v>
+      </c>
+      <c r="J227" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K227" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L227" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M227" t="inlineStr">
+        <is>
+          <t>20/12/2023 21:29</t>
+        </is>
+      </c>
+      <c r="N227" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P227" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>20/12/2023 21:29</t>
+        </is>
+      </c>
+      <c r="R227" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>17/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T227" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="U227" t="inlineStr">
+        <is>
+          <t>20/12/2023 21:29</t>
+        </is>
+      </c>
+      <c r="V227" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eibar-gijon/v9SrQDHI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E228" s="2" t="n">
+        <v>45280.89583333334</v>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="G228" t="n">
+        <v>1</v>
+      </c>
+      <c r="H228" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="I228" t="n">
+        <v>1</v>
+      </c>
+      <c r="J228" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="K228" t="inlineStr">
+        <is>
+          <t>17/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="L228" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>20/12/2023 21:16</t>
+        </is>
+      </c>
+      <c r="N228" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>17/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P228" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>20/12/2023 21:16</t>
+        </is>
+      </c>
+      <c r="R228" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>17/12/2023 21:12</t>
+        </is>
+      </c>
+      <c r="T228" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>20/12/2023 21:16</t>
+        </is>
+      </c>
+      <c r="V228" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-tenerife/K45VmH9P/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V228"/>
+  <dimension ref="A1:V230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10877,7 +10877,7 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G114" t="n">
@@ -10885,63 +10885,63 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="I114" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J114" t="n">
-        <v>2.32</v>
+        <v>2.31</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="L114" t="n">
-        <v>1.99</v>
+        <v>2.39</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:21</t>
+          <t>14/10/2023 18:22</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.03</v>
+        <v>3.31</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.31</v>
+        <v>3.1</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:29</t>
+          <t>14/10/2023 18:22</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>3.59</v>
+        <v>3.38</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
-          <t>08/10/2023 20:12</t>
+          <t>08/10/2023 17:43</t>
         </is>
       </c>
       <c r="T114" t="n">
-        <v>4.49</v>
+        <v>3.48</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>14/10/2023 18:29</t>
+          <t>14/10/2023 18:26</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-zaragoza/4bSYumgb/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-racing-santander/vHbGN5wU/</t>
         </is>
       </c>
     </row>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G115" t="n">
@@ -10977,63 +10977,63 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I115" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J115" t="n">
-        <v>2.31</v>
+        <v>2.32</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>2.39</v>
+        <v>1.99</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:22</t>
+          <t>14/10/2023 18:21</t>
         </is>
       </c>
       <c r="N115" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>08/10/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
         <v>3.31</v>
       </c>
-      <c r="O115" t="inlineStr">
-        <is>
-          <t>08/10/2023 17:43</t>
-        </is>
-      </c>
-      <c r="P115" t="n">
-        <v>3.1</v>
-      </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:22</t>
+          <t>14/10/2023 18:29</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>3.38</v>
+        <v>3.59</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>08/10/2023 17:43</t>
+          <t>08/10/2023 20:12</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>3.48</v>
+        <v>4.49</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>14/10/2023 18:26</t>
+          <t>14/10/2023 18:29</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-racing-santander/vHbGN5wU/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-zaragoza/4bSYumgb/</t>
         </is>
       </c>
     </row>
@@ -15385,22 +15385,22 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="I163" t="n">
         <v>1</v>
       </c>
       <c r="J163" t="n">
-        <v>3.2</v>
+        <v>1.58</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,15 +15408,15 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>3.57</v>
+        <v>1.74</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>12/11/2023 18:27</t>
+          <t>12/11/2023 18:21</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>3.14</v>
+        <v>4.13</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -15424,15 +15424,15 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.05</v>
+        <v>3.53</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>12/11/2023 18:15</t>
+          <t>12/11/2023 18:28</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>2.46</v>
+        <v>6.22</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -15440,16 +15440,16 @@
         </is>
       </c>
       <c r="T163" t="n">
-        <v>2.38</v>
+        <v>5.82</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>12/11/2023 18:27</t>
+          <t>12/11/2023 18:28</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/huesca-espanyol/zNxkevGa/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-villarreal/ULg6328J/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I164" t="n">
         <v>1</v>
       </c>
       <c r="J164" t="n">
-        <v>1.58</v>
+        <v>3.2</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,15 +15500,15 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>1.74</v>
+        <v>3.57</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>12/11/2023 18:21</t>
+          <t>12/11/2023 18:27</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>4.13</v>
+        <v>3.14</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,15 +15516,15 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.53</v>
+        <v>3.05</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>12/11/2023 18:28</t>
+          <t>12/11/2023 18:15</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>6.22</v>
+        <v>2.46</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,16 +15532,16 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>5.82</v>
+        <v>2.38</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>12/11/2023 18:28</t>
+          <t>12/11/2023 18:27</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-villarreal/ULg6328J/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/huesca-espanyol/zNxkevGa/</t>
         </is>
       </c>
     </row>
@@ -20077,71 +20077,71 @@
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G214" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="I214" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J214" t="n">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
-          <t>10/12/2023 14:12</t>
+          <t>10/12/2023 18:42</t>
         </is>
       </c>
       <c r="L214" t="n">
-        <v>2.37</v>
+        <v>2.02</v>
       </c>
       <c r="M214" t="inlineStr">
         <is>
-          <t>16/12/2023 18:29</t>
+          <t>16/12/2023 18:28</t>
         </is>
       </c>
       <c r="N214" t="n">
-        <v>2.99</v>
+        <v>3.14</v>
       </c>
       <c r="O214" t="inlineStr">
         <is>
-          <t>10/12/2023 14:12</t>
+          <t>10/12/2023 18:42</t>
         </is>
       </c>
       <c r="P214" t="n">
-        <v>2.88</v>
+        <v>3.03</v>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
-          <t>16/12/2023 18:29</t>
+          <t>16/12/2023 18:28</t>
         </is>
       </c>
       <c r="R214" t="n">
-        <v>3.26</v>
+        <v>4.06</v>
       </c>
       <c r="S214" t="inlineStr">
         <is>
-          <t>10/12/2023 14:12</t>
+          <t>10/12/2023 18:42</t>
         </is>
       </c>
       <c r="T214" t="n">
-        <v>3.88</v>
+        <v>4.89</v>
       </c>
       <c r="U214" t="inlineStr">
         <is>
-          <t>16/12/2023 18:29</t>
+          <t>16/12/2023 18:28</t>
         </is>
       </c>
       <c r="V214" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-burgos-cf/tfWNUy3m/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-leganes/WrPzSZn6/</t>
         </is>
       </c>
     </row>
@@ -20169,71 +20169,71 @@
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="I215" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J215" t="n">
-        <v>2.1</v>
+        <v>2.52</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
-          <t>10/12/2023 18:42</t>
+          <t>10/12/2023 14:12</t>
         </is>
       </c>
       <c r="L215" t="n">
-        <v>2.02</v>
+        <v>2.37</v>
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>16/12/2023 18:28</t>
+          <t>16/12/2023 18:29</t>
         </is>
       </c>
       <c r="N215" t="n">
-        <v>3.14</v>
+        <v>2.99</v>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>10/12/2023 18:42</t>
+          <t>10/12/2023 14:12</t>
         </is>
       </c>
       <c r="P215" t="n">
-        <v>3.03</v>
+        <v>2.88</v>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
-          <t>16/12/2023 18:28</t>
+          <t>16/12/2023 18:29</t>
         </is>
       </c>
       <c r="R215" t="n">
-        <v>4.06</v>
+        <v>3.26</v>
       </c>
       <c r="S215" t="inlineStr">
         <is>
-          <t>10/12/2023 18:42</t>
+          <t>10/12/2023 14:12</t>
         </is>
       </c>
       <c r="T215" t="n">
-        <v>4.89</v>
+        <v>3.88</v>
       </c>
       <c r="U215" t="inlineStr">
         <is>
-          <t>16/12/2023 18:28</t>
+          <t>16/12/2023 18:29</t>
         </is>
       </c>
       <c r="V215" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/gijon-leganes/WrPzSZn6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-burgos-cf/tfWNUy3m/</t>
         </is>
       </c>
     </row>
@@ -21430,6 +21430,190 @@
       <c r="V228" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/leganes-tenerife/K45VmH9P/</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E229" s="2" t="n">
+        <v>45281.79166666666</v>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="G229" t="n">
+        <v>3</v>
+      </c>
+      <c r="H229" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="I229" t="n">
+        <v>0</v>
+      </c>
+      <c r="J229" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K229" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="L229" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>21/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N229" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="P229" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>21/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R229" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>17/12/2023 16:42</t>
+        </is>
+      </c>
+      <c r="T229" t="n">
+        <v>4.81</v>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>21/12/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V229" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/huesca-fc-cartagena-sad/SAf5sFng/</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E230" s="2" t="n">
+        <v>45281.79166666666</v>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>Villarreal B</t>
+        </is>
+      </c>
+      <c r="G230" t="n">
+        <v>1</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>R. Oviedo</t>
+        </is>
+      </c>
+      <c r="I230" t="n">
+        <v>1</v>
+      </c>
+      <c r="J230" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="K230" t="inlineStr">
+        <is>
+          <t>18/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L230" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="M230" t="inlineStr">
+        <is>
+          <t>21/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="N230" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>18/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P230" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>21/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R230" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>18/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T230" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>21/12/2023 18:56</t>
+        </is>
+      </c>
+      <c r="V230" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-r-oviedo/IamIvDWB/</t>
         </is>
       </c>
     </row>

--- a/2023/spain_laliga2_2023-2024.xlsx
+++ b/2023/spain_laliga2_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V230"/>
+  <dimension ref="A1:V232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4345,71 +4345,71 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="G43" t="n">
+        <v>3</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
         <v>2</v>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Eldense</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
       <c r="J43" t="n">
-        <v>1.68</v>
+        <v>1.43</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.83</v>
+        <v>1.54</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:16</t>
+          <t>03/09/2023 18:25</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.54</v>
+        <v>4.54</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.28</v>
+        <v>3.99</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:24</t>
+          <t>03/09/2023 18:28</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>6.01</v>
+        <v>7.98</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>29/08/2023 08:42</t>
+          <t>28/08/2023 23:42</t>
         </is>
       </c>
       <c r="T43" t="n">
-        <v>5.59</v>
+        <v>7.65</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>03/09/2023 18:16</t>
+          <t>03/09/2023 18:28</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-eldense/dxXyUnaA/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-amorebieta/6mvPWlFi/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>1.43</v>
+        <v>1.68</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.54</v>
+        <v>1.83</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:25</t>
+          <t>03/09/2023 18:16</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>4.54</v>
+        <v>3.54</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.99</v>
+        <v>3.28</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:28</t>
+          <t>03/09/2023 18:24</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>7.98</v>
+        <v>6.01</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>28/08/2023 23:42</t>
+          <t>29/08/2023 08:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>7.65</v>
+        <v>5.59</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>03/09/2023 18:28</t>
+          <t>03/09/2023 18:16</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/espanyol-amorebieta/6mvPWlFi/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-eldense/dxXyUnaA/</t>
         </is>
       </c>
     </row>
@@ -5817,71 +5817,71 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G59" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>FC Cartagena SAD</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Levante</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
-        <v>2</v>
-      </c>
       <c r="J59" t="n">
-        <v>3.14</v>
+        <v>1.93</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2.46</v>
+        <v>1.78</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:29</t>
+          <t>16/09/2023 18:24</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.07</v>
+        <v>3.57</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="P59" t="n">
-        <v>2.96</v>
+        <v>3.71</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:28</t>
+          <t>16/09/2023 18:24</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>2.53</v>
+        <v>4.16</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>11/09/2023 20:13</t>
+          <t>13/09/2023 08:25</t>
         </is>
       </c>
       <c r="T59" t="n">
-        <v>3.53</v>
+        <v>5.02</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>16/09/2023 18:29</t>
+          <t>16/09/2023 18:27</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-levante/tUzfzOLq/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-fc-cartagena-sad/lhXkfqDF/</t>
         </is>
       </c>
     </row>
@@ -5909,71 +5909,71 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J60" t="n">
-        <v>1.93</v>
+        <v>3.14</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="L60" t="n">
-        <v>1.78</v>
+        <v>2.46</v>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:24</t>
+          <t>16/09/2023 18:29</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>3.57</v>
+        <v>3.07</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="P60" t="n">
-        <v>3.71</v>
+        <v>2.96</v>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:24</t>
+          <t>16/09/2023 18:28</t>
         </is>
       </c>
       <c r="R60" t="n">
-        <v>4.16</v>
+        <v>2.53</v>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>13/09/2023 08:25</t>
+          <t>11/09/2023 20:13</t>
         </is>
       </c>
       <c r="T60" t="n">
-        <v>5.02</v>
+        <v>3.53</v>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>16/09/2023 18:27</t>
+          <t>16/09/2023 18:29</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-fc-cartagena-sad/lhXkfqDF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-levante/tUzfzOLq/</t>
         </is>
       </c>
     </row>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
         <v>2</v>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Albacete</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>1</v>
-      </c>
       <c r="J72" t="n">
-        <v>2.56</v>
+        <v>2.4</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.66</v>
+        <v>2.31</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:55</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.12</v>
+        <v>2.95</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3</v>
+        <v>2.91</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:56</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>3.12</v>
+        <v>3.54</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>16/09/2023 20:12</t>
+          <t>18/09/2023 11:42</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.15</v>
+        <v>3.98</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>23/09/2023 20:57</t>
+          <t>23/09/2023 20:56</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-albacete/l6CO8rS8/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-huesca/2aDQmsjq/</t>
         </is>
       </c>
     </row>
@@ -7105,71 +7105,71 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J73" t="n">
-        <v>2.4</v>
+        <v>2.56</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="L73" t="n">
-        <v>2.31</v>
+        <v>2.66</v>
       </c>
       <c r="M73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:55</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="N73" t="n">
-        <v>2.95</v>
+        <v>3.12</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="P73" t="n">
-        <v>2.91</v>
+        <v>3</v>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:56</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="R73" t="n">
-        <v>3.54</v>
+        <v>3.12</v>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>18/09/2023 11:42</t>
+          <t>16/09/2023 20:12</t>
         </is>
       </c>
       <c r="T73" t="n">
-        <v>3.98</v>
+        <v>3.15</v>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>23/09/2023 20:56</t>
+          <t>23/09/2023 20:57</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-huesca/2aDQmsjq/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-albacete/l6CO8rS8/</t>
         </is>
       </c>
     </row>
@@ -7933,71 +7933,71 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>1.96</v>
+        <v>2.51</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
-          <t>23/09/2023 20:12</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.93</v>
+        <v>2.59</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
+          <t>30/09/2023 20:40</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>30/09/2023 20:46</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>25/09/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
           <t>30/09/2023 20:41</t>
         </is>
       </c>
-      <c r="N82" t="n">
-        <v>3.52</v>
-      </c>
-      <c r="O82" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P82" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="Q82" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:59</t>
-        </is>
-      </c>
-      <c r="R82" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="S82" t="inlineStr">
-        <is>
-          <t>23/09/2023 20:12</t>
-        </is>
-      </c>
-      <c r="T82" t="n">
-        <v>4.55</v>
-      </c>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>30/09/2023 20:54</t>
-        </is>
-      </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
         </is>
       </c>
     </row>
@@ -8025,71 +8025,71 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J83" t="n">
-        <v>2.51</v>
+        <v>1.96</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.59</v>
+        <v>1.93</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>30/09/2023 20:40</t>
+          <t>30/09/2023 20:41</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.15</v>
+        <v>3.52</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>30/09/2023 20:46</t>
+          <t>30/09/2023 20:59</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>3.18</v>
+        <v>4.07</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>23/09/2023 20:12</t>
         </is>
       </c>
       <c r="T83" t="n">
-        <v>3.02</v>
+        <v>4.55</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>30/09/2023 20:41</t>
+          <t>30/09/2023 20:54</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-alcorcon/44mr2XAg/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-fc-andorra/Opjz8QQF/</t>
         </is>
       </c>
     </row>
@@ -8209,71 +8209,71 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Valladolid</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1.81</v>
+        <v>1.88</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.61</v>
+        <v>3.38</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.43</v>
+        <v>3.38</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>4.86</v>
+        <v>4.97</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>25/09/2023 11:42</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="T85" t="n">
-        <v>4.95</v>
+        <v>4.97</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>01/10/2023 18:26</t>
+          <t>01/10/2023 16:13</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
         </is>
       </c>
     </row>
@@ -8301,71 +8301,71 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Valladolid</t>
         </is>
       </c>
       <c r="G86" t="n">
+        <v>3</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Mirandes</t>
-        </is>
-      </c>
-      <c r="I86" t="n">
-        <v>1</v>
-      </c>
       <c r="J86" t="n">
-        <v>1.88</v>
+        <v>1.81</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="L86" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="M86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="N86" t="n">
-        <v>3.38</v>
+        <v>3.61</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="P86" t="n">
-        <v>3.38</v>
+        <v>3.43</v>
       </c>
       <c r="Q86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="R86" t="n">
-        <v>4.97</v>
+        <v>4.86</v>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>25/09/2023 11:42</t>
         </is>
       </c>
       <c r="T86" t="n">
-        <v>4.97</v>
+        <v>4.95</v>
       </c>
       <c r="U86" t="inlineStr">
         <is>
-          <t>01/10/2023 16:13</t>
+          <t>01/10/2023 18:26</t>
         </is>
       </c>
       <c r="V86" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-mirandes/b3ti0Bu6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-burgos-cf/Gvin1iQa/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J130" t="n">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,15 +12372,15 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>2.19</v>
+        <v>2.1</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
-          <t>22/10/2023 18:09</t>
+          <t>22/10/2023 18:29</t>
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.46</v>
+        <v>3.37</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,15 +12388,15 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.1</v>
+        <v>3.31</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
-          <t>22/10/2023 18:09</t>
+          <t>22/10/2023 18:29</t>
         </is>
       </c>
       <c r="R130" t="n">
-        <v>4.19</v>
+        <v>4.23</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>4.02</v>
+        <v>3.99</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>22/10/2023 18:26</t>
+          <t>22/10/2023 18:29</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-gijon/A3sJKxNk/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-burgos-cf/IJsDtKq9/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Racing Santander</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G131" t="n">
+        <v>1</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Gijon</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
         <v>3</v>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Burgos CF</t>
-        </is>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
       <c r="J131" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,15 +12464,15 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.1</v>
+        <v>2.19</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
-          <t>22/10/2023 18:29</t>
+          <t>22/10/2023 18:09</t>
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.37</v>
+        <v>3.46</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,15 +12480,15 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.31</v>
+        <v>3.1</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
-          <t>22/10/2023 18:29</t>
+          <t>22/10/2023 18:09</t>
         </is>
       </c>
       <c r="R131" t="n">
-        <v>4.23</v>
+        <v>4.19</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>3.99</v>
+        <v>4.02</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>22/10/2023 18:29</t>
+          <t>22/10/2023 18:26</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/racing-santander-burgos-cf/IJsDtKq9/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/albacete-gijon/A3sJKxNk/</t>
         </is>
       </c>
     </row>
@@ -13361,71 +13361,71 @@
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Leganes</t>
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>2.02</v>
+        <v>1.69</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
-          <t>23/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L141" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="M141" t="inlineStr">
         <is>
-          <t>29/10/2023 18:01</t>
+          <t>29/10/2023 18:29</t>
         </is>
       </c>
       <c r="N141" t="n">
-        <v>3.14</v>
+        <v>3.91</v>
       </c>
       <c r="O141" t="inlineStr">
         <is>
-          <t>23/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P141" t="n">
-        <v>3.3</v>
+        <v>3.67</v>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
-          <t>29/10/2023 18:27</t>
+          <t>29/10/2023 18:29</t>
         </is>
       </c>
       <c r="R141" t="n">
-        <v>4.58</v>
+        <v>5.32</v>
       </c>
       <c r="S141" t="inlineStr">
         <is>
-          <t>23/10/2023 21:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T141" t="n">
-        <v>5.59</v>
+        <v>4.96</v>
       </c>
       <c r="U141" t="inlineStr">
         <is>
-          <t>29/10/2023 18:27</t>
+          <t>29/10/2023 18:29</t>
         </is>
       </c>
       <c r="V141" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-alcorcon/EV4kxQ9K/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-villarreal/tI6svnu8/</t>
         </is>
       </c>
     </row>
@@ -13453,71 +13453,71 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>1.69</v>
+        <v>2.02</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 21:12</t>
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>29/10/2023 18:29</t>
+          <t>29/10/2023 18:01</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.91</v>
+        <v>3.14</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 21:12</t>
         </is>
       </c>
       <c r="P142" t="n">
-        <v>3.67</v>
+        <v>3.3</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>29/10/2023 18:29</t>
+          <t>29/10/2023 18:27</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>5.32</v>
+        <v>4.58</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 21:12</t>
         </is>
       </c>
       <c r="T142" t="n">
-        <v>4.96</v>
+        <v>5.59</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>29/10/2023 18:29</t>
+          <t>29/10/2023 18:27</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/leganes-villarreal/tI6svnu8/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-alcorcon/EV4kxQ9K/</t>
         </is>
       </c>
     </row>
@@ -14373,62 +14373,62 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Alcorcon</t>
         </is>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Leganes</t>
+          <t>Racing Santander</t>
         </is>
       </c>
       <c r="I152" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J152" t="n">
-        <v>2.38</v>
+        <v>2.21</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
-          <t>29/10/2023 18:42</t>
+          <t>29/10/2023 21:12</t>
         </is>
       </c>
       <c r="L152" t="n">
-        <v>2.98</v>
+        <v>2.63</v>
       </c>
       <c r="M152" t="inlineStr">
         <is>
-          <t>05/11/2023 18:22</t>
+          <t>05/11/2023 18:29</t>
         </is>
       </c>
       <c r="N152" t="n">
-        <v>3.18</v>
+        <v>3.25</v>
       </c>
       <c r="O152" t="inlineStr">
         <is>
-          <t>29/10/2023 18:42</t>
+          <t>29/10/2023 21:12</t>
         </is>
       </c>
       <c r="P152" t="n">
-        <v>3.03</v>
+        <v>3.22</v>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
-          <t>05/11/2023 18:24</t>
+          <t>05/11/2023 18:28</t>
         </is>
       </c>
       <c r="R152" t="n">
-        <v>3.29</v>
+        <v>3.58</v>
       </c>
       <c r="S152" t="inlineStr">
         <is>
-          <t>29/10/2023 18:42</t>
+          <t>29/10/2023 21:12</t>
         </is>
       </c>
       <c r="T152" t="n">
-        <v>2.76</v>
+        <v>2.97</v>
       </c>
       <c r="U152" t="inlineStr">
         <is>
@@ -14437,7 +14437,7 @@
       </c>
       <c r="V152" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-leganes/SYUOjPOD/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-racing-santander/2ewwTLW6/</t>
         </is>
       </c>
     </row>
@@ -14465,71 +14465,71 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Alcorcon</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G153" t="n">
+        <v>0</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Leganes</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
         <v>3</v>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>Racing Santander</t>
-        </is>
-      </c>
-      <c r="I153" t="n">
-        <v>1</v>
-      </c>
       <c r="J153" t="n">
-        <v>2.21</v>
+        <v>2.38</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
-          <t>29/10/2023 21:12</t>
+          <t>29/10/2023 18:42</t>
         </is>
       </c>
       <c r="L153" t="n">
-        <v>2.63</v>
+        <v>2.98</v>
       </c>
       <c r="M153" t="inlineStr">
         <is>
+          <t>05/11/2023 18:22</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>05/11/2023 18:24</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
           <t>05/11/2023 18:29</t>
         </is>
       </c>
-      <c r="N153" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O153" t="inlineStr">
-        <is>
-          <t>29/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="P153" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="Q153" t="inlineStr">
-        <is>
-          <t>05/11/2023 18:28</t>
-        </is>
-      </c>
-      <c r="R153" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="S153" t="inlineStr">
-        <is>
-          <t>29/10/2023 21:12</t>
-        </is>
-      </c>
-      <c r="T153" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="U153" t="inlineStr">
-        <is>
-          <t>05/11/2023 18:29</t>
-        </is>
-      </c>
       <c r="V153" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/alcorcon-racing-santander/2ewwTLW6/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-leganes/SYUOjPOD/</t>
         </is>
       </c>
     </row>
@@ -14925,71 +14925,71 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G158" t="n">
+        <v>1</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Ferrol</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
         <v>2</v>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>Zaragoza</t>
-        </is>
-      </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
       <c r="J158" t="n">
-        <v>1.99</v>
+        <v>2.4</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="L158" t="n">
-        <v>2.07</v>
+        <v>2.48</v>
       </c>
       <c r="M158" t="inlineStr">
         <is>
-          <t>11/11/2023 18:20</t>
+          <t>11/11/2023 18:24</t>
         </is>
       </c>
       <c r="N158" t="n">
-        <v>3.37</v>
+        <v>3.11</v>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="P158" t="n">
-        <v>3.26</v>
+        <v>3.04</v>
       </c>
       <c r="Q158" t="inlineStr">
         <is>
-          <t>11/11/2023 18:29</t>
+          <t>11/11/2023 18:24</t>
         </is>
       </c>
       <c r="R158" t="n">
-        <v>4.16</v>
+        <v>3.32</v>
       </c>
       <c r="S158" t="inlineStr">
         <is>
-          <t>06/11/2023 21:13</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="T158" t="n">
-        <v>4.19</v>
+        <v>3.39</v>
       </c>
       <c r="U158" t="inlineStr">
         <is>
-          <t>11/11/2023 18:29</t>
+          <t>11/11/2023 18:24</t>
         </is>
       </c>
       <c r="V158" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-zaragoza/fk2Gtu16/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-ferrol/UqxgfbV5/</t>
         </is>
       </c>
     </row>
@@ -15017,71 +15017,71 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Ferrol</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="I159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>2.4</v>
+        <v>1.99</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="L159" t="n">
-        <v>2.48</v>
+        <v>2.07</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>11/11/2023 18:24</t>
+          <t>11/11/2023 18:20</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>3.11</v>
+        <v>3.37</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3.04</v>
+        <v>3.26</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>11/11/2023 18:24</t>
+          <t>11/11/2023 18:29</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>3.32</v>
+        <v>4.16</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>06/11/2023 21:13</t>
         </is>
       </c>
       <c r="T159" t="n">
-        <v>3.39</v>
+        <v>4.19</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>11/11/2023 18:24</t>
+          <t>11/11/2023 18:29</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-ferrol/UqxgfbV5/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-zaragoza/fk2Gtu16/</t>
         </is>
       </c>
     </row>
@@ -15385,22 +15385,22 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Tenerife</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="I163" t="n">
         <v>1</v>
       </c>
       <c r="J163" t="n">
-        <v>1.58</v>
+        <v>3.2</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -15408,15 +15408,15 @@
         </is>
       </c>
       <c r="L163" t="n">
-        <v>1.74</v>
+        <v>3.57</v>
       </c>
       <c r="M163" t="inlineStr">
         <is>
-          <t>12/11/2023 18:21</t>
+          <t>12/11/2023 18:27</t>
         </is>
       </c>
       <c r="N163" t="n">
-        <v>4.13</v>
+        <v>3.14</v>
       </c>
       <c r="O163" t="inlineStr">
         <is>
@@ -15424,15 +15424,15 @@
         </is>
       </c>
       <c r="P163" t="n">
-        <v>3.53</v>
+        <v>3.05</v>
       </c>
       <c r="Q163" t="inlineStr">
         <is>
-          <t>12/11/2023 18:28</t>
+          <t>12/11/2023 18:15</t>
         </is>
       </c>
       <c r="R163" t="n">
-        <v>6.22</v>
+        <v>2.46</v>
       </c>
       <c r="S163" t="inlineStr">
         <is>
@@ -15440,16 +15440,16 @@
         </is>
       </c>
       <c r="T163" t="n">
-        <v>5.82</v>
+        <v>2.38</v>
       </c>
       <c r="U163" t="inlineStr">
         <is>
-          <t>12/11/2023 18:28</t>
+          <t>12/11/2023 18:27</t>
         </is>
       </c>
       <c r="V163" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-villarreal/ULg6328J/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/huesca-espanyol/zNxkevGa/</t>
         </is>
       </c>
     </row>
@@ -15477,22 +15477,22 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Tenerife</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="I164" t="n">
         <v>1</v>
       </c>
       <c r="J164" t="n">
-        <v>3.2</v>
+        <v>1.58</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -15500,15 +15500,15 @@
         </is>
       </c>
       <c r="L164" t="n">
-        <v>3.57</v>
+        <v>1.74</v>
       </c>
       <c r="M164" t="inlineStr">
         <is>
-          <t>12/11/2023 18:27</t>
+          <t>12/11/2023 18:21</t>
         </is>
       </c>
       <c r="N164" t="n">
-        <v>3.14</v>
+        <v>4.13</v>
       </c>
       <c r="O164" t="inlineStr">
         <is>
@@ -15516,15 +15516,15 @@
         </is>
       </c>
       <c r="P164" t="n">
-        <v>3.05</v>
+        <v>3.53</v>
       </c>
       <c r="Q164" t="inlineStr">
         <is>
-          <t>12/11/2023 18:15</t>
+          <t>12/11/2023 18:28</t>
         </is>
       </c>
       <c r="R164" t="n">
-        <v>2.46</v>
+        <v>6.22</v>
       </c>
       <c r="S164" t="inlineStr">
         <is>
@@ -15532,16 +15532,16 @@
         </is>
       </c>
       <c r="T164" t="n">
-        <v>2.38</v>
+        <v>5.82</v>
       </c>
       <c r="U164" t="inlineStr">
         <is>
-          <t>12/11/2023 18:27</t>
+          <t>12/11/2023 18:28</t>
         </is>
       </c>
       <c r="V164" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/huesca-espanyol/zNxkevGa/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/tenerife-villarreal/ULg6328J/</t>
         </is>
       </c>
     </row>
@@ -15937,22 +15937,22 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Huesca</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
         <v>2</v>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Tenerife</t>
-        </is>
-      </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
       <c r="J169" t="n">
-        <v>3.76</v>
+        <v>1.91</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -15960,7 +15960,7 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>2.92</v>
+        <v>2.14</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
@@ -15968,7 +15968,7 @@
         </is>
       </c>
       <c r="N169" t="n">
-        <v>3.16</v>
+        <v>3.32</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -15976,15 +15976,15 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>2.88</v>
+        <v>3.03</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>18/11/2023 18:26</t>
+          <t>18/11/2023 18:29</t>
         </is>
       </c>
       <c r="R169" t="n">
-        <v>2.23</v>
+        <v>4.81</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
@@ -15992,7 +15992,7 @@
         </is>
       </c>
       <c r="T169" t="n">
-        <v>2.96</v>
+        <v>4.34</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
@@ -16001,7 +16001,7 @@
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-tenerife/OrV1hx0I/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-huesca/dfxYfVLG/</t>
         </is>
       </c>
     </row>
@@ -16029,22 +16029,22 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="G170" t="n">
+        <v>2</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Tenerife</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>Huesca</t>
-        </is>
-      </c>
-      <c r="I170" t="n">
-        <v>2</v>
-      </c>
       <c r="J170" t="n">
-        <v>1.91</v>
+        <v>3.76</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,7 +16052,7 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>2.14</v>
+        <v>2.92</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
@@ -16060,7 +16060,7 @@
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3.32</v>
+        <v>3.16</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -16068,32 +16068,32 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3.03</v>
+        <v>2.88</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
+          <t>18/11/2023 18:26</t>
+        </is>
+      </c>
+      <c r="R170" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>12/11/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T170" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
           <t>18/11/2023 18:29</t>
         </is>
       </c>
-      <c r="R170" t="n">
-        <v>4.81</v>
-      </c>
-      <c r="S170" t="inlineStr">
-        <is>
-          <t>12/11/2023 18:42</t>
-        </is>
-      </c>
-      <c r="T170" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="U170" t="inlineStr">
-        <is>
-          <t>18/11/2023 18:29</t>
-        </is>
-      </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/zaragoza-huesca/dfxYfVLG/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-tenerife/OrV1hx0I/</t>
         </is>
       </c>
     </row>
@@ -16305,7 +16305,7 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="G173" t="n">
@@ -16313,63 +16313,63 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Eibar</t>
         </is>
       </c>
       <c r="I173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J173" t="n">
-        <v>1.99</v>
+        <v>2.94</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>12/11/2023 16:43</t>
+          <t>13/11/2023 22:12</t>
         </is>
       </c>
       <c r="L173" t="n">
-        <v>2.23</v>
+        <v>2.76</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
+          <t>19/11/2023 15:49</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>13/11/2023 22:12</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
           <t>19/11/2023 16:13</t>
         </is>
       </c>
-      <c r="N173" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="O173" t="inlineStr">
-        <is>
-          <t>12/11/2023 16:43</t>
-        </is>
-      </c>
-      <c r="P173" t="n">
-        <v>3.26</v>
-      </c>
-      <c r="Q173" t="inlineStr">
-        <is>
-          <t>19/11/2023 16:11</t>
-        </is>
-      </c>
       <c r="R173" t="n">
-        <v>4.02</v>
+        <v>2.79</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
-          <t>12/11/2023 16:43</t>
+          <t>13/11/2023 22:12</t>
         </is>
       </c>
       <c r="T173" t="n">
-        <v>3.66</v>
+        <v>3.1</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>19/11/2023 16:13</t>
+          <t>19/11/2023 15:49</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-mirandes/08hVzAUp/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-eibar/OtvQdii4/</t>
         </is>
       </c>
     </row>
@@ -16397,7 +16397,7 @@
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="G174" t="n">
@@ -16405,63 +16405,63 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Eibar</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J174" t="n">
-        <v>2.94</v>
+        <v>1.99</v>
       </c>
       <c r="K174" t="inlineStr">
         <is>
-          <t>13/11/2023 22:12</t>
+          <t>12/11/2023 16:43</t>
         </is>
       </c>
       <c r="L174" t="n">
-        <v>2.76</v>
+        <v>2.23</v>
       </c>
       <c r="M174" t="inlineStr">
         <is>
-          <t>19/11/2023 15:49</t>
+          <t>19/11/2023 16:13</t>
         </is>
       </c>
       <c r="N174" t="n">
-        <v>2.94</v>
+        <v>3.46</v>
       </c>
       <c r="O174" t="inlineStr">
         <is>
-          <t>13/11/2023 22:12</t>
+          <t>12/11/2023 16:43</t>
         </is>
       </c>
       <c r="P174" t="n">
-        <v>2.87</v>
+        <v>3.26</v>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
+          <t>19/11/2023 16:11</t>
+        </is>
+      </c>
+      <c r="R174" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:43</t>
+        </is>
+      </c>
+      <c r="T174" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
           <t>19/11/2023 16:13</t>
         </is>
       </c>
-      <c r="R174" t="n">
-        <v>2.79</v>
-      </c>
-      <c r="S174" t="inlineStr">
-        <is>
-          <t>13/11/2023 22:12</t>
-        </is>
-      </c>
-      <c r="T174" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="U174" t="inlineStr">
-        <is>
-          <t>19/11/2023 15:49</t>
-        </is>
-      </c>
       <c r="V174" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/r-oviedo-eibar/OtvQdii4/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/eldense-mirandes/08hVzAUp/</t>
         </is>
       </c>
     </row>
@@ -16489,71 +16489,71 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>FC Cartagena SAD</t>
+          <t>Villarreal B</t>
         </is>
       </c>
       <c r="G175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>Andorra</t>
         </is>
       </c>
       <c r="I175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>2.87</v>
+        <v>2.54</v>
       </c>
       <c r="K175" t="inlineStr">
         <is>
-          <t>13/11/2023 22:12</t>
+          <t>12/11/2023 18:42</t>
         </is>
       </c>
       <c r="L175" t="n">
-        <v>3.69</v>
+        <v>2.61</v>
       </c>
       <c r="M175" t="inlineStr">
         <is>
-          <t>19/11/2023 18:27</t>
+          <t>19/11/2023 18:29</t>
         </is>
       </c>
       <c r="N175" t="n">
-        <v>3.15</v>
+        <v>3.3</v>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>13/11/2023 22:12</t>
+          <t>12/11/2023 18:42</t>
         </is>
       </c>
       <c r="P175" t="n">
-        <v>3.23</v>
+        <v>3.46</v>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
-          <t>19/11/2023 18:24</t>
+          <t>19/11/2023 18:04</t>
         </is>
       </c>
       <c r="R175" t="n">
-        <v>2.68</v>
+        <v>2.99</v>
       </c>
       <c r="S175" t="inlineStr">
         <is>
-          <t>13/11/2023 22:12</t>
+          <t>12/11/2023 18:42</t>
         </is>
       </c>
       <c r="T175" t="n">
-        <v>2.24</v>
+        <v>2.81</v>
       </c>
       <c r="U175" t="inlineStr">
         <is>
-          <t>19/11/2023 18:27</t>
+          <t>19/11/2023 18:29</t>
         </is>
       </c>
       <c r="V175" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-albacete/SEpHbDMi/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-andorra/xlG9MPu9/</t>
         </is>
       </c>
     </row>
@@ -16581,71 +16581,71 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>Villarreal B</t>
+          <t>FC Cartagena SAD</t>
         </is>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Andorra</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="n">
-        <v>2.54</v>
+        <v>2.87</v>
       </c>
       <c r="K176" t="inlineStr">
         <is>
-          <t>12/11/2023 18:42</t>
+          <t>13/11/2023 22:12</t>
         </is>
       </c>
       <c r="L176" t="n">
-        <v>2.61</v>
+        <v>3.69</v>
       </c>
       <c r="M176" t="inlineStr">
         <is>
-          <t>19/11/2023 18:29</t>
+          <t>19/11/2023 18:27</t>
         </is>
       </c>
       <c r="N176" t="n">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>12/11/2023 18:42</t>
+          <t>13/11/2023 22:12</t>
         </is>
       </c>
       <c r="P176" t="n">
-        <v>3.46</v>
+        <v>3.23</v>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
-          <t>19/11/2023 18:04</t>
+          <t>19/11/2023 18:24</t>
         </is>
       </c>
       <c r="R176" t="n">
-        <v>2.99</v>
+        <v>2.68</v>
       </c>
       <c r="S176" t="inlineStr">
         <is>
-          <t>12/11/2023 18:42</t>
+          <t>13/11/2023 22:12</t>
         </is>
       </c>
       <c r="T176" t="n">
-        <v>2.81</v>
+        <v>2.24</v>
       </c>
       <c r="U176" t="inlineStr">
         <is>
-          <t>19/11/2023 18:29</t>
+          <t>19/11/2023 18:27</t>
         </is>
       </c>
       <c r="V176" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-fc-andorra/xlG9MPu9/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/fc-cartagena-sad-albacete/SEpHbDMi/</t>
         </is>
       </c>
     </row>
@@ -17317,7 +17317,7 @@
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>Mirandes</t>
+          <t>Elche</t>
         </is>
       </c>
       <c r="G184" t="n">
@@ -17325,14 +17325,14 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Amorebieta</t>
         </is>
       </c>
       <c r="I184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J184" t="n">
-        <v>3.17</v>
+        <v>1.46</v>
       </c>
       <c r="K184" t="inlineStr">
         <is>
@@ -17340,15 +17340,15 @@
         </is>
       </c>
       <c r="L184" t="n">
-        <v>3.38</v>
+        <v>1.41</v>
       </c>
       <c r="M184" t="inlineStr">
         <is>
-          <t>26/11/2023 16:10</t>
+          <t>26/11/2023 16:13</t>
         </is>
       </c>
       <c r="N184" t="n">
-        <v>2.91</v>
+        <v>4.56</v>
       </c>
       <c r="O184" t="inlineStr">
         <is>
@@ -17356,15 +17356,15 @@
         </is>
       </c>
       <c r="P184" t="n">
-        <v>2.82</v>
+        <v>4.57</v>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
-          <t>26/11/2023 16:07</t>
+          <t>26/11/2023 16:13</t>
         </is>
       </c>
       <c r="R184" t="n">
-        <v>2.64</v>
+        <v>7.55</v>
       </c>
       <c r="S184" t="inlineStr">
         <is>
@@ -17372,16 +17372,16 @@
         </is>
       </c>
       <c r="T184" t="n">
-        <v>2.65</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="U184" t="inlineStr">
         <is>
-          <t>26/11/2023 16:10</t>
+          <t>26/11/2023 16:13</t>
         </is>
       </c>
       <c r="V184" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-r-oviedo/lpNmCWji/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/elche-amorebieta/z1Pa9UzA/</t>
         </is>
       </c>
     </row>
@@ -17409,7 +17409,7 @@
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>Elche</t>
+          <t>Mirandes</t>
         </is>
       </c>
       <c r="G185" t="n">
@@ -17417,14 +17417,14 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Amorebieta</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J185" t="n">
-        <v>1.46</v>
+        <v>3.17</v>
       </c>
       <c r="K185" t="inlineStr">
         <is>
@@ -17432,15 +17432,15 @@
         </is>
       </c>
       <c r="L185" t="n">
-        <v>1.41</v>
+        <v>3.38</v>
       </c>
       <c r="M185" t="inlineStr">
         <is>
-          <t>26/11/2023 16:13</t>
+          <t>26/11/2023 16:10</t>
         </is>
       </c>
       <c r="N185" t="n">
-        <v>4.56</v>
+        <v>2.91</v>
       </c>
       <c r="O185" t="inlineStr">
         <is>
@@ -17448,15 +17448,15 @@
         </is>
       </c>
       <c r="P185" t="n">
-        <v>4.57</v>
+        <v>2.82</v>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
-          <t>26/11/2023 16:13</t>
+          <t>26/11/2023 16:07</t>
         </is>
       </c>
       <c r="R185" t="n">
-        <v>7.55</v>
+        <v>2.64</v>
       </c>
       <c r="S185" t="inlineStr">
         <is>
@@ -17464,16 +17464,16 @@
         </is>
       </c>
       <c r="T185" t="n">
-        <v>9.470000000000001</v>
+        <v>2.65</v>
       </c>
       <c r="U185" t="inlineStr">
         <is>
-          <t>26/11/2023 16:13</t>
+          <t>26/11/2023 16:10</t>
         </is>
       </c>
       <c r="V185" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/spain/laliga2/elche-amorebieta/z1Pa9UzA/</t>
+          <t>https://www.betexplorer.com/football/spain/laliga2/mirandes-r-oviedo/lpNmCWji/</t>
         </is>
       </c>
     </row>
@@ -21614,6 +21614,190 @@
       <c r="V230" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/spain/laliga2/villarreal-r-oviedo/IamIvDWB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E231" s="2" t="n">
+        <v>45281.89583333334</v>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>Amorebieta</t>
+        </is>
+      </c>
+      <c r="G231" t="n">
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Alcorcon</t>
+        </is>
+      </c>
+      <c r="I231" t="n">
+        <v>2</v>
+      </c>
+      <c r="J231" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L231" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="M231" t="inlineStr">
+        <is>
+          <t>21/12/2023 21:27</t>
+        </is>
+      </c>
+      <c r="N231" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P231" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>21/12/2023 21:27</t>
+        </is>
+      </c>
+      <c r="R231" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>17/12/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T231" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>21/12/2023 21:27</t>
+        </is>
+      </c>
+      <c r="V231" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/amorebieta-alcorcon/fcdcqyIt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>spain</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>laliga2</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E232" s="2" t="n">
+        <v>45281.89583333334</v>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>Valladolid</t>
+        </is>
+      </c>
+      <c r="G232" t="n">
+        <v>0</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Ferrol</t>
+        </is>
+      </c>
+      <c r="I232" t="n">
+        <v>1</v>
+      </c>
+      <c r="J232" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K232" t="inlineStr">
+        <is>
+          <t>18/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L232" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M232" t="inlineStr">
+        <is>
+          <t>21/12/2023 21:29</t>
+        </is>
+      </c>
+      <c r="N232" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>18/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P232" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>21/12/2023 21:28</t>
+        </is>
+      </c>
+      <c r="R232" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>18/12/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T232" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>21/12/2023 21:29</t>
+        </is>
+      </c>
+      <c r="V232" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/spain/laliga2/valladolid-ferrol/pnkAtZ1a/</t>
         </is>
       </c>
     </row>
